--- a/Code/Results/Cases/Case_0_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_22/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9480711308064024</v>
+        <v>0.9480711308064005</v>
       </c>
       <c r="D2">
-        <v>0.9587045305871847</v>
+        <v>0.9587045305871832</v>
       </c>
       <c r="E2">
-        <v>0.9627610887536164</v>
+        <v>0.9627610887536148</v>
       </c>
       <c r="F2">
-        <v>0.9669178520356243</v>
+        <v>0.9669178520356227</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037947045658042</v>
+        <v>1.037947045658041</v>
       </c>
       <c r="J2">
-        <v>0.971924290051369</v>
+        <v>0.9719242900513675</v>
       </c>
       <c r="K2">
-        <v>0.9707708176254821</v>
+        <v>0.9707708176254807</v>
       </c>
       <c r="L2">
-        <v>0.9747648114243737</v>
+        <v>0.9747648114243721</v>
       </c>
       <c r="M2">
-        <v>0.9788581589014717</v>
+        <v>0.97885815890147</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9617065554082447</v>
+        <v>0.9617065554082453</v>
       </c>
       <c r="D3">
-        <v>0.9715382054927834</v>
+        <v>0.971538205492784</v>
       </c>
       <c r="E3">
-        <v>0.9743851562635985</v>
+        <v>0.974385156263599</v>
       </c>
       <c r="F3">
-        <v>0.9798202777132364</v>
+        <v>0.9798202777132368</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.041052167705985</v>
       </c>
       <c r="J3">
-        <v>0.9832985135491304</v>
+        <v>0.983298513549131</v>
       </c>
       <c r="K3">
-        <v>0.9825486962313545</v>
+        <v>0.9825486962313552</v>
       </c>
       <c r="L3">
-        <v>0.9853566258928825</v>
+        <v>0.9853566258928832</v>
       </c>
       <c r="M3">
-        <v>0.9907180436900956</v>
+        <v>0.990718043690096</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,13 +497,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9700440654648447</v>
+        <v>0.9700440654648445</v>
       </c>
       <c r="D4">
-        <v>0.9793927567840069</v>
+        <v>0.9793927567840066</v>
       </c>
       <c r="E4">
-        <v>0.9815030494436815</v>
+        <v>0.9815030494436813</v>
       </c>
       <c r="F4">
         <v>0.9877112100673271</v>
@@ -515,16 +515,16 @@
         <v>1.04292013319951</v>
       </c>
       <c r="J4">
-        <v>0.9902463783306509</v>
+        <v>0.9902463783306505</v>
       </c>
       <c r="K4">
-        <v>0.9897464249274095</v>
+        <v>0.9897464249274094</v>
       </c>
       <c r="L4">
-        <v>0.991829964659139</v>
+        <v>0.9918299646591388</v>
       </c>
       <c r="M4">
-        <v>0.997960248156782</v>
+        <v>0.9979602481567822</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9734448396371169</v>
+        <v>0.9734448396371163</v>
       </c>
       <c r="D5">
-        <v>0.9825980435070085</v>
+        <v>0.9825980435070076</v>
       </c>
       <c r="E5">
-        <v>0.9844085030663784</v>
+        <v>0.9844085030663777</v>
       </c>
       <c r="F5">
-        <v>0.9909298702812663</v>
+        <v>0.9909298702812653</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043674358591867</v>
+        <v>1.043674358591866</v>
       </c>
       <c r="J5">
-        <v>0.9930784556182607</v>
+        <v>0.9930784556182599</v>
       </c>
       <c r="K5">
-        <v>0.9926811310478495</v>
+        <v>0.9926811310478486</v>
       </c>
       <c r="L5">
-        <v>0.9944693907169229</v>
+        <v>0.9944693907169222</v>
       </c>
       <c r="M5">
-        <v>1.000911627423708</v>
+        <v>1.000911627423706</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9740100363529726</v>
+        <v>0.9740100363529731</v>
       </c>
       <c r="D6">
-        <v>0.9831308332609958</v>
+        <v>0.9831308332609967</v>
       </c>
       <c r="E6">
-        <v>0.98489149751992</v>
+        <v>0.9848914975199208</v>
       </c>
       <c r="F6">
-        <v>0.9914647934719879</v>
+        <v>0.9914647934719886</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.043799246023897</v>
       </c>
       <c r="J6">
-        <v>0.9935490213081912</v>
+        <v>0.9935490213081917</v>
       </c>
       <c r="K6">
-        <v>0.9931687947468939</v>
+        <v>0.9931687947468946</v>
       </c>
       <c r="L6">
-        <v>0.9949079908185982</v>
+        <v>0.9949079908185989</v>
       </c>
       <c r="M6">
-        <v>1.001401972829515</v>
+        <v>1.001401972829516</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.970089902426657</v>
+        <v>0.9700899024266585</v>
       </c>
       <c r="D7">
-        <v>0.9794359531910235</v>
+        <v>0.9794359531910249</v>
       </c>
       <c r="E7">
-        <v>0.9815422021179266</v>
+        <v>0.9815422021179279</v>
       </c>
       <c r="F7">
-        <v>0.9877545926919188</v>
+        <v>0.9877545926919197</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.042930329975095</v>
       </c>
       <c r="J7">
-        <v>0.9902845578753851</v>
+        <v>0.9902845578753865</v>
       </c>
       <c r="K7">
-        <v>0.989785984932529</v>
+        <v>0.9897859849325302</v>
       </c>
       <c r="L7">
-        <v>0.9918655440210326</v>
+        <v>0.9918655440210338</v>
       </c>
       <c r="M7">
-        <v>0.9980000388616717</v>
+        <v>0.9980000388616729</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9527876953412824</v>
+        <v>0.9527876953412847</v>
       </c>
       <c r="D8">
-        <v>0.9631420369526804</v>
+        <v>0.9631420369526826</v>
       </c>
       <c r="E8">
-        <v>0.9667794992943507</v>
+        <v>0.9667794992943528</v>
       </c>
       <c r="F8">
-        <v>0.9713802815125699</v>
+        <v>0.9713802815125721</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.039027496960801</v>
       </c>
       <c r="J8">
-        <v>0.9758600676090425</v>
+        <v>0.9758600676090448</v>
       </c>
       <c r="K8">
-        <v>0.9748455545723647</v>
+        <v>0.9748455545723668</v>
       </c>
       <c r="L8">
-        <v>0.9784290941106638</v>
+        <v>0.9784290941106658</v>
       </c>
       <c r="M8">
-        <v>0.9829624068048479</v>
+        <v>0.98296240680485</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9178988007907568</v>
+        <v>0.9178988007907547</v>
       </c>
       <c r="D9">
-        <v>0.9303643219577602</v>
+        <v>0.930364321957758</v>
       </c>
       <c r="E9">
-        <v>0.9371194851033762</v>
+        <v>0.9371194851033744</v>
       </c>
       <c r="F9">
-        <v>0.9383983677994084</v>
+        <v>0.9383983677994063</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030912302083559</v>
+        <v>1.030912302083558</v>
       </c>
       <c r="J9">
-        <v>0.9467255759000982</v>
+        <v>0.9467255759000963</v>
       </c>
       <c r="K9">
-        <v>0.944698161297316</v>
+        <v>0.9446981612973139</v>
       </c>
       <c r="L9">
-        <v>0.9513223866685527</v>
+        <v>0.9513223866685511</v>
       </c>
       <c r="M9">
-        <v>0.9525767580597994</v>
+        <v>0.9525767580597972</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.89037768429096</v>
+        <v>0.890377684290959</v>
       </c>
       <c r="D10">
-        <v>0.9045934522775675</v>
+        <v>0.9045934522775668</v>
       </c>
       <c r="E10">
-        <v>0.9138378851055344</v>
+        <v>0.913837885105534</v>
       </c>
       <c r="F10">
-        <v>0.9124502175701282</v>
+        <v>0.9124502175701278</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.02437475913089</v>
       </c>
       <c r="J10">
-        <v>0.923733926463905</v>
+        <v>0.9237339264639043</v>
       </c>
       <c r="K10">
-        <v>0.9209291186647309</v>
+        <v>0.9209291186647305</v>
       </c>
       <c r="L10">
-        <v>0.9299590041824999</v>
+        <v>0.9299590041824995</v>
       </c>
       <c r="M10">
-        <v>0.9286031714884322</v>
+        <v>0.9286031714884317</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8769930221404145</v>
+        <v>0.8769930221404146</v>
       </c>
       <c r="D11">
-        <v>0.892090754045051</v>
+        <v>0.8920907540450508</v>
       </c>
       <c r="E11">
         <v>0.9025559923907234</v>
       </c>
       <c r="F11">
-        <v>0.8998621623717594</v>
+        <v>0.899862162371759</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.021174626783689</v>
       </c>
       <c r="J11">
-        <v>0.9125583655875468</v>
+        <v>0.9125583655875465</v>
       </c>
       <c r="K11">
-        <v>0.9093814216417188</v>
+        <v>0.9093814216417189</v>
       </c>
       <c r="L11">
         <v>0.9195834796759617</v>
       </c>
       <c r="M11">
-        <v>0.9169566053116753</v>
+        <v>0.9169566053116748</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8717410840915309</v>
+        <v>0.8717410840915322</v>
       </c>
       <c r="D12">
-        <v>0.8871908165083795</v>
+        <v>0.8871908165083806</v>
       </c>
       <c r="E12">
-        <v>0.8981369775209183</v>
+        <v>0.8981369775209191</v>
       </c>
       <c r="F12">
-        <v>0.8949294785052466</v>
+        <v>0.8949294785052474</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.019917310062166</v>
+        <v>1.019917310062167</v>
       </c>
       <c r="J12">
-        <v>0.9081752860820191</v>
+        <v>0.9081752860820202</v>
       </c>
       <c r="K12">
-        <v>0.9048533065944061</v>
+        <v>0.9048533065944073</v>
       </c>
       <c r="L12">
-        <v>0.9155156978246314</v>
+        <v>0.9155156978246322</v>
       </c>
       <c r="M12">
-        <v>0.9123903775430293</v>
+        <v>0.9123903775430299</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8728815712939539</v>
+        <v>0.8728815712939535</v>
       </c>
       <c r="D13">
-        <v>0.8882545724027389</v>
+        <v>0.8882545724027388</v>
       </c>
       <c r="E13">
-        <v>0.8990962059913058</v>
+        <v>0.8990962059913055</v>
       </c>
       <c r="F13">
-        <v>0.8960002993321413</v>
+        <v>0.8960002993321411</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,13 +857,13 @@
         <v>1.020190387381272</v>
       </c>
       <c r="J13">
-        <v>0.9091269818563608</v>
+        <v>0.9091269818563602</v>
       </c>
       <c r="K13">
-        <v>0.9058364516366995</v>
+        <v>0.9058364516366993</v>
       </c>
       <c r="L13">
-        <v>0.9163988602998256</v>
+        <v>0.9163988602998254</v>
       </c>
       <c r="M13">
         <v>0.9133817563557016</v>
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8765650510289318</v>
+        <v>0.876565051028931</v>
       </c>
       <c r="D14">
-        <v>0.8916913388475132</v>
+        <v>0.8916913388475125</v>
       </c>
       <c r="E14">
-        <v>0.9021957261802556</v>
+        <v>0.9021957261802546</v>
       </c>
       <c r="F14">
-        <v>0.8994600593821812</v>
+        <v>0.8994600593821803</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02107219277188</v>
+        <v>1.021072192771879</v>
       </c>
       <c r="J14">
-        <v>0.9122011475094985</v>
+        <v>0.9122011475094978</v>
       </c>
       <c r="K14">
-        <v>0.9090123645180022</v>
+        <v>0.9090123645180013</v>
       </c>
       <c r="L14">
-        <v>0.9192519260594039</v>
+        <v>0.9192519260594032</v>
       </c>
       <c r="M14">
-        <v>0.9165844245977047</v>
+        <v>0.9165844245977037</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8787952052116912</v>
+        <v>0.8787952052116903</v>
       </c>
       <c r="D15">
-        <v>0.8937729346362245</v>
+        <v>0.8937729346362235</v>
       </c>
       <c r="E15">
-        <v>0.9040733952966629</v>
+        <v>0.9040733952966622</v>
       </c>
       <c r="F15">
-        <v>0.9015556953503066</v>
+        <v>0.9015556953503054</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02160592019612</v>
+        <v>1.021605920196119</v>
       </c>
       <c r="J15">
-        <v>0.914062697410391</v>
+        <v>0.91406269741039</v>
       </c>
       <c r="K15">
-        <v>0.9109356476255293</v>
+        <v>0.9109356476255281</v>
       </c>
       <c r="L15">
-        <v>0.9209797947036097</v>
+        <v>0.9209797947036089</v>
       </c>
       <c r="M15">
-        <v>0.9185240160523722</v>
+        <v>0.9185240160523712</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8912304916767041</v>
+        <v>0.8912304916767034</v>
       </c>
       <c r="D16">
-        <v>0.9053907774102127</v>
+        <v>0.9053907774102121</v>
       </c>
       <c r="E16">
-        <v>0.914557657303423</v>
+        <v>0.9145576573034226</v>
       </c>
       <c r="F16">
-        <v>0.9132530435837153</v>
+        <v>0.9132530435837151</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.024578351778871</v>
       </c>
       <c r="J16">
-        <v>0.9244461860768532</v>
+        <v>0.9244461860768528</v>
       </c>
       <c r="K16">
-        <v>0.9216652149008203</v>
+        <v>0.9216652149008198</v>
       </c>
       <c r="L16">
-        <v>0.9306204636668097</v>
+        <v>0.9306204636668094</v>
       </c>
       <c r="M16">
-        <v>0.9293456226563733</v>
+        <v>0.929345622656373</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -997,25 +997,25 @@
         <v>0.9122867527400816</v>
       </c>
       <c r="E17">
-        <v>0.9207843505720328</v>
+        <v>0.9207843505720329</v>
       </c>
       <c r="F17">
-        <v>0.9201967117148523</v>
+        <v>0.9201967117148522</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026336208650434</v>
+        <v>1.026336208650433</v>
       </c>
       <c r="J17">
-        <v>0.930604133284703</v>
+        <v>0.9306041332847031</v>
       </c>
       <c r="K17">
-        <v>0.928029870717351</v>
+        <v>0.9280298707173511</v>
       </c>
       <c r="L17">
-        <v>0.9363401590092987</v>
+        <v>0.9363401590092988</v>
       </c>
       <c r="M17">
         <v>0.9357653253728092</v>
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9027660862562241</v>
+        <v>0.9027660862562259</v>
       </c>
       <c r="D18">
-        <v>0.9161839166915651</v>
+        <v>0.916183916691567</v>
       </c>
       <c r="E18">
-        <v>0.9243044232149522</v>
+        <v>0.9243044232149538</v>
       </c>
       <c r="F18">
-        <v>0.9241208412548551</v>
+        <v>0.9241208412548571</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027326996596881</v>
+        <v>1.027326996596882</v>
       </c>
       <c r="J18">
-        <v>0.9340823104559347</v>
+        <v>0.9340823104559363</v>
       </c>
       <c r="K18">
-        <v>0.9316253132117071</v>
+        <v>0.931625313211709</v>
       </c>
       <c r="L18">
-        <v>0.9395715532205861</v>
+        <v>0.9395715532205875</v>
       </c>
       <c r="M18">
-        <v>0.9393918661341443</v>
+        <v>0.939391866134146</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9041639812906589</v>
+        <v>0.9041639812906618</v>
       </c>
       <c r="D19">
-        <v>0.9174928332089588</v>
+        <v>0.9174928332089618</v>
       </c>
       <c r="E19">
-        <v>0.9254868709175162</v>
+        <v>0.9254868709175184</v>
       </c>
       <c r="F19">
-        <v>0.92543880296125</v>
+        <v>0.9254388029612525</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027659292146456</v>
+        <v>1.027659292146457</v>
       </c>
       <c r="J19">
-        <v>0.9352501839567461</v>
+        <v>0.935250183956749</v>
       </c>
       <c r="K19">
-        <v>0.9328326464166747</v>
+        <v>0.9328326464166775</v>
       </c>
       <c r="L19">
-        <v>0.9406566865098211</v>
+        <v>0.9406566865098231</v>
       </c>
       <c r="M19">
-        <v>0.940609629135445</v>
+        <v>0.9406096291354474</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8978261819473832</v>
+        <v>0.8978261819473804</v>
       </c>
       <c r="D20">
-        <v>0.9115601466045365</v>
+        <v>0.9115601466045335</v>
       </c>
       <c r="E20">
-        <v>0.9201281418322004</v>
+        <v>0.9201281418321975</v>
       </c>
       <c r="F20">
-        <v>0.9194650755917656</v>
+        <v>0.919465075591763</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026151258913656</v>
+        <v>1.026151258913655</v>
       </c>
       <c r="J20">
-        <v>0.9299554901533821</v>
+        <v>0.9299554901533795</v>
       </c>
       <c r="K20">
-        <v>0.9273594002871023</v>
+        <v>0.9273594002870994</v>
       </c>
       <c r="L20">
-        <v>0.9357375985931846</v>
+        <v>0.935737598593182</v>
       </c>
       <c r="M20">
-        <v>0.9350890526681978</v>
+        <v>0.9350890526681952</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8754887043776753</v>
+        <v>0.8754887043776772</v>
       </c>
       <c r="D21">
-        <v>0.8906869100250738</v>
+        <v>0.8906869100250757</v>
       </c>
       <c r="E21">
-        <v>0.9012897886818958</v>
+        <v>0.9012897886818975</v>
       </c>
       <c r="F21">
-        <v>0.8984488851842382</v>
+        <v>0.8984488851842397</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.02081455127998</v>
       </c>
       <c r="J21">
-        <v>0.9113027816286029</v>
+        <v>0.9113027816286046</v>
       </c>
       <c r="K21">
-        <v>0.9080842395065494</v>
+        <v>0.9080842395065511</v>
       </c>
       <c r="L21">
-        <v>0.9184181287621224</v>
+        <v>0.9184181287621238</v>
       </c>
       <c r="M21">
-        <v>0.9156484570344864</v>
+        <v>0.9156484570344881</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8597706833270828</v>
+        <v>0.8597706833270815</v>
       </c>
       <c r="D22">
-        <v>0.8760358504863041</v>
+        <v>0.8760358504863032</v>
       </c>
       <c r="E22">
-        <v>0.8880822636736873</v>
+        <v>0.888082263673686</v>
       </c>
       <c r="F22">
-        <v>0.8837022383720275</v>
+        <v>0.8837022383720267</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.017050716810303</v>
       </c>
       <c r="J22">
-        <v>0.8981907581925139</v>
+        <v>0.8981907581925128</v>
       </c>
       <c r="K22">
-        <v>0.8945401958102663</v>
+        <v>0.8945401958102652</v>
       </c>
       <c r="L22">
-        <v>0.9062526156631724</v>
+        <v>0.9062526156631715</v>
       </c>
       <c r="M22">
-        <v>0.9019925926205358</v>
+        <v>0.901992592620535</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8682893570544207</v>
+        <v>0.8682893570544234</v>
       </c>
       <c r="D23">
-        <v>0.8839723226525095</v>
+        <v>0.883972322652512</v>
       </c>
       <c r="E23">
-        <v>0.8952351549156097</v>
+        <v>0.895235154915612</v>
       </c>
       <c r="F23">
-        <v>0.8916897754233308</v>
+        <v>0.8916897754233329</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.019090737523492</v>
+        <v>1.019090737523493</v>
       </c>
       <c r="J23">
-        <v>0.9052953557856146</v>
+        <v>0.9052953557856169</v>
       </c>
       <c r="K23">
-        <v>0.9018783475562485</v>
+        <v>0.901878347556251</v>
       </c>
       <c r="L23">
-        <v>0.9128434028912105</v>
+        <v>0.912843402891213</v>
       </c>
       <c r="M23">
-        <v>0.909390659182736</v>
+        <v>0.9093906591827379</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8981774554614542</v>
+        <v>0.8981774554614526</v>
       </c>
       <c r="D24">
-        <v>0.9118888515816539</v>
+        <v>0.9118888515816523</v>
       </c>
       <c r="E24">
-        <v>0.9204249966063371</v>
+        <v>0.9204249966063358</v>
       </c>
       <c r="F24">
-        <v>0.9197960560549409</v>
+        <v>0.9197960560549391</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.026234935553714</v>
       </c>
       <c r="J24">
-        <v>0.9302489318613254</v>
+        <v>0.9302489318613238</v>
       </c>
       <c r="K24">
-        <v>0.9276627149200777</v>
+        <v>0.9276627149200761</v>
       </c>
       <c r="L24">
-        <v>0.9360101904515883</v>
+        <v>0.9360101904515868</v>
       </c>
       <c r="M24">
-        <v>0.9353949922289069</v>
+        <v>0.9353949922289052</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9275516152367769</v>
+        <v>0.9275516152367763</v>
       </c>
       <c r="D25">
-        <v>0.9394217564444849</v>
+        <v>0.939421756444484</v>
       </c>
       <c r="E25">
-        <v>0.9453102066596212</v>
+        <v>0.9453102066596204</v>
       </c>
       <c r="F25">
-        <v>0.947516016020575</v>
+        <v>0.9475160160205741</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033182440993119</v>
+        <v>1.033182440993118</v>
       </c>
       <c r="J25">
-        <v>0.9547898660905536</v>
+        <v>0.9547898660905532</v>
       </c>
       <c r="K25">
-        <v>0.9530393867370884</v>
+        <v>0.9530393867370877</v>
       </c>
       <c r="L25">
-        <v>0.9588213088067191</v>
+        <v>0.9588213088067187</v>
       </c>
       <c r="M25">
-        <v>0.960987655367167</v>
+        <v>0.9609876553671662</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_22/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9480711308064005</v>
+        <v>0.9480711308064024</v>
       </c>
       <c r="D2">
-        <v>0.9587045305871832</v>
+        <v>0.9587045305871847</v>
       </c>
       <c r="E2">
-        <v>0.9627610887536148</v>
+        <v>0.9627610887536164</v>
       </c>
       <c r="F2">
-        <v>0.9669178520356227</v>
+        <v>0.9669178520356243</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037947045658041</v>
+        <v>1.037947045658042</v>
       </c>
       <c r="J2">
-        <v>0.9719242900513675</v>
+        <v>0.971924290051369</v>
       </c>
       <c r="K2">
-        <v>0.9707708176254807</v>
+        <v>0.9707708176254821</v>
       </c>
       <c r="L2">
-        <v>0.9747648114243721</v>
+        <v>0.9747648114243737</v>
       </c>
       <c r="M2">
-        <v>0.97885815890147</v>
+        <v>0.9788581589014717</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9617065554082453</v>
+        <v>0.9617065554082447</v>
       </c>
       <c r="D3">
-        <v>0.971538205492784</v>
+        <v>0.9715382054927834</v>
       </c>
       <c r="E3">
-        <v>0.974385156263599</v>
+        <v>0.9743851562635985</v>
       </c>
       <c r="F3">
-        <v>0.9798202777132368</v>
+        <v>0.9798202777132364</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.041052167705985</v>
       </c>
       <c r="J3">
-        <v>0.983298513549131</v>
+        <v>0.9832985135491304</v>
       </c>
       <c r="K3">
-        <v>0.9825486962313552</v>
+        <v>0.9825486962313545</v>
       </c>
       <c r="L3">
-        <v>0.9853566258928832</v>
+        <v>0.9853566258928825</v>
       </c>
       <c r="M3">
-        <v>0.990718043690096</v>
+        <v>0.9907180436900956</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,13 +497,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9700440654648445</v>
+        <v>0.9700440654648447</v>
       </c>
       <c r="D4">
-        <v>0.9793927567840066</v>
+        <v>0.9793927567840069</v>
       </c>
       <c r="E4">
-        <v>0.9815030494436813</v>
+        <v>0.9815030494436815</v>
       </c>
       <c r="F4">
         <v>0.9877112100673271</v>
@@ -515,16 +515,16 @@
         <v>1.04292013319951</v>
       </c>
       <c r="J4">
-        <v>0.9902463783306505</v>
+        <v>0.9902463783306509</v>
       </c>
       <c r="K4">
-        <v>0.9897464249274094</v>
+        <v>0.9897464249274095</v>
       </c>
       <c r="L4">
-        <v>0.9918299646591388</v>
+        <v>0.991829964659139</v>
       </c>
       <c r="M4">
-        <v>0.9979602481567822</v>
+        <v>0.997960248156782</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9734448396371163</v>
+        <v>0.9734448396371169</v>
       </c>
       <c r="D5">
-        <v>0.9825980435070076</v>
+        <v>0.9825980435070085</v>
       </c>
       <c r="E5">
-        <v>0.9844085030663777</v>
+        <v>0.9844085030663784</v>
       </c>
       <c r="F5">
-        <v>0.9909298702812653</v>
+        <v>0.9909298702812663</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043674358591866</v>
+        <v>1.043674358591867</v>
       </c>
       <c r="J5">
-        <v>0.9930784556182599</v>
+        <v>0.9930784556182607</v>
       </c>
       <c r="K5">
-        <v>0.9926811310478486</v>
+        <v>0.9926811310478495</v>
       </c>
       <c r="L5">
-        <v>0.9944693907169222</v>
+        <v>0.9944693907169229</v>
       </c>
       <c r="M5">
-        <v>1.000911627423706</v>
+        <v>1.000911627423708</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9740100363529731</v>
+        <v>0.9740100363529726</v>
       </c>
       <c r="D6">
-        <v>0.9831308332609967</v>
+        <v>0.9831308332609958</v>
       </c>
       <c r="E6">
-        <v>0.9848914975199208</v>
+        <v>0.98489149751992</v>
       </c>
       <c r="F6">
-        <v>0.9914647934719886</v>
+        <v>0.9914647934719879</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.043799246023897</v>
       </c>
       <c r="J6">
-        <v>0.9935490213081917</v>
+        <v>0.9935490213081912</v>
       </c>
       <c r="K6">
-        <v>0.9931687947468946</v>
+        <v>0.9931687947468939</v>
       </c>
       <c r="L6">
-        <v>0.9949079908185989</v>
+        <v>0.9949079908185982</v>
       </c>
       <c r="M6">
-        <v>1.001401972829516</v>
+        <v>1.001401972829515</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9700899024266585</v>
+        <v>0.970089902426657</v>
       </c>
       <c r="D7">
-        <v>0.9794359531910249</v>
+        <v>0.9794359531910235</v>
       </c>
       <c r="E7">
-        <v>0.9815422021179279</v>
+        <v>0.9815422021179266</v>
       </c>
       <c r="F7">
-        <v>0.9877545926919197</v>
+        <v>0.9877545926919188</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.042930329975095</v>
       </c>
       <c r="J7">
-        <v>0.9902845578753865</v>
+        <v>0.9902845578753851</v>
       </c>
       <c r="K7">
-        <v>0.9897859849325302</v>
+        <v>0.989785984932529</v>
       </c>
       <c r="L7">
-        <v>0.9918655440210338</v>
+        <v>0.9918655440210326</v>
       </c>
       <c r="M7">
-        <v>0.9980000388616729</v>
+        <v>0.9980000388616717</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9527876953412847</v>
+        <v>0.9527876953412824</v>
       </c>
       <c r="D8">
-        <v>0.9631420369526826</v>
+        <v>0.9631420369526804</v>
       </c>
       <c r="E8">
-        <v>0.9667794992943528</v>
+        <v>0.9667794992943507</v>
       </c>
       <c r="F8">
-        <v>0.9713802815125721</v>
+        <v>0.9713802815125699</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.039027496960801</v>
       </c>
       <c r="J8">
-        <v>0.9758600676090448</v>
+        <v>0.9758600676090425</v>
       </c>
       <c r="K8">
-        <v>0.9748455545723668</v>
+        <v>0.9748455545723647</v>
       </c>
       <c r="L8">
-        <v>0.9784290941106658</v>
+        <v>0.9784290941106638</v>
       </c>
       <c r="M8">
-        <v>0.98296240680485</v>
+        <v>0.9829624068048479</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9178988007907547</v>
+        <v>0.9178988007907568</v>
       </c>
       <c r="D9">
-        <v>0.930364321957758</v>
+        <v>0.9303643219577602</v>
       </c>
       <c r="E9">
-        <v>0.9371194851033744</v>
+        <v>0.9371194851033762</v>
       </c>
       <c r="F9">
-        <v>0.9383983677994063</v>
+        <v>0.9383983677994084</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030912302083558</v>
+        <v>1.030912302083559</v>
       </c>
       <c r="J9">
-        <v>0.9467255759000963</v>
+        <v>0.9467255759000982</v>
       </c>
       <c r="K9">
-        <v>0.9446981612973139</v>
+        <v>0.944698161297316</v>
       </c>
       <c r="L9">
-        <v>0.9513223866685511</v>
+        <v>0.9513223866685527</v>
       </c>
       <c r="M9">
-        <v>0.9525767580597972</v>
+        <v>0.9525767580597994</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.890377684290959</v>
+        <v>0.89037768429096</v>
       </c>
       <c r="D10">
-        <v>0.9045934522775668</v>
+        <v>0.9045934522775675</v>
       </c>
       <c r="E10">
-        <v>0.913837885105534</v>
+        <v>0.9138378851055344</v>
       </c>
       <c r="F10">
-        <v>0.9124502175701278</v>
+        <v>0.9124502175701282</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.02437475913089</v>
       </c>
       <c r="J10">
-        <v>0.9237339264639043</v>
+        <v>0.923733926463905</v>
       </c>
       <c r="K10">
-        <v>0.9209291186647305</v>
+        <v>0.9209291186647309</v>
       </c>
       <c r="L10">
-        <v>0.9299590041824995</v>
+        <v>0.9299590041824999</v>
       </c>
       <c r="M10">
-        <v>0.9286031714884317</v>
+        <v>0.9286031714884322</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8769930221404146</v>
+        <v>0.8769930221404145</v>
       </c>
       <c r="D11">
-        <v>0.8920907540450508</v>
+        <v>0.892090754045051</v>
       </c>
       <c r="E11">
         <v>0.9025559923907234</v>
       </c>
       <c r="F11">
-        <v>0.899862162371759</v>
+        <v>0.8998621623717594</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.021174626783689</v>
       </c>
       <c r="J11">
-        <v>0.9125583655875465</v>
+        <v>0.9125583655875468</v>
       </c>
       <c r="K11">
-        <v>0.9093814216417189</v>
+        <v>0.9093814216417188</v>
       </c>
       <c r="L11">
         <v>0.9195834796759617</v>
       </c>
       <c r="M11">
-        <v>0.9169566053116748</v>
+        <v>0.9169566053116753</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8717410840915322</v>
+        <v>0.8717410840915309</v>
       </c>
       <c r="D12">
-        <v>0.8871908165083806</v>
+        <v>0.8871908165083795</v>
       </c>
       <c r="E12">
-        <v>0.8981369775209191</v>
+        <v>0.8981369775209183</v>
       </c>
       <c r="F12">
-        <v>0.8949294785052474</v>
+        <v>0.8949294785052466</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.019917310062167</v>
+        <v>1.019917310062166</v>
       </c>
       <c r="J12">
-        <v>0.9081752860820202</v>
+        <v>0.9081752860820191</v>
       </c>
       <c r="K12">
-        <v>0.9048533065944073</v>
+        <v>0.9048533065944061</v>
       </c>
       <c r="L12">
-        <v>0.9155156978246322</v>
+        <v>0.9155156978246314</v>
       </c>
       <c r="M12">
-        <v>0.9123903775430299</v>
+        <v>0.9123903775430293</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8728815712939535</v>
+        <v>0.8728815712939539</v>
       </c>
       <c r="D13">
-        <v>0.8882545724027388</v>
+        <v>0.8882545724027389</v>
       </c>
       <c r="E13">
-        <v>0.8990962059913055</v>
+        <v>0.8990962059913058</v>
       </c>
       <c r="F13">
-        <v>0.8960002993321411</v>
+        <v>0.8960002993321413</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,13 +857,13 @@
         <v>1.020190387381272</v>
       </c>
       <c r="J13">
-        <v>0.9091269818563602</v>
+        <v>0.9091269818563608</v>
       </c>
       <c r="K13">
-        <v>0.9058364516366993</v>
+        <v>0.9058364516366995</v>
       </c>
       <c r="L13">
-        <v>0.9163988602998254</v>
+        <v>0.9163988602998256</v>
       </c>
       <c r="M13">
         <v>0.9133817563557016</v>
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.876565051028931</v>
+        <v>0.8765650510289318</v>
       </c>
       <c r="D14">
-        <v>0.8916913388475125</v>
+        <v>0.8916913388475132</v>
       </c>
       <c r="E14">
-        <v>0.9021957261802546</v>
+        <v>0.9021957261802556</v>
       </c>
       <c r="F14">
-        <v>0.8994600593821803</v>
+        <v>0.8994600593821812</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021072192771879</v>
+        <v>1.02107219277188</v>
       </c>
       <c r="J14">
-        <v>0.9122011475094978</v>
+        <v>0.9122011475094985</v>
       </c>
       <c r="K14">
-        <v>0.9090123645180013</v>
+        <v>0.9090123645180022</v>
       </c>
       <c r="L14">
-        <v>0.9192519260594032</v>
+        <v>0.9192519260594039</v>
       </c>
       <c r="M14">
-        <v>0.9165844245977037</v>
+        <v>0.9165844245977047</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8787952052116903</v>
+        <v>0.8787952052116912</v>
       </c>
       <c r="D15">
-        <v>0.8937729346362235</v>
+        <v>0.8937729346362245</v>
       </c>
       <c r="E15">
-        <v>0.9040733952966622</v>
+        <v>0.9040733952966629</v>
       </c>
       <c r="F15">
-        <v>0.9015556953503054</v>
+        <v>0.9015556953503066</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021605920196119</v>
+        <v>1.02160592019612</v>
       </c>
       <c r="J15">
-        <v>0.91406269741039</v>
+        <v>0.914062697410391</v>
       </c>
       <c r="K15">
-        <v>0.9109356476255281</v>
+        <v>0.9109356476255293</v>
       </c>
       <c r="L15">
-        <v>0.9209797947036089</v>
+        <v>0.9209797947036097</v>
       </c>
       <c r="M15">
-        <v>0.9185240160523712</v>
+        <v>0.9185240160523722</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8912304916767034</v>
+        <v>0.8912304916767041</v>
       </c>
       <c r="D16">
-        <v>0.9053907774102121</v>
+        <v>0.9053907774102127</v>
       </c>
       <c r="E16">
-        <v>0.9145576573034226</v>
+        <v>0.914557657303423</v>
       </c>
       <c r="F16">
-        <v>0.9132530435837151</v>
+        <v>0.9132530435837153</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.024578351778871</v>
       </c>
       <c r="J16">
-        <v>0.9244461860768528</v>
+        <v>0.9244461860768532</v>
       </c>
       <c r="K16">
-        <v>0.9216652149008198</v>
+        <v>0.9216652149008203</v>
       </c>
       <c r="L16">
-        <v>0.9306204636668094</v>
+        <v>0.9306204636668097</v>
       </c>
       <c r="M16">
-        <v>0.929345622656373</v>
+        <v>0.9293456226563733</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -997,25 +997,25 @@
         <v>0.9122867527400816</v>
       </c>
       <c r="E17">
-        <v>0.9207843505720329</v>
+        <v>0.9207843505720328</v>
       </c>
       <c r="F17">
-        <v>0.9201967117148522</v>
+        <v>0.9201967117148523</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026336208650433</v>
+        <v>1.026336208650434</v>
       </c>
       <c r="J17">
-        <v>0.9306041332847031</v>
+        <v>0.930604133284703</v>
       </c>
       <c r="K17">
-        <v>0.9280298707173511</v>
+        <v>0.928029870717351</v>
       </c>
       <c r="L17">
-        <v>0.9363401590092988</v>
+        <v>0.9363401590092987</v>
       </c>
       <c r="M17">
         <v>0.9357653253728092</v>
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9027660862562259</v>
+        <v>0.9027660862562241</v>
       </c>
       <c r="D18">
-        <v>0.916183916691567</v>
+        <v>0.9161839166915651</v>
       </c>
       <c r="E18">
-        <v>0.9243044232149538</v>
+        <v>0.9243044232149522</v>
       </c>
       <c r="F18">
-        <v>0.9241208412548571</v>
+        <v>0.9241208412548551</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027326996596882</v>
+        <v>1.027326996596881</v>
       </c>
       <c r="J18">
-        <v>0.9340823104559363</v>
+        <v>0.9340823104559347</v>
       </c>
       <c r="K18">
-        <v>0.931625313211709</v>
+        <v>0.9316253132117071</v>
       </c>
       <c r="L18">
-        <v>0.9395715532205875</v>
+        <v>0.9395715532205861</v>
       </c>
       <c r="M18">
-        <v>0.939391866134146</v>
+        <v>0.9393918661341443</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9041639812906618</v>
+        <v>0.9041639812906589</v>
       </c>
       <c r="D19">
-        <v>0.9174928332089618</v>
+        <v>0.9174928332089588</v>
       </c>
       <c r="E19">
-        <v>0.9254868709175184</v>
+        <v>0.9254868709175162</v>
       </c>
       <c r="F19">
-        <v>0.9254388029612525</v>
+        <v>0.92543880296125</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027659292146457</v>
+        <v>1.027659292146456</v>
       </c>
       <c r="J19">
-        <v>0.935250183956749</v>
+        <v>0.9352501839567461</v>
       </c>
       <c r="K19">
-        <v>0.9328326464166775</v>
+        <v>0.9328326464166747</v>
       </c>
       <c r="L19">
-        <v>0.9406566865098231</v>
+        <v>0.9406566865098211</v>
       </c>
       <c r="M19">
-        <v>0.9406096291354474</v>
+        <v>0.940609629135445</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8978261819473804</v>
+        <v>0.8978261819473832</v>
       </c>
       <c r="D20">
-        <v>0.9115601466045335</v>
+        <v>0.9115601466045365</v>
       </c>
       <c r="E20">
-        <v>0.9201281418321975</v>
+        <v>0.9201281418322004</v>
       </c>
       <c r="F20">
-        <v>0.919465075591763</v>
+        <v>0.9194650755917656</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026151258913655</v>
+        <v>1.026151258913656</v>
       </c>
       <c r="J20">
-        <v>0.9299554901533795</v>
+        <v>0.9299554901533821</v>
       </c>
       <c r="K20">
-        <v>0.9273594002870994</v>
+        <v>0.9273594002871023</v>
       </c>
       <c r="L20">
-        <v>0.935737598593182</v>
+        <v>0.9357375985931846</v>
       </c>
       <c r="M20">
-        <v>0.9350890526681952</v>
+        <v>0.9350890526681978</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8754887043776772</v>
+        <v>0.8754887043776753</v>
       </c>
       <c r="D21">
-        <v>0.8906869100250757</v>
+        <v>0.8906869100250738</v>
       </c>
       <c r="E21">
-        <v>0.9012897886818975</v>
+        <v>0.9012897886818958</v>
       </c>
       <c r="F21">
-        <v>0.8984488851842397</v>
+        <v>0.8984488851842382</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.02081455127998</v>
       </c>
       <c r="J21">
-        <v>0.9113027816286046</v>
+        <v>0.9113027816286029</v>
       </c>
       <c r="K21">
-        <v>0.9080842395065511</v>
+        <v>0.9080842395065494</v>
       </c>
       <c r="L21">
-        <v>0.9184181287621238</v>
+        <v>0.9184181287621224</v>
       </c>
       <c r="M21">
-        <v>0.9156484570344881</v>
+        <v>0.9156484570344864</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8597706833270815</v>
+        <v>0.8597706833270828</v>
       </c>
       <c r="D22">
-        <v>0.8760358504863032</v>
+        <v>0.8760358504863041</v>
       </c>
       <c r="E22">
-        <v>0.888082263673686</v>
+        <v>0.8880822636736873</v>
       </c>
       <c r="F22">
-        <v>0.8837022383720267</v>
+        <v>0.8837022383720275</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.017050716810303</v>
       </c>
       <c r="J22">
-        <v>0.8981907581925128</v>
+        <v>0.8981907581925139</v>
       </c>
       <c r="K22">
-        <v>0.8945401958102652</v>
+        <v>0.8945401958102663</v>
       </c>
       <c r="L22">
-        <v>0.9062526156631715</v>
+        <v>0.9062526156631724</v>
       </c>
       <c r="M22">
-        <v>0.901992592620535</v>
+        <v>0.9019925926205358</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8682893570544234</v>
+        <v>0.8682893570544207</v>
       </c>
       <c r="D23">
-        <v>0.883972322652512</v>
+        <v>0.8839723226525095</v>
       </c>
       <c r="E23">
-        <v>0.895235154915612</v>
+        <v>0.8952351549156097</v>
       </c>
       <c r="F23">
-        <v>0.8916897754233329</v>
+        <v>0.8916897754233308</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.019090737523493</v>
+        <v>1.019090737523492</v>
       </c>
       <c r="J23">
-        <v>0.9052953557856169</v>
+        <v>0.9052953557856146</v>
       </c>
       <c r="K23">
-        <v>0.901878347556251</v>
+        <v>0.9018783475562485</v>
       </c>
       <c r="L23">
-        <v>0.912843402891213</v>
+        <v>0.9128434028912105</v>
       </c>
       <c r="M23">
-        <v>0.9093906591827379</v>
+        <v>0.909390659182736</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8981774554614526</v>
+        <v>0.8981774554614542</v>
       </c>
       <c r="D24">
-        <v>0.9118888515816523</v>
+        <v>0.9118888515816539</v>
       </c>
       <c r="E24">
-        <v>0.9204249966063358</v>
+        <v>0.9204249966063371</v>
       </c>
       <c r="F24">
-        <v>0.9197960560549391</v>
+        <v>0.9197960560549409</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.026234935553714</v>
       </c>
       <c r="J24">
-        <v>0.9302489318613238</v>
+        <v>0.9302489318613254</v>
       </c>
       <c r="K24">
-        <v>0.9276627149200761</v>
+        <v>0.9276627149200777</v>
       </c>
       <c r="L24">
-        <v>0.9360101904515868</v>
+        <v>0.9360101904515883</v>
       </c>
       <c r="M24">
-        <v>0.9353949922289052</v>
+        <v>0.9353949922289069</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9275516152367763</v>
+        <v>0.9275516152367769</v>
       </c>
       <c r="D25">
-        <v>0.939421756444484</v>
+        <v>0.9394217564444849</v>
       </c>
       <c r="E25">
-        <v>0.9453102066596204</v>
+        <v>0.9453102066596212</v>
       </c>
       <c r="F25">
-        <v>0.9475160160205741</v>
+        <v>0.947516016020575</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033182440993118</v>
+        <v>1.033182440993119</v>
       </c>
       <c r="J25">
-        <v>0.9547898660905532</v>
+        <v>0.9547898660905536</v>
       </c>
       <c r="K25">
-        <v>0.9530393867370877</v>
+        <v>0.9530393867370884</v>
       </c>
       <c r="L25">
-        <v>0.9588213088067187</v>
+        <v>0.9588213088067191</v>
       </c>
       <c r="M25">
-        <v>0.9609876553671662</v>
+        <v>0.960987655367167</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_22/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9480711308064024</v>
+        <v>0.9481301496405611</v>
       </c>
       <c r="D2">
-        <v>0.9587045305871847</v>
+        <v>0.9587622644316806</v>
       </c>
       <c r="E2">
-        <v>0.9627610887536164</v>
+        <v>0.962813529105646</v>
       </c>
       <c r="F2">
-        <v>0.9669178520356243</v>
+        <v>0.9669685688587504</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037947045658042</v>
+        <v>1.037959185136589</v>
       </c>
       <c r="J2">
-        <v>0.971924290051369</v>
+        <v>0.9719812625735491</v>
       </c>
       <c r="K2">
-        <v>0.9707708176254821</v>
+        <v>0.9708276562954978</v>
       </c>
       <c r="L2">
-        <v>0.9747648114243737</v>
+        <v>0.9748164473921743</v>
       </c>
       <c r="M2">
-        <v>0.9788581589014717</v>
+        <v>0.9789081062764203</v>
+      </c>
+      <c r="N2">
+        <v>0.9825576074577121</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9617065554082447</v>
+        <v>0.9617514213112228</v>
       </c>
       <c r="D3">
-        <v>0.9715382054927834</v>
+        <v>0.9715821773267765</v>
       </c>
       <c r="E3">
-        <v>0.9743851562635985</v>
+        <v>0.9744252547429475</v>
       </c>
       <c r="F3">
-        <v>0.9798202777132364</v>
+        <v>0.9798588136366798</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041052167705985</v>
+        <v>1.041061390901113</v>
       </c>
       <c r="J3">
-        <v>0.9832985135491304</v>
+        <v>0.983342018380197</v>
       </c>
       <c r="K3">
-        <v>0.9825486962313545</v>
+        <v>0.9825920631840586</v>
       </c>
       <c r="L3">
-        <v>0.9853566258928825</v>
+        <v>0.9853961768214364</v>
       </c>
       <c r="M3">
-        <v>0.9907180436900956</v>
+        <v>0.9907560607119906</v>
+      </c>
+      <c r="N3">
+        <v>0.9903545888060771</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9700440654648447</v>
+        <v>0.9700806673816571</v>
       </c>
       <c r="D4">
-        <v>0.9793927567840069</v>
+        <v>0.9794286690312891</v>
       </c>
       <c r="E4">
-        <v>0.9815030494436815</v>
+        <v>0.9815359210809236</v>
       </c>
       <c r="F4">
-        <v>0.9877112100673271</v>
+        <v>0.9877426485224952</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04292013319951</v>
+        <v>1.042927656718985</v>
       </c>
       <c r="J4">
-        <v>0.9902463783306509</v>
+        <v>0.9902819633698203</v>
       </c>
       <c r="K4">
-        <v>0.9897464249274095</v>
+        <v>0.9897818806982792</v>
       </c>
       <c r="L4">
-        <v>0.991829964659139</v>
+        <v>0.9918624207066282</v>
       </c>
       <c r="M4">
-        <v>0.997960248156782</v>
+        <v>0.9979912953419688</v>
+      </c>
+      <c r="N4">
+        <v>0.9951152616151958</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9734448396371169</v>
+        <v>0.9734781480449589</v>
       </c>
       <c r="D5">
-        <v>0.9825980435070085</v>
+        <v>0.9826307388464259</v>
       </c>
       <c r="E5">
-        <v>0.9844085030663784</v>
+        <v>0.9844384905582034</v>
       </c>
       <c r="F5">
-        <v>0.9909298702812663</v>
+        <v>0.9909584833378421</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043674358591867</v>
+        <v>1.043681205325451</v>
       </c>
       <c r="J5">
-        <v>0.9930784556182607</v>
+        <v>0.9931108726679111</v>
       </c>
       <c r="K5">
-        <v>0.9926811310478495</v>
+        <v>0.9927134245740673</v>
       </c>
       <c r="L5">
-        <v>0.9944693907169229</v>
+        <v>0.9944990113563269</v>
       </c>
       <c r="M5">
-        <v>1.000911627423708</v>
+        <v>1.000939896136779</v>
+      </c>
+      <c r="N5">
+        <v>0.997055265012441</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9740100363529726</v>
+        <v>0.9740428015355692</v>
       </c>
       <c r="D6">
-        <v>0.9831308332609958</v>
+        <v>0.983162997745182</v>
       </c>
       <c r="E6">
-        <v>0.98489149751992</v>
+        <v>0.9849210090946671</v>
       </c>
       <c r="F6">
-        <v>0.9914647934719879</v>
+        <v>0.9914929406908437</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043799246023897</v>
+        <v>1.043805981160376</v>
       </c>
       <c r="J6">
-        <v>0.9935490213081912</v>
+        <v>0.9935809151939393</v>
       </c>
       <c r="K6">
-        <v>0.9931687947468939</v>
+        <v>0.9932005661848667</v>
       </c>
       <c r="L6">
-        <v>0.9949079908185982</v>
+        <v>0.9949371433646192</v>
       </c>
       <c r="M6">
-        <v>1.001401972829515</v>
+        <v>1.001429783226554</v>
+      </c>
+      <c r="N6">
+        <v>0.9973775750610545</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.970089902426657</v>
+        <v>0.970126459663783</v>
       </c>
       <c r="D7">
-        <v>0.9794359531910235</v>
+        <v>0.9794718218162453</v>
       </c>
       <c r="E7">
-        <v>0.9815422021179266</v>
+        <v>0.9815750346437757</v>
       </c>
       <c r="F7">
-        <v>0.9877545926919188</v>
+        <v>0.9877859928054123</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042930329975095</v>
+        <v>1.042937844311114</v>
       </c>
       <c r="J7">
-        <v>0.9902845578753851</v>
+        <v>0.9903200999822782</v>
       </c>
       <c r="K7">
-        <v>0.989785984932529</v>
+        <v>0.989821397840165</v>
       </c>
       <c r="L7">
-        <v>0.9918655440210326</v>
+        <v>0.9918979616331839</v>
       </c>
       <c r="M7">
-        <v>0.9980000388616717</v>
+        <v>0.9980310483569349</v>
+      </c>
+      <c r="N7">
+        <v>0.9951414171884908</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9527876953412824</v>
+        <v>0.9528417232104234</v>
       </c>
       <c r="D8">
-        <v>0.9631420369526804</v>
+        <v>0.9631949236007128</v>
       </c>
       <c r="E8">
-        <v>0.9667794992943507</v>
+        <v>0.9668275925053419</v>
       </c>
       <c r="F8">
-        <v>0.9713802815125699</v>
+        <v>0.9714266991955123</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039027496960801</v>
+        <v>1.039038607220915</v>
       </c>
       <c r="J8">
-        <v>0.9758600676090425</v>
+        <v>0.9759123044644152</v>
       </c>
       <c r="K8">
-        <v>0.9748455545723647</v>
+        <v>0.974897653503092</v>
       </c>
       <c r="L8">
-        <v>0.9784290941106638</v>
+        <v>0.9784764778261789</v>
       </c>
       <c r="M8">
-        <v>0.9829624068048479</v>
+        <v>0.9830081479129191</v>
+      </c>
+      <c r="N8">
+        <v>0.9852559809271941</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9178988007907568</v>
+        <v>0.9179925721482797</v>
       </c>
       <c r="D9">
-        <v>0.9303643219577602</v>
+        <v>0.9304556292919048</v>
       </c>
       <c r="E9">
-        <v>0.9371194851033762</v>
+        <v>0.9372020317602855</v>
       </c>
       <c r="F9">
-        <v>0.9383983677994084</v>
+        <v>0.9384791179213429</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030912302083559</v>
+        <v>1.030931631837137</v>
       </c>
       <c r="J9">
-        <v>0.9467255759000982</v>
+        <v>0.9468151270916693</v>
       </c>
       <c r="K9">
-        <v>0.944698161297316</v>
+        <v>0.9447876821568343</v>
       </c>
       <c r="L9">
-        <v>0.9513223866685527</v>
+        <v>0.951403348576744</v>
       </c>
       <c r="M9">
-        <v>0.9525767580597994</v>
+        <v>0.9526559634441528</v>
+      </c>
+      <c r="N9">
+        <v>0.9652742352163182</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.89037768429096</v>
+        <v>0.8905086190174653</v>
       </c>
       <c r="D10">
-        <v>0.9045934522775675</v>
+        <v>0.9047203281703093</v>
       </c>
       <c r="E10">
-        <v>0.9138378851055344</v>
+        <v>0.9139523043638913</v>
       </c>
       <c r="F10">
-        <v>0.9124502175701282</v>
+        <v>0.9125632387864765</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02437475913089</v>
+        <v>1.024401815920172</v>
       </c>
       <c r="J10">
-        <v>0.923733926463905</v>
+        <v>0.9238576082146606</v>
       </c>
       <c r="K10">
-        <v>0.9209291186647309</v>
+        <v>0.9210530102276913</v>
       </c>
       <c r="L10">
-        <v>0.9299590041824999</v>
+        <v>0.9300708042807114</v>
       </c>
       <c r="M10">
-        <v>0.9286031714884322</v>
+        <v>0.9287135950163572</v>
+      </c>
+      <c r="N10">
+        <v>0.9495001314671906</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8769930221404145</v>
+        <v>0.8771445402109356</v>
       </c>
       <c r="D11">
-        <v>0.892090754045051</v>
+        <v>0.8922371904659676</v>
       </c>
       <c r="E11">
-        <v>0.9025559923907234</v>
+        <v>0.9026879245083068</v>
       </c>
       <c r="F11">
-        <v>0.8998621623717594</v>
+        <v>0.8999931076414496</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021174626783689</v>
+        <v>1.021205974505777</v>
       </c>
       <c r="J11">
-        <v>0.9125583655875468</v>
+        <v>0.9127006699335191</v>
       </c>
       <c r="K11">
-        <v>0.9093814216417188</v>
+        <v>0.9095241178803806</v>
       </c>
       <c r="L11">
-        <v>0.9195834796759617</v>
+        <v>0.9197121464253202</v>
       </c>
       <c r="M11">
-        <v>0.9169566053116753</v>
+        <v>0.9170842834131069</v>
+      </c>
+      <c r="N11">
+        <v>0.9418334493839873</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8717410840915309</v>
+        <v>0.8719012242773448</v>
       </c>
       <c r="D12">
-        <v>0.8871908165083795</v>
+        <v>0.8873454187523504</v>
       </c>
       <c r="E12">
-        <v>0.8981369775209183</v>
+        <v>0.8982762170475418</v>
       </c>
       <c r="F12">
-        <v>0.8949294785052466</v>
+        <v>0.8950679401139664</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.019917310062166</v>
+        <v>1.019950456717776</v>
       </c>
       <c r="J12">
-        <v>0.9081752860820191</v>
+        <v>0.9083253369108779</v>
       </c>
       <c r="K12">
-        <v>0.9048533065944061</v>
+        <v>0.9050038347662501</v>
       </c>
       <c r="L12">
-        <v>0.9155156978246314</v>
+        <v>0.9156513878860288</v>
       </c>
       <c r="M12">
-        <v>0.9123903775430293</v>
+        <v>0.9125252751922656</v>
+      </c>
+      <c r="N12">
+        <v>0.9388269155767034</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8728815712939539</v>
+        <v>0.8730398108954178</v>
       </c>
       <c r="D13">
-        <v>0.8882545724027389</v>
+        <v>0.8884073760181022</v>
       </c>
       <c r="E13">
-        <v>0.8990962059913058</v>
+        <v>0.8992338361525541</v>
       </c>
       <c r="F13">
-        <v>0.8960002993321413</v>
+        <v>0.8961371037370269</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.020190387381272</v>
+        <v>1.020223137435487</v>
       </c>
       <c r="J13">
-        <v>0.9091269818563608</v>
+        <v>0.9092753277653645</v>
       </c>
       <c r="K13">
-        <v>0.9058364516366995</v>
+        <v>0.9059852556110359</v>
       </c>
       <c r="L13">
-        <v>0.9163988602998256</v>
+        <v>0.9165330042594689</v>
       </c>
       <c r="M13">
-        <v>0.9133817563557016</v>
+        <v>0.9135150630145469</v>
+      </c>
+      <c r="N13">
+        <v>0.9394797013279272</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8765650510289318</v>
+        <v>0.8767172594720256</v>
       </c>
       <c r="D14">
-        <v>0.8916913388475132</v>
+        <v>0.8918384296985719</v>
       </c>
       <c r="E14">
-        <v>0.9021957261802556</v>
+        <v>0.9023282440120838</v>
       </c>
       <c r="F14">
-        <v>0.8994600593821812</v>
+        <v>0.8995916063232537</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02107219277188</v>
+        <v>1.021103684507254</v>
       </c>
       <c r="J14">
-        <v>0.9122011475094985</v>
+        <v>0.9123440732611015</v>
       </c>
       <c r="K14">
-        <v>0.9090123645180022</v>
+        <v>0.9091556888127382</v>
       </c>
       <c r="L14">
-        <v>0.9192519260594039</v>
+        <v>0.9193811560533022</v>
       </c>
       <c r="M14">
-        <v>0.9165844245977047</v>
+        <v>0.916712680949222</v>
+      </c>
+      <c r="N14">
+        <v>0.9415884098604825</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8787952052116912</v>
+        <v>0.8789438391809913</v>
       </c>
       <c r="D15">
-        <v>0.8937729346362245</v>
+        <v>0.8939166359798076</v>
       </c>
       <c r="E15">
-        <v>0.9040733952966629</v>
+        <v>0.904202879374466</v>
       </c>
       <c r="F15">
-        <v>0.9015556953503066</v>
+        <v>0.9016841273971318</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02160592019612</v>
+        <v>1.021636666345064</v>
       </c>
       <c r="J15">
-        <v>0.914062697410391</v>
+        <v>0.9142024035798302</v>
       </c>
       <c r="K15">
-        <v>0.9109356476255293</v>
+        <v>0.9110757182734364</v>
       </c>
       <c r="L15">
-        <v>0.9209797947036097</v>
+        <v>0.9211061067458614</v>
       </c>
       <c r="M15">
-        <v>0.9185240160523722</v>
+        <v>0.9186492781175544</v>
+      </c>
+      <c r="N15">
+        <v>0.9428653861932541</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8912304916767041</v>
+        <v>0.8913601769721773</v>
       </c>
       <c r="D16">
-        <v>0.9053907774102127</v>
+        <v>0.905516462852491</v>
       </c>
       <c r="E16">
-        <v>0.914557657303423</v>
+        <v>0.9146710103563341</v>
       </c>
       <c r="F16">
-        <v>0.9132530435837153</v>
+        <v>0.9133649777935704</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024578351778871</v>
+        <v>1.024605148309403</v>
       </c>
       <c r="J16">
-        <v>0.9244461860768532</v>
+        <v>0.9245687312760548</v>
       </c>
       <c r="K16">
-        <v>0.9216652149008203</v>
+        <v>0.9217879599127768</v>
       </c>
       <c r="L16">
-        <v>0.9306204636668097</v>
+        <v>0.9307312352322215</v>
       </c>
       <c r="M16">
-        <v>0.9293456226563733</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9294549979508682</v>
+      </c>
+      <c r="N16">
+        <v>0.9499887889795058</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8986026566019478</v>
+        <v>0.898721823068053</v>
       </c>
       <c r="D17">
-        <v>0.9122867527400816</v>
+        <v>0.9124024014013645</v>
       </c>
       <c r="E17">
-        <v>0.9207843505720328</v>
+        <v>0.9208887127498381</v>
       </c>
       <c r="F17">
-        <v>0.9201967117148523</v>
+        <v>0.9202994996855294</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026336208650434</v>
+        <v>1.026360815232602</v>
       </c>
       <c r="J17">
-        <v>0.930604133284703</v>
+        <v>0.9307170808516749</v>
       </c>
       <c r="K17">
-        <v>0.928029870717351</v>
+        <v>0.9281429389850987</v>
       </c>
       <c r="L17">
-        <v>0.9363401590092987</v>
+        <v>0.9364422493035509</v>
       </c>
       <c r="M17">
-        <v>0.9357653253728092</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9358658719264201</v>
+      </c>
+      <c r="N17">
+        <v>0.9542136392297098</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9027660862562241</v>
+        <v>0.9028795241824974</v>
       </c>
       <c r="D18">
-        <v>0.9161839166915651</v>
+        <v>0.9162940882736261</v>
       </c>
       <c r="E18">
-        <v>0.9243044232149522</v>
+        <v>0.9244038779008775</v>
       </c>
       <c r="F18">
-        <v>0.9241208412548551</v>
+        <v>0.9242186523309831</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027326996596881</v>
+        <v>1.02735041148373</v>
       </c>
       <c r="J18">
-        <v>0.9340823104559347</v>
+        <v>0.9341900087533469</v>
       </c>
       <c r="K18">
-        <v>0.9316253132117071</v>
+        <v>0.9317330930624854</v>
       </c>
       <c r="L18">
-        <v>0.9395715532205861</v>
+        <v>0.9396688987320174</v>
       </c>
       <c r="M18">
-        <v>0.9393918661341443</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9394876017961037</v>
+      </c>
+      <c r="N18">
+        <v>0.9565999884483599</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9041639812906589</v>
+        <v>0.9042755283175006</v>
       </c>
       <c r="D19">
-        <v>0.9174928332089588</v>
+        <v>0.9176011951578936</v>
       </c>
       <c r="E19">
-        <v>0.9254868709175162</v>
+        <v>0.9255847039913988</v>
       </c>
       <c r="F19">
-        <v>0.92543880296125</v>
+        <v>0.9255349719265219</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027659292146456</v>
+        <v>1.027682313834653</v>
       </c>
       <c r="J19">
-        <v>0.9352501839567461</v>
+        <v>0.9353561460021742</v>
       </c>
       <c r="K19">
-        <v>0.9328326464166747</v>
+        <v>0.9329386777229566</v>
       </c>
       <c r="L19">
-        <v>0.9406566865098211</v>
+        <v>0.9407524631676463</v>
       </c>
       <c r="M19">
-        <v>0.940609629135445</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9407037763810358</v>
+      </c>
+      <c r="N19">
+        <v>0.9574012577295138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8978261819473832</v>
+        <v>0.8979464332384833</v>
       </c>
       <c r="D20">
-        <v>0.9115601466045365</v>
+        <v>0.9116768315860941</v>
       </c>
       <c r="E20">
-        <v>0.9201281418322004</v>
+        <v>0.9202334324683383</v>
       </c>
       <c r="F20">
-        <v>0.9194650755917656</v>
+        <v>0.9195688063864346</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026151258913656</v>
+        <v>1.026176091248582</v>
       </c>
       <c r="J20">
-        <v>0.9299554901533821</v>
+        <v>0.9300694299830738</v>
       </c>
       <c r="K20">
-        <v>0.9273594002871023</v>
+        <v>0.9274734685489415</v>
       </c>
       <c r="L20">
-        <v>0.9357375985931846</v>
+        <v>0.9358405860551716</v>
       </c>
       <c r="M20">
-        <v>0.9350890526681978</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9351905100527236</v>
+      </c>
+      <c r="N20">
+        <v>0.9537686121044771</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8754887043776753</v>
+        <v>0.8756426585335331</v>
       </c>
       <c r="D21">
-        <v>0.8906869100250738</v>
+        <v>0.8908356552396132</v>
       </c>
       <c r="E21">
-        <v>0.9012897886818958</v>
+        <v>0.9014237871056471</v>
       </c>
       <c r="F21">
-        <v>0.8984488851842382</v>
+        <v>0.8985819536725785</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02081455127998</v>
+        <v>1.020846407197412</v>
       </c>
       <c r="J21">
-        <v>0.9113027816286029</v>
+        <v>0.9114472778023232</v>
       </c>
       <c r="K21">
-        <v>0.9080842395065494</v>
+        <v>0.9082291511906116</v>
       </c>
       <c r="L21">
-        <v>0.9184181287621224</v>
+        <v>0.9185487823110243</v>
       </c>
       <c r="M21">
-        <v>0.9156484570344864</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9157781754398864</v>
+      </c>
+      <c r="N21">
+        <v>0.9409721679857718</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8597706833270828</v>
+        <v>0.859951796675026</v>
       </c>
       <c r="D22">
-        <v>0.8760358504863041</v>
+        <v>0.8762102507600693</v>
       </c>
       <c r="E22">
-        <v>0.8880822636736873</v>
+        <v>0.8882392108737935</v>
       </c>
       <c r="F22">
-        <v>0.8837022383720275</v>
+        <v>0.8838589994472509</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.017050716810303</v>
+        <v>1.017088241643543</v>
       </c>
       <c r="J22">
-        <v>0.8981907581925139</v>
+        <v>0.898359527800299</v>
       </c>
       <c r="K22">
-        <v>0.8945401958102663</v>
+        <v>0.8947096711600618</v>
       </c>
       <c r="L22">
-        <v>0.9062526156631724</v>
+        <v>0.9064052927814119</v>
       </c>
       <c r="M22">
-        <v>0.9019925926205358</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9021450308330282</v>
+      </c>
+      <c r="N22">
+        <v>0.9319792016656596</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8682893570544207</v>
+        <v>0.8684553488116652</v>
       </c>
       <c r="D23">
-        <v>0.8839723226525095</v>
+        <v>0.8841324577555045</v>
       </c>
       <c r="E23">
-        <v>0.8952351549156097</v>
+        <v>0.8953793444314833</v>
       </c>
       <c r="F23">
-        <v>0.8916897754233308</v>
+        <v>0.8918333404973626</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.019090737523492</v>
+        <v>1.019125105430216</v>
       </c>
       <c r="J23">
-        <v>0.9052953557856146</v>
+        <v>0.9054506465644349</v>
       </c>
       <c r="K23">
-        <v>0.9018783475562485</v>
+        <v>0.9020341765558325</v>
       </c>
       <c r="L23">
-        <v>0.9128434028912105</v>
+        <v>0.9129838459647561</v>
       </c>
       <c r="M23">
-        <v>0.909390659182736</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9095304536973093</v>
+      </c>
+      <c r="N23">
+        <v>0.9368515976079359</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8981774554614542</v>
+        <v>0.8982972153294926</v>
       </c>
       <c r="D24">
-        <v>0.9118888515816539</v>
+        <v>0.9120050671474185</v>
       </c>
       <c r="E24">
-        <v>0.9204249966063371</v>
+        <v>0.9205298666878803</v>
       </c>
       <c r="F24">
-        <v>0.9197960560549409</v>
+        <v>0.9198993597395577</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026234935553714</v>
+        <v>1.026259665620177</v>
       </c>
       <c r="J24">
-        <v>0.9302489318613254</v>
+        <v>0.9303624222689473</v>
       </c>
       <c r="K24">
-        <v>0.9276627149200777</v>
+        <v>0.9277763302451519</v>
       </c>
       <c r="L24">
-        <v>0.9360101904515883</v>
+        <v>0.9361127715521524</v>
       </c>
       <c r="M24">
-        <v>0.9353949922289069</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9354960370179115</v>
+      </c>
+      <c r="N24">
+        <v>0.9539699392239228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9275516152367769</v>
+        <v>0.9276336840424435</v>
       </c>
       <c r="D25">
-        <v>0.9394217564444849</v>
+        <v>0.9395017927825982</v>
       </c>
       <c r="E25">
-        <v>0.9453102066596212</v>
+        <v>0.9453826477297478</v>
       </c>
       <c r="F25">
-        <v>0.947516016020575</v>
+        <v>0.9475866348813794</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033182440993119</v>
+        <v>1.033199345061906</v>
       </c>
       <c r="J25">
-        <v>0.9547898660905536</v>
+        <v>0.9548685221290006</v>
       </c>
       <c r="K25">
-        <v>0.9530393867370884</v>
+        <v>0.9531179634839184</v>
       </c>
       <c r="L25">
-        <v>0.9588213088067191</v>
+        <v>0.9588924500780902</v>
       </c>
       <c r="M25">
-        <v>0.960987655367167</v>
+        <v>0.9610570147689401</v>
+      </c>
+      <c r="N25">
+        <v>0.9708064007766741</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_22/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9481301496405611</v>
+        <v>0.9795828141250352</v>
       </c>
       <c r="D2">
-        <v>0.9587622644316806</v>
+        <v>0.9949202161956612</v>
       </c>
       <c r="E2">
-        <v>0.962813529105646</v>
+        <v>0.9946646140362746</v>
       </c>
       <c r="F2">
-        <v>0.9669685688587504</v>
+        <v>1.002288955180776</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037959185136589</v>
+        <v>1.044180754914068</v>
       </c>
       <c r="J2">
-        <v>0.9719812625735491</v>
+        <v>1.002391833867923</v>
       </c>
       <c r="K2">
-        <v>0.9708276562954978</v>
+        <v>1.006450777083024</v>
       </c>
       <c r="L2">
-        <v>0.9748164473921743</v>
+        <v>1.006198783139347</v>
       </c>
       <c r="M2">
-        <v>0.9789081062764203</v>
+        <v>1.013716493067415</v>
       </c>
       <c r="N2">
-        <v>0.9825576074577121</v>
+        <v>1.003815345247965</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9617514213112228</v>
+        <v>0.9973803950031375</v>
       </c>
       <c r="D3">
-        <v>0.9715821773267765</v>
+        <v>1.01181853204421</v>
       </c>
       <c r="E3">
-        <v>0.9744252547429475</v>
+        <v>1.010435741064653</v>
       </c>
       <c r="F3">
-        <v>0.9798588136366798</v>
+        <v>1.018739640467453</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041061390901113</v>
+        <v>1.045471145846927</v>
       </c>
       <c r="J3">
-        <v>0.983342018380197</v>
+        <v>1.017942728733829</v>
       </c>
       <c r="K3">
-        <v>0.9825920631840586</v>
+        <v>1.022302393301825</v>
       </c>
       <c r="L3">
-        <v>0.9853961768214364</v>
+        <v>1.020936813487286</v>
       </c>
       <c r="M3">
-        <v>0.9907560607119906</v>
+        <v>1.029138229981743</v>
       </c>
       <c r="N3">
-        <v>0.9903545888060771</v>
+        <v>1.019388324168294</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9700806673816571</v>
+        <v>1.008157655705915</v>
       </c>
       <c r="D4">
-        <v>0.9794286690312891</v>
+        <v>1.022060075288259</v>
       </c>
       <c r="E4">
-        <v>0.9815359210809236</v>
+        <v>1.019993508363976</v>
       </c>
       <c r="F4">
-        <v>0.9877426485224952</v>
+        <v>1.028708957930837</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042927656718985</v>
+        <v>1.046234148472669</v>
       </c>
       <c r="J4">
-        <v>0.9902819633698203</v>
+        <v>1.027354964954145</v>
       </c>
       <c r="K4">
-        <v>0.9897818806982792</v>
+        <v>1.031899350076631</v>
       </c>
       <c r="L4">
-        <v>0.9918624207066282</v>
+        <v>1.029856472419514</v>
       </c>
       <c r="M4">
-        <v>0.9979912953419688</v>
+        <v>1.038472811450843</v>
       </c>
       <c r="N4">
-        <v>0.9951152616151958</v>
+        <v>1.028813926843641</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9734781480449589</v>
+        <v>1.012533696276088</v>
       </c>
       <c r="D5">
-        <v>0.9826307388464259</v>
+        <v>1.026220330462077</v>
       </c>
       <c r="E5">
-        <v>0.9844384905582034</v>
+        <v>1.023875759869303</v>
       </c>
       <c r="F5">
-        <v>0.9909584833378421</v>
+        <v>1.032758227710103</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043681205325451</v>
+        <v>1.046539209778013</v>
       </c>
       <c r="J5">
-        <v>0.9931108726679111</v>
+        <v>1.031175386316484</v>
       </c>
       <c r="K5">
-        <v>0.9927134245740673</v>
+        <v>1.035795339432874</v>
       </c>
       <c r="L5">
-        <v>0.9944990113563269</v>
+        <v>1.033476721824793</v>
       </c>
       <c r="M5">
-        <v>1.000939896136779</v>
+        <v>1.042261629981769</v>
       </c>
       <c r="N5">
-        <v>0.997055265012441</v>
+        <v>1.032639773642523</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9740428015355692</v>
+        <v>1.013259938449792</v>
       </c>
       <c r="D6">
-        <v>0.983162997745182</v>
+        <v>1.026910853925004</v>
       </c>
       <c r="E6">
-        <v>0.9849210090946671</v>
+        <v>1.024520123201862</v>
       </c>
       <c r="F6">
-        <v>0.9914929406908437</v>
+        <v>1.033430301283065</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043805981160376</v>
+        <v>1.046589548463721</v>
       </c>
       <c r="J6">
-        <v>0.9935809151939393</v>
+        <v>1.031809331793821</v>
       </c>
       <c r="K6">
-        <v>0.9932005661848667</v>
+        <v>1.036441857562661</v>
       </c>
       <c r="L6">
-        <v>0.9949371433646192</v>
+        <v>1.034077435322939</v>
       </c>
       <c r="M6">
-        <v>1.001429783226554</v>
+        <v>1.042890321144052</v>
       </c>
       <c r="N6">
-        <v>0.9973775750610545</v>
+        <v>1.033274619395153</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.970126459663783</v>
+        <v>1.00821671067879</v>
       </c>
       <c r="D7">
-        <v>0.9794718218162453</v>
+        <v>1.022116211742502</v>
       </c>
       <c r="E7">
-        <v>0.9815750346437757</v>
+        <v>1.020045894657968</v>
       </c>
       <c r="F7">
-        <v>0.9877859928054123</v>
+        <v>1.028763598625994</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042937844311114</v>
+        <v>1.046238284645579</v>
       </c>
       <c r="J7">
-        <v>0.9903200999822782</v>
+        <v>1.027406527538554</v>
       </c>
       <c r="K7">
-        <v>0.989821397840165</v>
+        <v>1.031951930290577</v>
       </c>
       <c r="L7">
-        <v>0.9918979616331839</v>
+        <v>1.029905334417484</v>
       </c>
       <c r="M7">
-        <v>0.9980310483569349</v>
+        <v>1.038523948085542</v>
       </c>
       <c r="N7">
-        <v>0.9951414171884908</v>
+        <v>1.028865562652835</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9528417232104234</v>
+        <v>0.9857656130081</v>
       </c>
       <c r="D8">
-        <v>0.9631949236007128</v>
+        <v>1.000788437914337</v>
       </c>
       <c r="E8">
-        <v>0.9668275925053419</v>
+        <v>1.000141467167484</v>
       </c>
       <c r="F8">
-        <v>0.9714266991955123</v>
+        <v>1.008001805153996</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039038607220915</v>
+        <v>1.044632778046939</v>
       </c>
       <c r="J8">
-        <v>0.9759123044644152</v>
+        <v>1.007794939411049</v>
       </c>
       <c r="K8">
-        <v>0.974897653503092</v>
+        <v>1.0119577398889</v>
       </c>
       <c r="L8">
-        <v>0.9784764778261789</v>
+        <v>1.011319522531152</v>
       </c>
       <c r="M8">
-        <v>0.9830081479129191</v>
+        <v>1.019074466941287</v>
       </c>
       <c r="N8">
-        <v>0.9852559809271941</v>
+        <v>1.009226123820708</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9179925721482797</v>
+        <v>0.9391794194459362</v>
       </c>
       <c r="D9">
-        <v>0.9304556292919048</v>
+        <v>0.9566375091805722</v>
       </c>
       <c r="E9">
-        <v>0.9372020317602855</v>
+        <v>0.958938315590389</v>
       </c>
       <c r="F9">
-        <v>0.9384791179213429</v>
+        <v>0.9650264194108258</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030931631837137</v>
+        <v>1.041159538486218</v>
       </c>
       <c r="J9">
-        <v>0.9468151270916693</v>
+        <v>0.9670791607257861</v>
       </c>
       <c r="K9">
-        <v>0.9447876821568343</v>
+        <v>0.9704756046598991</v>
       </c>
       <c r="L9">
-        <v>0.951403348576744</v>
+        <v>0.9727346795710621</v>
       </c>
       <c r="M9">
-        <v>0.9526559634441528</v>
+        <v>0.9787136045691626</v>
       </c>
       <c r="N9">
-        <v>0.9652742352163182</v>
+        <v>0.9684525240595468</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C10">
-        <v>0.8905086190174653</v>
+        <v>0.9004564166850688</v>
       </c>
       <c r="D10">
-        <v>0.9047203281703093</v>
+        <v>0.9200720657824701</v>
       </c>
       <c r="E10">
-        <v>0.9139523043638913</v>
+        <v>0.9248309665059812</v>
       </c>
       <c r="F10">
-        <v>0.9125632387864765</v>
+        <v>0.9294638522181196</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024401815920172</v>
+        <v>1.038212872041937</v>
       </c>
       <c r="J10">
-        <v>0.9238576082146606</v>
+        <v>0.9332633227565128</v>
       </c>
       <c r="K10">
-        <v>0.9210530102276913</v>
+        <v>0.9360517438535014</v>
       </c>
       <c r="L10">
-        <v>0.9300708042807114</v>
+        <v>0.9407043824196933</v>
       </c>
       <c r="M10">
-        <v>0.9287135950163572</v>
+        <v>0.9452352086399985</v>
       </c>
       <c r="N10">
-        <v>0.9495001314671906</v>
+        <v>0.9345886637216263</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8771445402109356</v>
+        <v>0.880616650221911</v>
       </c>
       <c r="D11">
-        <v>0.8922371904659676</v>
+        <v>0.9013940762677558</v>
       </c>
       <c r="E11">
-        <v>0.9026879245083068</v>
+        <v>0.9074195447098089</v>
       </c>
       <c r="F11">
-        <v>0.8999931076414496</v>
+        <v>0.9113159333417591</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021205974505777</v>
+        <v>1.036704009256126</v>
       </c>
       <c r="J11">
-        <v>0.9127006699335191</v>
+        <v>0.9159629186757524</v>
       </c>
       <c r="K11">
-        <v>0.9095241178803806</v>
+        <v>0.9184503770436042</v>
       </c>
       <c r="L11">
-        <v>0.9197121464253202</v>
+        <v>0.9243275015038405</v>
       </c>
       <c r="M11">
-        <v>0.9170842834131069</v>
+        <v>0.9281293658134067</v>
       </c>
       <c r="N11">
-        <v>0.9418334493839873</v>
+        <v>0.917263691082687</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8719012242773448</v>
+        <v>0.8725825186957192</v>
       </c>
       <c r="D12">
-        <v>0.8873454187523504</v>
+        <v>0.8938425161339008</v>
       </c>
       <c r="E12">
-        <v>0.8982762170475418</v>
+        <v>0.9003827892468458</v>
       </c>
       <c r="F12">
-        <v>0.8950679401139664</v>
+        <v>0.903982950549423</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.019950456717776</v>
+        <v>1.036095222900892</v>
       </c>
       <c r="J12">
-        <v>0.9083253369108779</v>
+        <v>0.9089637685664688</v>
       </c>
       <c r="K12">
-        <v>0.9050038347662501</v>
+        <v>0.9113314451772847</v>
       </c>
       <c r="L12">
-        <v>0.9156513878860288</v>
+        <v>0.9177044406935841</v>
       </c>
       <c r="M12">
-        <v>0.9125252751922656</v>
+        <v>0.9212139154862319</v>
       </c>
       <c r="N12">
-        <v>0.9388269155767034</v>
+        <v>0.9102546013774346</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8730398108954178</v>
+        <v>0.8743408741909982</v>
       </c>
       <c r="D13">
-        <v>0.8884073760181022</v>
+        <v>0.8954946335307017</v>
       </c>
       <c r="E13">
-        <v>0.8992338361525541</v>
+        <v>0.9019221319458954</v>
       </c>
       <c r="F13">
-        <v>0.8961371037370269</v>
+        <v>0.9055870218184376</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.020223137435487</v>
+        <v>1.036228317870143</v>
       </c>
       <c r="J13">
-        <v>0.9092753277653645</v>
+        <v>0.910495244022577</v>
       </c>
       <c r="K13">
-        <v>0.9059852556110359</v>
+        <v>0.9128890317074815</v>
       </c>
       <c r="L13">
-        <v>0.9165330042594689</v>
+        <v>0.9191534928493899</v>
       </c>
       <c r="M13">
-        <v>0.9135150630145469</v>
+        <v>0.9227268167582978</v>
       </c>
       <c r="N13">
-        <v>0.9394797013279272</v>
+        <v>0.9117882517043533</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8767172594720256</v>
+        <v>0.8799678124297945</v>
       </c>
       <c r="D14">
-        <v>0.8918384296985719</v>
+        <v>0.9007839432746347</v>
       </c>
       <c r="E14">
-        <v>0.9023282440120838</v>
+        <v>0.9068509431415289</v>
       </c>
       <c r="F14">
-        <v>0.8995916063232537</v>
+        <v>0.9107233636739785</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021103684507254</v>
+        <v>1.036654783951473</v>
       </c>
       <c r="J14">
-        <v>0.9123440732611015</v>
+        <v>0.915397511666625</v>
       </c>
       <c r="K14">
-        <v>0.9091556888127382</v>
+        <v>0.9178752512123863</v>
       </c>
       <c r="L14">
-        <v>0.9193811560533022</v>
+        <v>0.9237924196080057</v>
       </c>
       <c r="M14">
-        <v>0.916712680949222</v>
+        <v>0.9275706086764309</v>
       </c>
       <c r="N14">
-        <v>0.9415884098604825</v>
+        <v>0.9166974811307537</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8789438391809913</v>
+        <v>0.8833381593006588</v>
       </c>
       <c r="D15">
-        <v>0.8939166359798076</v>
+        <v>0.9039537441961146</v>
       </c>
       <c r="E15">
-        <v>0.904202879374466</v>
+        <v>0.9098050929647103</v>
       </c>
       <c r="F15">
-        <v>0.9016841273971318</v>
+        <v>0.9138020983871973</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021636666345064</v>
+        <v>1.036910584251033</v>
       </c>
       <c r="J15">
-        <v>0.9142024035798302</v>
+        <v>0.9183347663685091</v>
       </c>
       <c r="K15">
-        <v>0.9110757182734364</v>
+        <v>0.9208630758425652</v>
       </c>
       <c r="L15">
-        <v>0.9211061067458614</v>
+        <v>0.9265722413213928</v>
       </c>
       <c r="M15">
-        <v>0.9186492781175544</v>
+        <v>0.9304735264867107</v>
       </c>
       <c r="N15">
-        <v>0.9428653861932541</v>
+        <v>0.9196389070712224</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8913601769721773</v>
+        <v>0.9016939374076101</v>
       </c>
       <c r="D16">
-        <v>0.905516462852491</v>
+        <v>0.9212384645944807</v>
       </c>
       <c r="E16">
-        <v>0.9146710103563341</v>
+        <v>0.9259185574396208</v>
       </c>
       <c r="F16">
-        <v>0.9133649777935704</v>
+        <v>0.9305976052043096</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024605148309403</v>
+        <v>1.038307151587968</v>
       </c>
       <c r="J16">
-        <v>0.9245687312760548</v>
+        <v>0.9343431331390667</v>
       </c>
       <c r="K16">
-        <v>0.9217879599127768</v>
+        <v>0.9371505676318835</v>
       </c>
       <c r="L16">
-        <v>0.9307312352322215</v>
+        <v>0.941726811013354</v>
       </c>
       <c r="M16">
-        <v>0.9294549979508682</v>
+        <v>0.9463034189268459</v>
       </c>
       <c r="N16">
-        <v>0.9499887889795058</v>
+        <v>0.9356700075587793</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.898721823068053</v>
+        <v>0.9122785356137164</v>
       </c>
       <c r="D17">
-        <v>0.9124024014013645</v>
+        <v>0.9312208737820955</v>
       </c>
       <c r="E17">
-        <v>0.9208887127498381</v>
+        <v>0.9352277146349541</v>
       </c>
       <c r="F17">
-        <v>0.9202994996855294</v>
+        <v>0.9403025860286117</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026360815232602</v>
+        <v>1.039113765278004</v>
       </c>
       <c r="J17">
-        <v>0.9307170808516749</v>
+        <v>0.9435816269145433</v>
       </c>
       <c r="K17">
-        <v>0.9281429389850987</v>
+        <v>0.9465528231799752</v>
       </c>
       <c r="L17">
-        <v>0.9364422493035509</v>
+        <v>0.9504754733065197</v>
       </c>
       <c r="M17">
-        <v>0.9358658719264201</v>
+        <v>0.9554450718581761</v>
       </c>
       <c r="N17">
-        <v>0.9542136392297098</v>
+        <v>0.9449216210550875</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9028795241824974</v>
+        <v>0.9181737676709496</v>
       </c>
       <c r="D18">
-        <v>0.9162940882736261</v>
+        <v>0.9367853223152127</v>
       </c>
       <c r="E18">
-        <v>0.9244038779008775</v>
+        <v>0.9404177447649218</v>
       </c>
       <c r="F18">
-        <v>0.9242186523309831</v>
+        <v>0.9457138158243269</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02735041148373</v>
+        <v>1.039562943536424</v>
       </c>
       <c r="J18">
-        <v>0.9341900087533469</v>
+        <v>0.9487290943724775</v>
       </c>
       <c r="K18">
-        <v>0.9317330930624854</v>
+        <v>0.9517923780250602</v>
       </c>
       <c r="L18">
-        <v>0.9396688987320174</v>
+        <v>0.9553508170830426</v>
       </c>
       <c r="M18">
-        <v>0.9394876017961037</v>
+        <v>0.9605403595586628</v>
       </c>
       <c r="N18">
-        <v>0.9565999884483599</v>
+        <v>0.9500763985072346</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9042755283175006</v>
+        <v>0.9201409026128148</v>
       </c>
       <c r="D19">
-        <v>0.9176011951578936</v>
+        <v>0.9386427923885143</v>
       </c>
       <c r="E19">
-        <v>0.9255847039913988</v>
+        <v>0.9421503568138585</v>
       </c>
       <c r="F19">
-        <v>0.9255349719265219</v>
+        <v>0.9475203504438823</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027682313834653</v>
+        <v>1.039712769703483</v>
       </c>
       <c r="J19">
-        <v>0.9353561460021742</v>
+        <v>0.9504469914651557</v>
       </c>
       <c r="K19">
-        <v>0.9329386777229566</v>
+        <v>0.9535411418710964</v>
       </c>
       <c r="L19">
-        <v>0.9407524631676463</v>
+        <v>0.9569780135262874</v>
       </c>
       <c r="M19">
-        <v>0.9407037763810358</v>
+        <v>0.962241110158939</v>
       </c>
       <c r="N19">
-        <v>0.9574012577295138</v>
+        <v>0.9517967352108297</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8979464332384833</v>
+        <v>0.9111727932347883</v>
       </c>
       <c r="D20">
-        <v>0.9116768315860941</v>
+        <v>0.9301775367340885</v>
       </c>
       <c r="E20">
-        <v>0.9202334324683383</v>
+        <v>0.93425464746724</v>
       </c>
       <c r="F20">
-        <v>0.9195688063864346</v>
+        <v>0.9392880869800547</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026176091248582</v>
+        <v>1.039029497617341</v>
       </c>
       <c r="J20">
-        <v>0.9300694299830738</v>
+        <v>0.9426162870921952</v>
       </c>
       <c r="K20">
-        <v>0.9274734685489415</v>
+        <v>0.9455702806500085</v>
       </c>
       <c r="L20">
-        <v>0.9358405860551716</v>
+        <v>0.9495612277070387</v>
       </c>
       <c r="M20">
-        <v>0.9351905100527236</v>
+        <v>0.9544896554042666</v>
       </c>
       <c r="N20">
-        <v>0.9537686121044771</v>
+        <v>0.9439549103394655</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8756426585335331</v>
+        <v>0.8783315410857563</v>
       </c>
       <c r="D21">
-        <v>0.8908356552396132</v>
+        <v>0.8992454866007475</v>
       </c>
       <c r="E21">
-        <v>0.9014237871056471</v>
+        <v>0.9054172562663062</v>
       </c>
       <c r="F21">
-        <v>0.8985819536725785</v>
+        <v>0.9092292674336592</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.020846407197412</v>
+        <v>1.036530689164258</v>
       </c>
       <c r="J21">
-        <v>0.9114472778023232</v>
+        <v>0.9139717581498741</v>
       </c>
       <c r="K21">
-        <v>0.9082291511906116</v>
+        <v>0.9164250234791869</v>
       </c>
       <c r="L21">
-        <v>0.9185487823110243</v>
+        <v>0.922443178241495</v>
       </c>
       <c r="M21">
-        <v>0.9157781754398864</v>
+        <v>0.9261617097631242</v>
       </c>
       <c r="N21">
-        <v>0.9409721679857718</v>
+        <v>0.9152697028804728</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.859951796675026</v>
+        <v>0.8535922080468771</v>
       </c>
       <c r="D22">
-        <v>0.8762102507600693</v>
+        <v>0.8760227861689087</v>
       </c>
       <c r="E22">
-        <v>0.8882392108737935</v>
+        <v>0.8837851331516663</v>
       </c>
       <c r="F22">
-        <v>0.8838589994472509</v>
+        <v>0.886690087423155</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.017088241643543</v>
+        <v>1.034664107850829</v>
       </c>
       <c r="J22">
-        <v>0.898359527800299</v>
+        <v>0.8924380429365971</v>
       </c>
       <c r="K22">
-        <v>0.8947096711600618</v>
+        <v>0.8945275005266178</v>
       </c>
       <c r="L22">
-        <v>0.9064052927814119</v>
+        <v>0.9020732012232225</v>
       </c>
       <c r="M22">
-        <v>0.9021450308330282</v>
+        <v>0.9048984066649451</v>
       </c>
       <c r="N22">
-        <v>0.9319792016656596</v>
+        <v>0.8937054073216414</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8684553488116652</v>
+        <v>0.8672109068809501</v>
       </c>
       <c r="D23">
-        <v>0.8841324577555045</v>
+        <v>0.8887976582239081</v>
       </c>
       <c r="E23">
-        <v>0.8953793444314833</v>
+        <v>0.8956828274955596</v>
       </c>
       <c r="F23">
-        <v>0.8918333404973626</v>
+        <v>0.8990856173682732</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.019125105430216</v>
+        <v>1.035689188917299</v>
       </c>
       <c r="J23">
-        <v>0.9054506465644349</v>
+        <v>0.904286577444063</v>
       </c>
       <c r="K23">
-        <v>0.9020341765558325</v>
+        <v>0.9065748521078929</v>
       </c>
       <c r="L23">
-        <v>0.9129838459647561</v>
+        <v>0.9132794490373844</v>
       </c>
       <c r="M23">
-        <v>0.9095304536973093</v>
+        <v>0.9165943775462493</v>
       </c>
       <c r="N23">
-        <v>0.9368515976079359</v>
+        <v>0.905570768107154</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8982972153294926</v>
+        <v>0.9116732783866787</v>
       </c>
       <c r="D24">
-        <v>0.9120050671474185</v>
+        <v>0.9306497614454698</v>
       </c>
       <c r="E24">
-        <v>0.9205298666878803</v>
+        <v>0.9346950646601683</v>
       </c>
       <c r="F24">
-        <v>0.9198993597395577</v>
+        <v>0.9397472549303655</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026259665620177</v>
+        <v>1.039067639521978</v>
       </c>
       <c r="J24">
-        <v>0.9303624222689473</v>
+        <v>0.9430532167058434</v>
       </c>
       <c r="K24">
-        <v>0.9277763302451519</v>
+        <v>0.9460149938813537</v>
       </c>
       <c r="L24">
-        <v>0.9361127715521524</v>
+        <v>0.9499750287278457</v>
       </c>
       <c r="M24">
-        <v>0.9354960370179115</v>
+        <v>0.9549220880335184</v>
       </c>
       <c r="N24">
-        <v>0.9539699392239228</v>
+        <v>0.9443924604432814</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9276336840424435</v>
+        <v>0.9522893411433618</v>
       </c>
       <c r="D25">
-        <v>0.9395017927825982</v>
+        <v>0.969046095743939</v>
       </c>
       <c r="E25">
-        <v>0.9453826477297478</v>
+        <v>0.9705171558418202</v>
       </c>
       <c r="F25">
-        <v>0.9475866348813794</v>
+        <v>0.9771022178785391</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033199345061906</v>
+        <v>1.042149638426055</v>
       </c>
       <c r="J25">
-        <v>0.9548685221290006</v>
+        <v>0.9785364108230746</v>
       </c>
       <c r="K25">
-        <v>0.9531179634839184</v>
+        <v>0.9821447213363481</v>
       </c>
       <c r="L25">
-        <v>0.9588924500780902</v>
+        <v>0.9835910736161967</v>
       </c>
       <c r="M25">
-        <v>0.9610570147689401</v>
+        <v>0.990066706611627</v>
       </c>
       <c r="N25">
-        <v>0.9708064007766741</v>
+        <v>0.9799260447661388</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_22/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9795828141250352</v>
+        <v>0.984214792184022</v>
       </c>
       <c r="D2">
-        <v>0.9949202161956612</v>
+        <v>0.9998389856611798</v>
       </c>
       <c r="E2">
-        <v>0.9946646140362746</v>
+        <v>1.000182452081518</v>
       </c>
       <c r="F2">
-        <v>1.002288955180776</v>
+        <v>1.00806692141163</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044180754914068</v>
+        <v>1.045214825438176</v>
       </c>
       <c r="J2">
-        <v>1.002391833867923</v>
+        <v>1.006878109516343</v>
       </c>
       <c r="K2">
-        <v>1.006450777083024</v>
+        <v>1.011300564124972</v>
       </c>
       <c r="L2">
-        <v>1.006198783139347</v>
+        <v>1.011639245641851</v>
       </c>
       <c r="M2">
-        <v>1.013716493067415</v>
+        <v>1.019415003679292</v>
       </c>
       <c r="N2">
-        <v>1.003815345247965</v>
+        <v>1.00349588214727</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9973803950031375</v>
+        <v>0.9954939219929732</v>
       </c>
       <c r="D3">
-        <v>1.01181853204421</v>
+        <v>1.010369524031555</v>
       </c>
       <c r="E3">
-        <v>1.010435741064653</v>
+        <v>1.01003545547471</v>
       </c>
       <c r="F3">
-        <v>1.018739640467453</v>
+        <v>1.018456095147154</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045471145846927</v>
+        <v>1.045996815168076</v>
       </c>
       <c r="J3">
-        <v>1.017942728733829</v>
+        <v>1.016108185573798</v>
       </c>
       <c r="K3">
-        <v>1.022302393301825</v>
+        <v>1.020871422109818</v>
       </c>
       <c r="L3">
-        <v>1.020936813487286</v>
+        <v>1.020541521087267</v>
       </c>
       <c r="M3">
-        <v>1.029138229981743</v>
+        <v>1.028858149781668</v>
       </c>
       <c r="N3">
-        <v>1.019388324168294</v>
+        <v>1.006868708150876</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008157655705915</v>
+        <v>1.002486928519544</v>
       </c>
       <c r="D4">
-        <v>1.022060075288259</v>
+        <v>1.016905092770078</v>
       </c>
       <c r="E4">
-        <v>1.019993508363976</v>
+        <v>1.016150612185386</v>
       </c>
       <c r="F4">
-        <v>1.028708957930837</v>
+        <v>1.024902405272366</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046234148472669</v>
+        <v>1.046462996670945</v>
       </c>
       <c r="J4">
-        <v>1.027354964954145</v>
+        <v>1.021827231642279</v>
       </c>
       <c r="K4">
-        <v>1.031899350076631</v>
+        <v>1.026803681390268</v>
       </c>
       <c r="L4">
-        <v>1.029856472419514</v>
+        <v>1.026057944339537</v>
       </c>
       <c r="M4">
-        <v>1.038472811450843</v>
+        <v>1.034709290582639</v>
       </c>
       <c r="N4">
-        <v>1.028813926843641</v>
+        <v>1.008955233911509</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012533696276088</v>
+        <v>1.005359684093901</v>
       </c>
       <c r="D5">
-        <v>1.026220330462077</v>
+        <v>1.019591352945803</v>
       </c>
       <c r="E5">
-        <v>1.023875759869303</v>
+        <v>1.018664053401625</v>
       </c>
       <c r="F5">
-        <v>1.032758227710103</v>
+        <v>1.027551536729026</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046539209778013</v>
+        <v>1.046649841829603</v>
       </c>
       <c r="J5">
-        <v>1.031175386316484</v>
+        <v>1.02417564804262</v>
       </c>
       <c r="K5">
-        <v>1.035795339432874</v>
+        <v>1.029240120308059</v>
       </c>
       <c r="L5">
-        <v>1.033476721824793</v>
+        <v>1.028323232762062</v>
       </c>
       <c r="M5">
-        <v>1.042261629981769</v>
+        <v>1.037111874819013</v>
       </c>
       <c r="N5">
-        <v>1.032639773642523</v>
+        <v>1.009811155307738</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013259938449792</v>
+        <v>1.005838257291937</v>
       </c>
       <c r="D6">
-        <v>1.026910853925004</v>
+        <v>1.020038936582859</v>
       </c>
       <c r="E6">
-        <v>1.024520123201862</v>
+        <v>1.019082839694954</v>
       </c>
       <c r="F6">
-        <v>1.033430301283065</v>
+        <v>1.027992905942319</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046589548463721</v>
+        <v>1.046680688670759</v>
       </c>
       <c r="J6">
-        <v>1.031809331793821</v>
+        <v>1.024566809395555</v>
       </c>
       <c r="K6">
-        <v>1.036441857562661</v>
+        <v>1.02964597007635</v>
       </c>
       <c r="L6">
-        <v>1.034077435322939</v>
+        <v>1.028700551301793</v>
       </c>
       <c r="M6">
-        <v>1.042890321144052</v>
+        <v>1.0375120516777</v>
       </c>
       <c r="N6">
-        <v>1.033274619395153</v>
+        <v>1.009953667597707</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.00821671067879</v>
+        <v>1.002525570749011</v>
       </c>
       <c r="D7">
-        <v>1.022116211742502</v>
+        <v>1.01694122098285</v>
       </c>
       <c r="E7">
-        <v>1.020045894657968</v>
+        <v>1.016184416243365</v>
       </c>
       <c r="F7">
-        <v>1.028763598625994</v>
+        <v>1.024938035977822</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046238284645579</v>
+        <v>1.046465528724092</v>
       </c>
       <c r="J7">
-        <v>1.027406527538554</v>
+        <v>1.021858824943257</v>
       </c>
       <c r="K7">
-        <v>1.031951930290577</v>
+        <v>1.026836457022686</v>
       </c>
       <c r="L7">
-        <v>1.029905334417484</v>
+        <v>1.026088419070989</v>
       </c>
       <c r="M7">
-        <v>1.038523948085542</v>
+        <v>1.034741613015692</v>
       </c>
       <c r="N7">
-        <v>1.028865562652835</v>
+        <v>1.008966752191502</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9857656130081</v>
+        <v>0.9880937218706204</v>
       </c>
       <c r="D8">
-        <v>1.000788437914337</v>
+        <v>1.003458928672975</v>
       </c>
       <c r="E8">
-        <v>1.000141467167484</v>
+        <v>1.003569442113363</v>
       </c>
       <c r="F8">
-        <v>1.008001805153996</v>
+        <v>1.011638543723878</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044632778046939</v>
+        <v>1.045487601921312</v>
       </c>
       <c r="J8">
-        <v>1.007794939411049</v>
+        <v>1.010053029093879</v>
       </c>
       <c r="K8">
-        <v>1.0119577398889</v>
+        <v>1.014592249541061</v>
       </c>
       <c r="L8">
-        <v>1.011319522531152</v>
+        <v>1.014701279153525</v>
       </c>
       <c r="M8">
-        <v>1.019074466941287</v>
+        <v>1.022663138016795</v>
       </c>
       <c r="N8">
-        <v>1.009226123820708</v>
+        <v>1.004656706825228</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9391794194459362</v>
+        <v>0.9600038614217937</v>
       </c>
       <c r="D9">
-        <v>0.9566375091805722</v>
+        <v>0.9772835626988789</v>
       </c>
       <c r="E9">
-        <v>0.958938315590389</v>
+        <v>0.9790810391288557</v>
       </c>
       <c r="F9">
-        <v>0.9650264194108258</v>
+        <v>0.9858095958947836</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041159538486218</v>
+        <v>1.043438369268076</v>
       </c>
       <c r="J9">
-        <v>0.9670791607257861</v>
+        <v>0.987052584365617</v>
       </c>
       <c r="K9">
-        <v>0.9704756046598991</v>
+        <v>0.9907562739569793</v>
       </c>
       <c r="L9">
-        <v>0.9727346795710621</v>
+        <v>0.9925228818370677</v>
       </c>
       <c r="M9">
-        <v>0.9787136045691626</v>
+        <v>0.9991371761559084</v>
       </c>
       <c r="N9">
-        <v>0.9684525240595468</v>
+        <v>0.9962362399193176</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9004564166850688</v>
+        <v>0.9389340164063172</v>
       </c>
       <c r="D10">
-        <v>0.9200720657824701</v>
+        <v>0.9577139279474338</v>
       </c>
       <c r="E10">
-        <v>0.9248309665059812</v>
+        <v>0.9607790075479836</v>
       </c>
       <c r="F10">
-        <v>0.9294638522181196</v>
+        <v>0.9665003371127915</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038212872041937</v>
+        <v>1.041816795146953</v>
       </c>
       <c r="J10">
-        <v>0.9332633227565128</v>
+        <v>0.9697989807078031</v>
       </c>
       <c r="K10">
-        <v>0.9360517438535014</v>
+        <v>0.9728910812096715</v>
       </c>
       <c r="L10">
-        <v>0.9407043824196933</v>
+        <v>0.9758944549951007</v>
       </c>
       <c r="M10">
-        <v>0.9452352086399985</v>
+        <v>0.9815019785934033</v>
       </c>
       <c r="N10">
-        <v>0.9345886637216263</v>
+        <v>0.9899106050157453</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.880616650221911</v>
+        <v>0.9290870583088754</v>
       </c>
       <c r="D11">
-        <v>0.9013940762677558</v>
+        <v>0.9485888195591964</v>
       </c>
       <c r="E11">
-        <v>0.9074195447098089</v>
+        <v>0.9522477628754737</v>
       </c>
       <c r="F11">
-        <v>0.9113159333417591</v>
+        <v>0.9574990536848842</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036704009256126</v>
+        <v>1.041043223257572</v>
       </c>
       <c r="J11">
-        <v>0.9159629186757524</v>
+        <v>0.9617393824859682</v>
       </c>
       <c r="K11">
-        <v>0.9184503770436042</v>
+        <v>0.9645500753240083</v>
       </c>
       <c r="L11">
-        <v>0.9243275015038405</v>
+        <v>0.9681301289531175</v>
       </c>
       <c r="M11">
-        <v>0.9281293658134067</v>
+        <v>0.973269592305087</v>
       </c>
       <c r="N11">
-        <v>0.917263691082687</v>
+        <v>0.9869556165260447</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8725825186957192</v>
+        <v>0.9253018605785436</v>
       </c>
       <c r="D12">
-        <v>0.8938425161339008</v>
+        <v>0.9450848091436336</v>
       </c>
       <c r="E12">
-        <v>0.9003827892468458</v>
+        <v>0.9489723552891848</v>
       </c>
       <c r="F12">
-        <v>0.903982950549423</v>
+        <v>0.954043177643306</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036095222900892</v>
+        <v>1.040743945367438</v>
       </c>
       <c r="J12">
-        <v>0.9089637685664688</v>
+        <v>0.9586422861499603</v>
       </c>
       <c r="K12">
-        <v>0.9113314451772847</v>
+        <v>0.961345554316408</v>
       </c>
       <c r="L12">
-        <v>0.9177044406935841</v>
+        <v>0.9651471151369467</v>
       </c>
       <c r="M12">
-        <v>0.9212139154862319</v>
+        <v>0.9701071781735854</v>
       </c>
       <c r="N12">
-        <v>0.9102546013774346</v>
+        <v>0.9858202895310686</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8743408741909982</v>
+        <v>0.926119930267279</v>
       </c>
       <c r="D13">
-        <v>0.8954946335307017</v>
+        <v>0.9458419299027629</v>
       </c>
       <c r="E13">
-        <v>0.9019221319458954</v>
+        <v>0.9496800533323658</v>
       </c>
       <c r="F13">
-        <v>0.9055870218184376</v>
+        <v>0.9547898674116867</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036228317870143</v>
+        <v>1.040808704520115</v>
       </c>
       <c r="J13">
-        <v>0.910495244022577</v>
+        <v>0.9593115859372079</v>
       </c>
       <c r="K13">
-        <v>0.9128890317074815</v>
+        <v>0.9620380358058473</v>
       </c>
       <c r="L13">
-        <v>0.9191534928493899</v>
+        <v>0.9657917308660696</v>
       </c>
       <c r="M13">
-        <v>0.9227268167582978</v>
+        <v>0.9707905401613445</v>
       </c>
       <c r="N13">
-        <v>0.9117882517043533</v>
+        <v>0.9860656270945254</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8799678124297945</v>
+        <v>0.9287769026488547</v>
       </c>
       <c r="D14">
-        <v>0.9007839432746347</v>
+        <v>0.9483016255109853</v>
       </c>
       <c r="E14">
-        <v>0.9068509431415289</v>
+        <v>0.9519792932108125</v>
       </c>
       <c r="F14">
-        <v>0.9107233636739785</v>
+        <v>0.9572157915341607</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036654783951473</v>
+        <v>1.041018736487754</v>
       </c>
       <c r="J14">
-        <v>0.915397511666625</v>
+        <v>0.9614855853419394</v>
       </c>
       <c r="K14">
-        <v>0.9178752512123863</v>
+        <v>0.9642874602388648</v>
       </c>
       <c r="L14">
-        <v>0.9237924196080057</v>
+        <v>0.9678856672074521</v>
       </c>
       <c r="M14">
-        <v>0.9275706086764309</v>
+        <v>0.9730104191191417</v>
       </c>
       <c r="N14">
-        <v>0.9166974811307537</v>
+        <v>0.9868625746880636</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8833381593006588</v>
+        <v>0.9303963941536046</v>
       </c>
       <c r="D15">
-        <v>0.9039537441961146</v>
+        <v>0.9498013754240949</v>
       </c>
       <c r="E15">
-        <v>0.9098050929647103</v>
+        <v>0.9533812865108237</v>
       </c>
       <c r="F15">
-        <v>0.9138020983871973</v>
+        <v>0.9586950338798694</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036910584251033</v>
+        <v>1.041146520776838</v>
       </c>
       <c r="J15">
-        <v>0.9183347663685091</v>
+        <v>0.9628108431442195</v>
       </c>
       <c r="K15">
-        <v>0.9208630758425652</v>
+        <v>0.965658792108214</v>
       </c>
       <c r="L15">
-        <v>0.9265722413213928</v>
+        <v>0.9691622039301062</v>
       </c>
       <c r="M15">
-        <v>0.9304735264867107</v>
+        <v>0.9743637943942737</v>
       </c>
       <c r="N15">
-        <v>0.9196389070712224</v>
+        <v>0.9873484226198647</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9016939374076101</v>
+        <v>0.9395707762441988</v>
       </c>
       <c r="D16">
-        <v>0.9212384645944807</v>
+        <v>0.9583044779974287</v>
       </c>
       <c r="E16">
-        <v>0.9259185574396208</v>
+        <v>0.9613311925528367</v>
       </c>
       <c r="F16">
-        <v>0.9305976052043096</v>
+        <v>0.9670829403861704</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038307151587968</v>
+        <v>1.041866533259325</v>
       </c>
       <c r="J16">
-        <v>0.9343431331390667</v>
+        <v>0.9703202738231274</v>
       </c>
       <c r="K16">
-        <v>0.9371505676318835</v>
+        <v>0.9734306685787334</v>
       </c>
       <c r="L16">
-        <v>0.941726811013354</v>
+        <v>0.9763967262247619</v>
       </c>
       <c r="M16">
-        <v>0.9463034189268459</v>
+        <v>0.9820345794949946</v>
       </c>
       <c r="N16">
-        <v>0.9356700075587793</v>
+        <v>0.9901017476026309</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9122785356137164</v>
+        <v>0.9451199898344155</v>
       </c>
       <c r="D17">
-        <v>0.9312208737820955</v>
+        <v>0.9634533369221205</v>
       </c>
       <c r="E17">
-        <v>0.9352277146349541</v>
+        <v>0.9661458793498603</v>
       </c>
       <c r="F17">
-        <v>0.9403025860286117</v>
+        <v>0.9721628027396124</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039113765278004</v>
+        <v>1.042298291611761</v>
       </c>
       <c r="J17">
-        <v>0.9435816269145433</v>
+        <v>0.9748636906864091</v>
       </c>
       <c r="K17">
-        <v>0.9465528231799752</v>
+        <v>0.9781340134484353</v>
       </c>
       <c r="L17">
-        <v>0.9504754733065197</v>
+        <v>0.980774725803326</v>
       </c>
       <c r="M17">
-        <v>0.9554450718581761</v>
+        <v>0.9866771822664394</v>
       </c>
       <c r="N17">
-        <v>0.9449216210550875</v>
+        <v>0.991767690048118</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9181737676709496</v>
+        <v>0.9482884303898806</v>
       </c>
       <c r="D18">
-        <v>0.9367853223152127</v>
+        <v>0.966395052301984</v>
       </c>
       <c r="E18">
-        <v>0.9404177447649218</v>
+        <v>0.9688969182963163</v>
       </c>
       <c r="F18">
-        <v>0.9457138158243269</v>
+        <v>0.9750653046196949</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039562943536424</v>
+        <v>1.042543333111966</v>
       </c>
       <c r="J18">
-        <v>0.9487290943724775</v>
+        <v>0.9774581711072926</v>
       </c>
       <c r="K18">
-        <v>0.9517923780250602</v>
+        <v>0.9808202087952405</v>
       </c>
       <c r="L18">
-        <v>0.9553508170830426</v>
+        <v>0.9832750346701415</v>
       </c>
       <c r="M18">
-        <v>0.9605403595586628</v>
+        <v>0.9893287867716012</v>
       </c>
       <c r="N18">
-        <v>0.9500763985072346</v>
+        <v>0.9927189856729959</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9201409026128148</v>
+        <v>0.9493576972766543</v>
       </c>
       <c r="D19">
-        <v>0.9386427923885143</v>
+        <v>0.9673881066883822</v>
       </c>
       <c r="E19">
-        <v>0.9421503568138585</v>
+        <v>0.9698256431313176</v>
       </c>
       <c r="F19">
-        <v>0.9475203504438823</v>
+        <v>0.9760451507184772</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039712769703483</v>
+        <v>1.042625765340255</v>
       </c>
       <c r="J19">
-        <v>0.9504469914651557</v>
+        <v>0.9783337840416735</v>
       </c>
       <c r="K19">
-        <v>0.9535411418710964</v>
+        <v>0.9817268389009448</v>
       </c>
       <c r="L19">
-        <v>0.9569780135262874</v>
+        <v>0.9841189111944705</v>
       </c>
       <c r="M19">
-        <v>0.962241110158939</v>
+        <v>0.9902237540618301</v>
       </c>
       <c r="N19">
-        <v>0.9517967352108297</v>
+        <v>0.9930400288667848</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9111727932347883</v>
+        <v>0.9445318000471197</v>
       </c>
       <c r="D20">
-        <v>0.9301775367340885</v>
+        <v>0.9629073845246496</v>
       </c>
       <c r="E20">
-        <v>0.93425464746724</v>
+        <v>0.9656353337871065</v>
       </c>
       <c r="F20">
-        <v>0.9392880869800547</v>
+        <v>0.9716241433572445</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039029497617341</v>
+        <v>1.042252678759451</v>
       </c>
       <c r="J20">
-        <v>0.9426162870921952</v>
+        <v>0.9743820741864374</v>
       </c>
       <c r="K20">
-        <v>0.9455702806500085</v>
+        <v>0.9776354030312995</v>
       </c>
       <c r="L20">
-        <v>0.9495612277070387</v>
+        <v>0.9803106131409577</v>
       </c>
       <c r="M20">
-        <v>0.9544896554042666</v>
+        <v>0.9861849995500118</v>
       </c>
       <c r="N20">
-        <v>0.9439549103394655</v>
+        <v>0.9915910963344736</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8783315410857563</v>
+        <v>0.9279981894356492</v>
       </c>
       <c r="D21">
-        <v>0.8992454866007475</v>
+        <v>0.9475806240135896</v>
       </c>
       <c r="E21">
-        <v>0.9054172562663062</v>
+        <v>0.9513053088624697</v>
       </c>
       <c r="F21">
-        <v>0.9092292674336592</v>
+        <v>0.9565046713046939</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036530689164258</v>
+        <v>1.040957228121204</v>
       </c>
       <c r="J21">
-        <v>0.9139717581498741</v>
+        <v>0.9608483907601968</v>
       </c>
       <c r="K21">
-        <v>0.9164250234791869</v>
+        <v>0.9636281386164623</v>
       </c>
       <c r="L21">
-        <v>0.922443178241495</v>
+        <v>0.9672719208761082</v>
       </c>
       <c r="M21">
-        <v>0.9261617097631242</v>
+        <v>0.9723597454740928</v>
       </c>
       <c r="N21">
-        <v>0.9152697028804728</v>
+        <v>0.9866289836500065</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8535922080468771</v>
+        <v>0.9168512319590377</v>
       </c>
       <c r="D22">
-        <v>0.8760227861689087</v>
+        <v>0.937269625024492</v>
       </c>
       <c r="E22">
-        <v>0.8837851331516663</v>
+        <v>0.9416682699397045</v>
       </c>
       <c r="F22">
-        <v>0.886690087423155</v>
+        <v>0.9463367336426602</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034664107850829</v>
+        <v>1.040072806556966</v>
       </c>
       <c r="J22">
-        <v>0.8924380429365971</v>
+        <v>0.9517304164634655</v>
       </c>
       <c r="K22">
-        <v>0.8945275005266178</v>
+        <v>0.9541953586332304</v>
       </c>
       <c r="L22">
-        <v>0.9020732012232225</v>
+        <v>0.9584911674805229</v>
       </c>
       <c r="M22">
-        <v>0.9048984066649451</v>
+        <v>0.9630518837351923</v>
       </c>
       <c r="N22">
-        <v>0.8937054073216414</v>
+        <v>0.9832872070421398</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8672109068809501</v>
+        <v>0.9228393977041819</v>
       </c>
       <c r="D23">
-        <v>0.8887976582239081</v>
+        <v>0.9428064052922391</v>
       </c>
       <c r="E23">
-        <v>0.8956828274955596</v>
+        <v>0.9468427744896881</v>
       </c>
       <c r="F23">
-        <v>0.8990856173682732</v>
+        <v>0.9517962697474261</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035689188917299</v>
+        <v>1.040548772681075</v>
       </c>
       <c r="J23">
-        <v>0.904286577444063</v>
+        <v>0.9566278276107053</v>
       </c>
       <c r="K23">
-        <v>0.9065748521078929</v>
+        <v>0.9592614342744571</v>
       </c>
       <c r="L23">
-        <v>0.9132794490373844</v>
+        <v>0.9632070530122633</v>
       </c>
       <c r="M23">
-        <v>0.9165943775462493</v>
+        <v>0.9680505767125893</v>
       </c>
       <c r="N23">
-        <v>0.905570768107154</v>
+        <v>0.9850819211569163</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9116732783866787</v>
+        <v>0.9447977874521697</v>
       </c>
       <c r="D24">
-        <v>0.9306497614454698</v>
+        <v>0.9631542658332247</v>
       </c>
       <c r="E24">
-        <v>0.9346950646601683</v>
+        <v>0.9658662032581712</v>
       </c>
       <c r="F24">
-        <v>0.9397472549303655</v>
+        <v>0.971867726114537</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039067639521978</v>
+        <v>1.042273310156991</v>
       </c>
       <c r="J24">
-        <v>0.9430532167058434</v>
+        <v>0.9745998667366842</v>
       </c>
       <c r="K24">
-        <v>0.9460149938813537</v>
+        <v>0.9778608792183998</v>
       </c>
       <c r="L24">
-        <v>0.9499750287278457</v>
+        <v>0.9805204893628566</v>
       </c>
       <c r="M24">
-        <v>0.9549220880335184</v>
+        <v>0.9864075687724407</v>
       </c>
       <c r="N24">
-        <v>0.9443924604432814</v>
+        <v>0.9916709541532016</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9522893411433618</v>
+        <v>0.9676313775727533</v>
       </c>
       <c r="D25">
-        <v>0.969046095743939</v>
+        <v>0.984382005112874</v>
       </c>
       <c r="E25">
-        <v>0.9705171558418202</v>
+        <v>0.9857212753413173</v>
       </c>
       <c r="F25">
-        <v>0.9771022178785391</v>
+        <v>0.9928144294254226</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042149638426055</v>
+        <v>1.044010085081745</v>
       </c>
       <c r="J25">
-        <v>0.9785364108230746</v>
+        <v>0.9932994313238981</v>
       </c>
       <c r="K25">
-        <v>0.9821447213363481</v>
+        <v>0.9972277073753112</v>
       </c>
       <c r="L25">
-        <v>0.9835910736161967</v>
+        <v>0.9985453695232694</v>
       </c>
       <c r="M25">
-        <v>0.990066706611627</v>
+        <v>1.005525325768161</v>
       </c>
       <c r="N25">
-        <v>0.9799260447661388</v>
+        <v>0.9985252767038205</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_22/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.984214792184022</v>
+        <v>1.071125148936574</v>
       </c>
       <c r="D2">
-        <v>0.9998389856611798</v>
+        <v>1.080246609679346</v>
       </c>
       <c r="E2">
-        <v>1.000182452081518</v>
+        <v>1.075456385561146</v>
       </c>
       <c r="F2">
-        <v>1.00806692141163</v>
+        <v>1.086179600876022</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045214825438176</v>
+        <v>1.029411991895546</v>
       </c>
       <c r="J2">
-        <v>1.006878109516343</v>
+        <v>1.076051327029329</v>
       </c>
       <c r="K2">
-        <v>1.011300564124972</v>
+        <v>1.082920544831877</v>
       </c>
       <c r="L2">
-        <v>1.011639245641851</v>
+        <v>1.07814290706639</v>
       </c>
       <c r="M2">
-        <v>1.019415003679292</v>
+        <v>1.088838113156724</v>
       </c>
       <c r="N2">
-        <v>1.00349588214727</v>
+        <v>1.028583383724545</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9954939219929732</v>
+        <v>1.073223625446383</v>
       </c>
       <c r="D3">
-        <v>1.010369524031555</v>
+        <v>1.082254941624109</v>
       </c>
       <c r="E3">
-        <v>1.01003545547471</v>
+        <v>1.07732937088837</v>
       </c>
       <c r="F3">
-        <v>1.018456095147154</v>
+        <v>1.08814671069342</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045996815168076</v>
+        <v>1.029443806110048</v>
       </c>
       <c r="J3">
-        <v>1.016108185573798</v>
+        <v>1.077802229427904</v>
       </c>
       <c r="K3">
-        <v>1.020871422109818</v>
+        <v>1.084744213159908</v>
       </c>
       <c r="L3">
-        <v>1.020541521087267</v>
+        <v>1.079830626585506</v>
       </c>
       <c r="M3">
-        <v>1.028858149781668</v>
+        <v>1.090621800355178</v>
       </c>
       <c r="N3">
-        <v>1.006868708150876</v>
+        <v>1.029199721004257</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.002486928519544</v>
+        <v>1.074577272269718</v>
       </c>
       <c r="D4">
-        <v>1.016905092770078</v>
+        <v>1.083550442908062</v>
       </c>
       <c r="E4">
-        <v>1.016150612185386</v>
+        <v>1.07853738396962</v>
       </c>
       <c r="F4">
-        <v>1.024902405272366</v>
+        <v>1.08941511382647</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046462996670945</v>
+        <v>1.029461631370708</v>
       </c>
       <c r="J4">
-        <v>1.021827231642279</v>
+        <v>1.078930786645533</v>
       </c>
       <c r="K4">
-        <v>1.026803681390268</v>
+        <v>1.085919820339161</v>
       </c>
       <c r="L4">
-        <v>1.026057944339537</v>
+        <v>1.080918330780363</v>
       </c>
       <c r="M4">
-        <v>1.034709290582639</v>
+        <v>1.091771101230529</v>
       </c>
       <c r="N4">
-        <v>1.008955233911509</v>
+        <v>1.029596215435513</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.005359684093901</v>
+        <v>1.075145363339365</v>
       </c>
       <c r="D5">
-        <v>1.019591352945803</v>
+        <v>1.084094131478095</v>
       </c>
       <c r="E5">
-        <v>1.018664053401625</v>
+        <v>1.079044312416783</v>
       </c>
       <c r="F5">
-        <v>1.027551536729026</v>
+        <v>1.089947307926418</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046649841829603</v>
+        <v>1.029468464779014</v>
       </c>
       <c r="J5">
-        <v>1.02417564804262</v>
+        <v>1.079404201339657</v>
       </c>
       <c r="K5">
-        <v>1.029240120308059</v>
+        <v>1.086413007115262</v>
       </c>
       <c r="L5">
-        <v>1.028323232762062</v>
+        <v>1.081374577202359</v>
       </c>
       <c r="M5">
-        <v>1.037111874819013</v>
+        <v>1.092253123806335</v>
       </c>
       <c r="N5">
-        <v>1.009811155307738</v>
+        <v>1.029762354393039</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.005838257291937</v>
+        <v>1.075240691473403</v>
       </c>
       <c r="D6">
-        <v>1.020038936582859</v>
+        <v>1.084185364718426</v>
       </c>
       <c r="E6">
-        <v>1.019082839694954</v>
+        <v>1.079129374590819</v>
       </c>
       <c r="F6">
-        <v>1.027992905942319</v>
+        <v>1.090036605167986</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046680688670759</v>
+        <v>1.029469573432489</v>
       </c>
       <c r="J6">
-        <v>1.024566809395555</v>
+        <v>1.079483629916049</v>
       </c>
       <c r="K6">
-        <v>1.02964597007635</v>
+        <v>1.086495755073676</v>
       </c>
       <c r="L6">
-        <v>1.028700551301793</v>
+        <v>1.081451123493964</v>
       </c>
       <c r="M6">
-        <v>1.0375120516777</v>
+        <v>1.092333991067364</v>
       </c>
       <c r="N6">
-        <v>1.009953667597707</v>
+        <v>1.029790217974796</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.002525570749011</v>
+        <v>1.074584866955018</v>
       </c>
       <c r="D7">
-        <v>1.01694122098285</v>
+        <v>1.083557711364275</v>
       </c>
       <c r="E7">
-        <v>1.016184416243365</v>
+        <v>1.078544161159237</v>
       </c>
       <c r="F7">
-        <v>1.024938035977822</v>
+        <v>1.08942222909637</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046465528724092</v>
+        <v>1.02946172527281</v>
       </c>
       <c r="J7">
-        <v>1.021858824943257</v>
+        <v>1.078937116457479</v>
       </c>
       <c r="K7">
-        <v>1.026836457022686</v>
+        <v>1.085926414376253</v>
       </c>
       <c r="L7">
-        <v>1.026088419070989</v>
+        <v>1.080924431165407</v>
       </c>
       <c r="M7">
-        <v>1.034741613015692</v>
+        <v>1.091777546504628</v>
       </c>
       <c r="N7">
-        <v>1.008966752191502</v>
+        <v>1.029598437532878</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9880937218706204</v>
+        <v>1.071835225466577</v>
       </c>
       <c r="D8">
-        <v>1.003458928672975</v>
+        <v>1.08092618201609</v>
       </c>
       <c r="E8">
-        <v>1.003569442113363</v>
+        <v>1.076090197215815</v>
       </c>
       <c r="F8">
-        <v>1.011638543723878</v>
+        <v>1.086845329488692</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045487601921312</v>
+        <v>1.029423315629621</v>
       </c>
       <c r="J8">
-        <v>1.010053029093879</v>
+        <v>1.076643975217175</v>
       </c>
       <c r="K8">
-        <v>1.014592249541061</v>
+        <v>1.083537792061353</v>
       </c>
       <c r="L8">
-        <v>1.014701279153525</v>
+        <v>1.078714195397702</v>
       </c>
       <c r="M8">
-        <v>1.022663138016795</v>
+        <v>1.089441938404183</v>
       </c>
       <c r="N8">
-        <v>1.004656706825228</v>
+        <v>1.028792162022911</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9600038614217937</v>
+        <v>1.066956635245977</v>
       </c>
       <c r="D9">
-        <v>0.9772835626988789</v>
+        <v>1.076257227713995</v>
       </c>
       <c r="E9">
-        <v>0.9790810391288557</v>
+        <v>1.071734900698971</v>
       </c>
       <c r="F9">
-        <v>0.9858095958947836</v>
+        <v>1.082269420302912</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043438369268076</v>
+        <v>1.02933446178786</v>
       </c>
       <c r="J9">
-        <v>0.987052584365617</v>
+        <v>1.072568562223681</v>
       </c>
       <c r="K9">
-        <v>0.9907562739569793</v>
+        <v>1.079293841371625</v>
       </c>
       <c r="L9">
-        <v>0.9925228818370677</v>
+        <v>1.074785149936307</v>
       </c>
       <c r="M9">
-        <v>0.9991371761559084</v>
+        <v>1.085288098339452</v>
       </c>
       <c r="N9">
-        <v>0.9962362399193176</v>
+        <v>1.027353321257044</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9389340164063172</v>
+        <v>1.063680195087045</v>
       </c>
       <c r="D10">
-        <v>0.9577139279474338</v>
+        <v>1.073121695310586</v>
       </c>
       <c r="E10">
-        <v>0.9607790075479836</v>
+        <v>1.06880909274052</v>
       </c>
       <c r="F10">
-        <v>0.9665003371127915</v>
+        <v>1.079193799232727</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041816795146953</v>
+        <v>1.029260949351283</v>
       </c>
       <c r="J10">
-        <v>0.9697989807078031</v>
+        <v>1.069827009215032</v>
       </c>
       <c r="K10">
-        <v>0.9728910812096715</v>
+        <v>1.076439702578613</v>
       </c>
       <c r="L10">
-        <v>0.9758944549951007</v>
+        <v>1.072141423155226</v>
       </c>
       <c r="M10">
-        <v>0.9815019785934033</v>
+        <v>1.082491852399139</v>
       </c>
       <c r="N10">
-        <v>0.9899106050157453</v>
+        <v>1.026381465467675</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9290870583088754</v>
+        <v>1.062255395419102</v>
       </c>
       <c r="D11">
-        <v>0.9485888195591964</v>
+        <v>1.071758213710595</v>
       </c>
       <c r="E11">
-        <v>0.9522477628754737</v>
+        <v>1.067536594533941</v>
       </c>
       <c r="F11">
-        <v>0.9574990536848842</v>
+        <v>1.077855767441031</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041043223257572</v>
+        <v>1.029225720996292</v>
       </c>
       <c r="J11">
-        <v>0.9617393824859682</v>
+        <v>1.06863374711582</v>
       </c>
       <c r="K11">
-        <v>0.9645500753240083</v>
+        <v>1.075197628053412</v>
       </c>
       <c r="L11">
-        <v>0.9681301289531175</v>
+        <v>1.070990593373066</v>
       </c>
       <c r="M11">
-        <v>0.973269592305087</v>
+        <v>1.081274338201117</v>
       </c>
       <c r="N11">
-        <v>0.9869556165260447</v>
+        <v>1.025957539483135</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9253018605785436</v>
+        <v>1.061725216688162</v>
       </c>
       <c r="D12">
-        <v>0.9450848091436336</v>
+        <v>1.071250859555837</v>
       </c>
       <c r="E12">
-        <v>0.9489723552891848</v>
+        <v>1.06706306343411</v>
       </c>
       <c r="F12">
-        <v>0.954043177643306</v>
+        <v>1.077357793381099</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040743945367438</v>
+        <v>1.029212124243509</v>
       </c>
       <c r="J12">
-        <v>0.9586422861499603</v>
+        <v>1.068189566032029</v>
       </c>
       <c r="K12">
-        <v>0.961345554316408</v>
+        <v>1.074735305876963</v>
       </c>
       <c r="L12">
-        <v>0.9651471151369467</v>
+        <v>1.070562185674911</v>
       </c>
       <c r="M12">
-        <v>0.9701071781735854</v>
+        <v>1.080821063340893</v>
       </c>
       <c r="N12">
-        <v>0.9858202895310686</v>
+        <v>1.025799598593235</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.926119930267279</v>
+        <v>1.061838985083004</v>
       </c>
       <c r="D13">
-        <v>0.9458419299027629</v>
+        <v>1.071359729772601</v>
       </c>
       <c r="E13">
-        <v>0.9496800533323658</v>
+        <v>1.067164677201117</v>
       </c>
       <c r="F13">
-        <v>0.9547898674116867</v>
+        <v>1.07746465482975</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040808704520115</v>
+        <v>1.029215063950585</v>
       </c>
       <c r="J13">
-        <v>0.9593115859372079</v>
+        <v>1.068284887815334</v>
       </c>
       <c r="K13">
-        <v>0.9620380358058473</v>
+        <v>1.074834519448803</v>
       </c>
       <c r="L13">
-        <v>0.9657917308660696</v>
+        <v>1.07065412344527</v>
       </c>
       <c r="M13">
-        <v>0.9707905401613445</v>
+        <v>1.08091833963573</v>
       </c>
       <c r="N13">
-        <v>0.9860656270945254</v>
+        <v>1.02583349913613</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9287769026488547</v>
+        <v>1.062211590134228</v>
       </c>
       <c r="D14">
-        <v>0.9483016255109853</v>
+        <v>1.071716294111333</v>
       </c>
       <c r="E14">
-        <v>0.9519792932108125</v>
+        <v>1.067497470180555</v>
       </c>
       <c r="F14">
-        <v>0.9572157915341607</v>
+        <v>1.07781462468955</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041018736487754</v>
+        <v>1.029224607522348</v>
       </c>
       <c r="J14">
-        <v>0.9614855853419394</v>
+        <v>1.068597050510011</v>
       </c>
       <c r="K14">
-        <v>0.9642874602388648</v>
+        <v>1.075159432106779</v>
       </c>
       <c r="L14">
-        <v>0.9678856672074521</v>
+        <v>1.070955200345827</v>
       </c>
       <c r="M14">
-        <v>0.9730104191191417</v>
+        <v>1.081236891643716</v>
       </c>
       <c r="N14">
-        <v>0.9868625746880636</v>
+        <v>1.025944493802302</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9303963941536046</v>
+        <v>1.06244103827726</v>
       </c>
       <c r="D15">
-        <v>0.9498013754240949</v>
+        <v>1.071935865523612</v>
       </c>
       <c r="E15">
-        <v>0.9533812865108237</v>
+        <v>1.06770239901513</v>
       </c>
       <c r="F15">
-        <v>0.9586950338798694</v>
+        <v>1.078030123365184</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041146520776838</v>
+        <v>1.029230419838887</v>
       </c>
       <c r="J15">
-        <v>0.9628108431442195</v>
+        <v>1.068789257519346</v>
       </c>
       <c r="K15">
-        <v>0.965658792108214</v>
+        <v>1.075359493446248</v>
       </c>
       <c r="L15">
-        <v>0.9691622039301062</v>
+        <v>1.071140578674931</v>
       </c>
       <c r="M15">
-        <v>0.9743637943942737</v>
+        <v>1.081433023998254</v>
       </c>
       <c r="N15">
-        <v>0.9873484226198647</v>
+        <v>1.026012817937965</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9395707762441988</v>
+        <v>1.063774623598292</v>
       </c>
       <c r="D16">
-        <v>0.9583044779974287</v>
+        <v>1.073212060973959</v>
       </c>
       <c r="E16">
-        <v>0.9613311925528367</v>
+        <v>1.068893423918094</v>
       </c>
       <c r="F16">
-        <v>0.9670829403861704</v>
+        <v>1.079282465578499</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041866533259325</v>
+        <v>1.029263215684981</v>
       </c>
       <c r="J16">
-        <v>0.9703202738231274</v>
+        <v>1.069906070256474</v>
       </c>
       <c r="K16">
-        <v>0.9734306685787334</v>
+        <v>1.076522001776526</v>
       </c>
       <c r="L16">
-        <v>0.9763967262247619</v>
+        <v>1.072217669740039</v>
       </c>
       <c r="M16">
-        <v>0.9820345794949946</v>
+        <v>1.082572510980263</v>
       </c>
       <c r="N16">
-        <v>0.9901017476026309</v>
+        <v>1.026409533811851</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9451199898344155</v>
+        <v>1.064609496827003</v>
       </c>
       <c r="D17">
-        <v>0.9634533369221205</v>
+        <v>1.074011018309676</v>
       </c>
       <c r="E17">
-        <v>0.9661458793498603</v>
+        <v>1.069639003313248</v>
       </c>
       <c r="F17">
-        <v>0.9721628027396124</v>
+        <v>1.080066329231607</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042298291611761</v>
+        <v>1.029282877480457</v>
       </c>
       <c r="J17">
-        <v>0.9748636906864091</v>
+        <v>1.070604952057324</v>
       </c>
       <c r="K17">
-        <v>0.9781340134484353</v>
+        <v>1.077249530141088</v>
       </c>
       <c r="L17">
-        <v>0.980774725803326</v>
+        <v>1.072891655534134</v>
       </c>
       <c r="M17">
-        <v>0.9866771822664394</v>
+        <v>1.083285463299968</v>
       </c>
       <c r="N17">
-        <v>0.991767690048118</v>
+        <v>1.026657545138473</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9482884303898806</v>
+        <v>1.065095879815892</v>
       </c>
       <c r="D18">
-        <v>0.966395052301984</v>
+        <v>1.074476481325811</v>
       </c>
       <c r="E18">
-        <v>0.9688969182963163</v>
+        <v>1.070073348271415</v>
       </c>
       <c r="F18">
-        <v>0.9750653046196949</v>
+        <v>1.080522940810822</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042543333111966</v>
+        <v>1.029294018184609</v>
       </c>
       <c r="J18">
-        <v>0.9774581711072926</v>
+        <v>1.071012006241829</v>
       </c>
       <c r="K18">
-        <v>0.9808202087952405</v>
+        <v>1.077673287441142</v>
       </c>
       <c r="L18">
-        <v>0.9832750346701415</v>
+        <v>1.07328419525395</v>
       </c>
       <c r="M18">
-        <v>0.9893287867716012</v>
+        <v>1.083700669604488</v>
       </c>
       <c r="N18">
-        <v>0.9927189856729959</v>
+        <v>1.026801906896849</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9493576972766543</v>
+        <v>1.065261625655572</v>
       </c>
       <c r="D19">
-        <v>0.9673881066883822</v>
+        <v>1.074635098862301</v>
       </c>
       <c r="E19">
-        <v>0.9698256431313176</v>
+        <v>1.070221358073554</v>
       </c>
       <c r="F19">
-        <v>0.9760451507184772</v>
+        <v>1.080678532145579</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042625765340255</v>
+        <v>1.029297761325048</v>
       </c>
       <c r="J19">
-        <v>0.9783337840416735</v>
+        <v>1.071150701616317</v>
       </c>
       <c r="K19">
-        <v>0.9817268389009448</v>
+        <v>1.077817677158698</v>
       </c>
       <c r="L19">
-        <v>0.9841189111944705</v>
+        <v>1.073417942715268</v>
       </c>
       <c r="M19">
-        <v>0.9902237540618301</v>
+        <v>1.083842135312539</v>
       </c>
       <c r="N19">
-        <v>0.9930400288667848</v>
+        <v>1.026851080079329</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9445318000471197</v>
+        <v>1.064519983507619</v>
       </c>
       <c r="D20">
-        <v>0.9629073845246496</v>
+        <v>1.073925355390633</v>
       </c>
       <c r="E20">
-        <v>0.9656353337871065</v>
+        <v>1.069559065631972</v>
       </c>
       <c r="F20">
-        <v>0.9716241433572445</v>
+        <v>1.079982290633783</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042252678759451</v>
+        <v>1.029280801857512</v>
       </c>
       <c r="J20">
-        <v>0.9743820741864374</v>
+        <v>1.07053003004994</v>
       </c>
       <c r="K20">
-        <v>0.9776354030312995</v>
+        <v>1.07717153524775</v>
       </c>
       <c r="L20">
-        <v>0.9803106131409577</v>
+        <v>1.072819403904806</v>
       </c>
       <c r="M20">
-        <v>0.9861849995500118</v>
+        <v>1.08320903734457</v>
       </c>
       <c r="N20">
-        <v>0.9915910963344736</v>
+        <v>1.026630966869336</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9279981894356492</v>
+        <v>1.062101893565689</v>
       </c>
       <c r="D21">
-        <v>0.9475806240135896</v>
+        <v>1.071611319777761</v>
       </c>
       <c r="E21">
-        <v>0.9513053088624697</v>
+        <v>1.067399495136713</v>
       </c>
       <c r="F21">
-        <v>0.9565046713046939</v>
+        <v>1.077711594276636</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040957228121204</v>
+        <v>1.029221811303093</v>
       </c>
       <c r="J21">
-        <v>0.9608483907601968</v>
+        <v>1.0685051528253</v>
       </c>
       <c r="K21">
-        <v>0.9636281386164623</v>
+        <v>1.07506378015666</v>
       </c>
       <c r="L21">
-        <v>0.9672719208761082</v>
+        <v>1.070866566806676</v>
       </c>
       <c r="M21">
-        <v>0.9723597454740928</v>
+        <v>1.081143114823822</v>
       </c>
       <c r="N21">
-        <v>0.9866289836500065</v>
+        <v>1.025911821851954</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9168512319590377</v>
+        <v>1.060576062870318</v>
       </c>
       <c r="D22">
-        <v>0.937269625024492</v>
+        <v>1.070151193037953</v>
       </c>
       <c r="E22">
-        <v>0.9416682699397045</v>
+        <v>1.06603664845321</v>
       </c>
       <c r="F22">
-        <v>0.9463367336426602</v>
+        <v>1.076278294156156</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040072806556966</v>
+        <v>1.029181762418862</v>
       </c>
       <c r="J22">
-        <v>0.9517304164634655</v>
+        <v>1.067226520093741</v>
       </c>
       <c r="K22">
-        <v>0.9541953586332304</v>
+        <v>1.073732980718428</v>
       </c>
       <c r="L22">
-        <v>0.9584911674805229</v>
+        <v>1.069633299360345</v>
       </c>
       <c r="M22">
-        <v>0.9630518837351923</v>
+        <v>1.079838180857294</v>
       </c>
       <c r="N22">
-        <v>0.9832872070421398</v>
+        <v>1.025456908709603</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9228393977041819</v>
+        <v>1.06138546476326</v>
       </c>
       <c r="D23">
-        <v>0.9428064052922391</v>
+        <v>1.07092573650968</v>
       </c>
       <c r="E23">
-        <v>0.9468427744896881</v>
+        <v>1.066759605912372</v>
       </c>
       <c r="F23">
-        <v>0.9517962697474261</v>
+        <v>1.077038656090899</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040548772681075</v>
+        <v>1.029203273936077</v>
       </c>
       <c r="J23">
-        <v>0.9566278276107053</v>
+        <v>1.067904878830529</v>
       </c>
       <c r="K23">
-        <v>0.9592614342744571</v>
+        <v>1.074438999745319</v>
       </c>
       <c r="L23">
-        <v>0.9632070530122633</v>
+        <v>1.070287601992226</v>
       </c>
       <c r="M23">
-        <v>0.9680505767125893</v>
+        <v>1.080530529202209</v>
       </c>
       <c r="N23">
-        <v>0.9850819211569163</v>
+        <v>1.025698331342044</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9447977874521697</v>
+        <v>1.064560432528481</v>
       </c>
       <c r="D24">
-        <v>0.9631542658332247</v>
+        <v>1.073964064491357</v>
       </c>
       <c r="E24">
-        <v>0.9658662032581712</v>
+        <v>1.069595187693613</v>
       </c>
       <c r="F24">
-        <v>0.971867726114537</v>
+        <v>1.080020265920644</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042273310156991</v>
+        <v>1.029281740754776</v>
       </c>
       <c r="J24">
-        <v>0.9745998667366842</v>
+        <v>1.070563885907755</v>
       </c>
       <c r="K24">
-        <v>0.9778608792183998</v>
+        <v>1.077206779628806</v>
       </c>
       <c r="L24">
-        <v>0.9805204893628566</v>
+        <v>1.072852053112285</v>
       </c>
       <c r="M24">
-        <v>0.9864075687724407</v>
+        <v>1.083243572941677</v>
       </c>
       <c r="N24">
-        <v>0.9916709541532016</v>
+        <v>1.026642977368914</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9676313775727533</v>
+        <v>1.068221986716782</v>
       </c>
       <c r="D25">
-        <v>0.984382005112874</v>
+        <v>1.077468190650534</v>
       </c>
       <c r="E25">
-        <v>0.9857212753413173</v>
+        <v>1.072864674216216</v>
       </c>
       <c r="F25">
-        <v>0.9928144294254226</v>
+        <v>1.083456705669959</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044010085081745</v>
+        <v>1.029359945731908</v>
       </c>
       <c r="J25">
-        <v>0.9932994313238981</v>
+        <v>1.073626392282351</v>
       </c>
       <c r="K25">
-        <v>0.9972277073753112</v>
+        <v>1.080395280022129</v>
       </c>
       <c r="L25">
-        <v>0.9985453695232694</v>
+        <v>1.075805101331091</v>
       </c>
       <c r="M25">
-        <v>1.005525325768161</v>
+        <v>1.086366628775588</v>
       </c>
       <c r="N25">
-        <v>0.9985252767038205</v>
+        <v>1.02772748688846</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_22/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.071125148936574</v>
+        <v>0.9842147921840217</v>
       </c>
       <c r="D2">
-        <v>1.080246609679346</v>
+        <v>0.9998389856611797</v>
       </c>
       <c r="E2">
-        <v>1.075456385561146</v>
+        <v>1.000182452081518</v>
       </c>
       <c r="F2">
-        <v>1.086179600876022</v>
+        <v>1.00806692141163</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029411991895546</v>
+        <v>1.045214825438176</v>
       </c>
       <c r="J2">
-        <v>1.076051327029329</v>
+        <v>1.006878109516343</v>
       </c>
       <c r="K2">
-        <v>1.082920544831877</v>
+        <v>1.011300564124971</v>
       </c>
       <c r="L2">
-        <v>1.07814290706639</v>
+        <v>1.011639245641851</v>
       </c>
       <c r="M2">
-        <v>1.088838113156724</v>
+        <v>1.019415003679291</v>
       </c>
       <c r="N2">
-        <v>1.028583383724545</v>
+        <v>1.00349588214727</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.073223625446383</v>
+        <v>0.9954939219929712</v>
       </c>
       <c r="D3">
-        <v>1.082254941624109</v>
+        <v>1.010369524031553</v>
       </c>
       <c r="E3">
-        <v>1.07732937088837</v>
+        <v>1.010035455474708</v>
       </c>
       <c r="F3">
-        <v>1.08814671069342</v>
+        <v>1.018456095147152</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029443806110048</v>
+        <v>1.045996815168076</v>
       </c>
       <c r="J3">
-        <v>1.077802229427904</v>
+        <v>1.016108185573796</v>
       </c>
       <c r="K3">
-        <v>1.084744213159908</v>
+        <v>1.020871422109816</v>
       </c>
       <c r="L3">
-        <v>1.079830626585506</v>
+        <v>1.020541521087265</v>
       </c>
       <c r="M3">
-        <v>1.090621800355178</v>
+        <v>1.028858149781666</v>
       </c>
       <c r="N3">
-        <v>1.029199721004257</v>
+        <v>1.006868708150875</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.074577272269718</v>
+        <v>1.002486928519545</v>
       </c>
       <c r="D4">
-        <v>1.083550442908062</v>
+        <v>1.016905092770078</v>
       </c>
       <c r="E4">
-        <v>1.07853738396962</v>
+        <v>1.016150612185386</v>
       </c>
       <c r="F4">
-        <v>1.08941511382647</v>
+        <v>1.024902405272366</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.029461631370708</v>
+        <v>1.046462996670945</v>
       </c>
       <c r="J4">
-        <v>1.078930786645533</v>
+        <v>1.021827231642279</v>
       </c>
       <c r="K4">
-        <v>1.085919820339161</v>
+        <v>1.026803681390269</v>
       </c>
       <c r="L4">
-        <v>1.080918330780363</v>
+        <v>1.026057944339538</v>
       </c>
       <c r="M4">
-        <v>1.091771101230529</v>
+        <v>1.03470929058264</v>
       </c>
       <c r="N4">
-        <v>1.029596215435513</v>
+        <v>1.008955233911509</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.075145363339365</v>
+        <v>1.005359684093901</v>
       </c>
       <c r="D5">
-        <v>1.084094131478095</v>
+        <v>1.019591352945804</v>
       </c>
       <c r="E5">
-        <v>1.079044312416783</v>
+        <v>1.018664053401626</v>
       </c>
       <c r="F5">
-        <v>1.089947307926418</v>
+        <v>1.027551536729027</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029468464779014</v>
+        <v>1.046649841829603</v>
       </c>
       <c r="J5">
-        <v>1.079404201339657</v>
+        <v>1.024175648042621</v>
       </c>
       <c r="K5">
-        <v>1.086413007115262</v>
+        <v>1.02924012030806</v>
       </c>
       <c r="L5">
-        <v>1.081374577202359</v>
+        <v>1.028323232762062</v>
       </c>
       <c r="M5">
-        <v>1.092253123806335</v>
+        <v>1.037111874819014</v>
       </c>
       <c r="N5">
-        <v>1.029762354393039</v>
+        <v>1.009811155307739</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.075240691473403</v>
+        <v>1.005838257291937</v>
       </c>
       <c r="D6">
-        <v>1.084185364718426</v>
+        <v>1.02003893658286</v>
       </c>
       <c r="E6">
-        <v>1.079129374590819</v>
+        <v>1.019082839694954</v>
       </c>
       <c r="F6">
-        <v>1.090036605167986</v>
+        <v>1.027992905942319</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029469573432489</v>
+        <v>1.046680688670759</v>
       </c>
       <c r="J6">
-        <v>1.079483629916049</v>
+        <v>1.024566809395555</v>
       </c>
       <c r="K6">
-        <v>1.086495755073676</v>
+        <v>1.02964597007635</v>
       </c>
       <c r="L6">
-        <v>1.081451123493964</v>
+        <v>1.028700551301794</v>
       </c>
       <c r="M6">
-        <v>1.092333991067364</v>
+        <v>1.037512051677701</v>
       </c>
       <c r="N6">
-        <v>1.029790217974796</v>
+        <v>1.009953667597707</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.074584866955018</v>
+        <v>1.002525570749012</v>
       </c>
       <c r="D7">
-        <v>1.083557711364275</v>
+        <v>1.016941220982851</v>
       </c>
       <c r="E7">
-        <v>1.078544161159237</v>
+        <v>1.016184416243366</v>
       </c>
       <c r="F7">
-        <v>1.08942222909637</v>
+        <v>1.024938035977823</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.02946172527281</v>
+        <v>1.046465528724092</v>
       </c>
       <c r="J7">
-        <v>1.078937116457479</v>
+        <v>1.021858824943258</v>
       </c>
       <c r="K7">
-        <v>1.085926414376253</v>
+        <v>1.026836457022688</v>
       </c>
       <c r="L7">
-        <v>1.080924431165407</v>
+        <v>1.02608841907099</v>
       </c>
       <c r="M7">
-        <v>1.091777546504628</v>
+        <v>1.034741613015692</v>
       </c>
       <c r="N7">
-        <v>1.029598437532878</v>
+        <v>1.008966752191502</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.071835225466577</v>
+        <v>0.9880937218706191</v>
       </c>
       <c r="D8">
-        <v>1.08092618201609</v>
+        <v>1.003458928672974</v>
       </c>
       <c r="E8">
-        <v>1.076090197215815</v>
+        <v>1.003569442113362</v>
       </c>
       <c r="F8">
-        <v>1.086845329488692</v>
+        <v>1.011638543723877</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029423315629621</v>
+        <v>1.045487601921312</v>
       </c>
       <c r="J8">
-        <v>1.076643975217175</v>
+        <v>1.010053029093877</v>
       </c>
       <c r="K8">
-        <v>1.083537792061353</v>
+        <v>1.01459224954106</v>
       </c>
       <c r="L8">
-        <v>1.078714195397702</v>
+        <v>1.014701279153523</v>
       </c>
       <c r="M8">
-        <v>1.089441938404183</v>
+        <v>1.022663138016794</v>
       </c>
       <c r="N8">
-        <v>1.028792162022911</v>
+        <v>1.004656706825227</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.066956635245977</v>
+        <v>0.9600038614217953</v>
       </c>
       <c r="D9">
-        <v>1.076257227713995</v>
+        <v>0.9772835626988803</v>
       </c>
       <c r="E9">
-        <v>1.071734900698971</v>
+        <v>0.9790810391288568</v>
       </c>
       <c r="F9">
-        <v>1.082269420302912</v>
+        <v>0.9858095958947847</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02933446178786</v>
+        <v>1.043438369268077</v>
       </c>
       <c r="J9">
-        <v>1.072568562223681</v>
+        <v>0.9870525843656183</v>
       </c>
       <c r="K9">
-        <v>1.079293841371625</v>
+        <v>0.9907562739569806</v>
       </c>
       <c r="L9">
-        <v>1.074785149936307</v>
+        <v>0.9925228818370688</v>
       </c>
       <c r="M9">
-        <v>1.085288098339452</v>
+        <v>0.9991371761559095</v>
       </c>
       <c r="N9">
-        <v>1.027353321257044</v>
+        <v>0.9962362399193181</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.063680195087045</v>
+        <v>0.9389340164063189</v>
       </c>
       <c r="D10">
-        <v>1.073121695310586</v>
+        <v>0.9577139279474358</v>
       </c>
       <c r="E10">
-        <v>1.06880909274052</v>
+        <v>0.9607790075479852</v>
       </c>
       <c r="F10">
-        <v>1.079193799232727</v>
+        <v>0.9665003371127936</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029260949351283</v>
+        <v>1.041816795146953</v>
       </c>
       <c r="J10">
-        <v>1.069827009215032</v>
+        <v>0.9697989807078048</v>
       </c>
       <c r="K10">
-        <v>1.076439702578613</v>
+        <v>0.9728910812096734</v>
       </c>
       <c r="L10">
-        <v>1.072141423155226</v>
+        <v>0.9758944549951024</v>
       </c>
       <c r="M10">
-        <v>1.082491852399139</v>
+        <v>0.9815019785934048</v>
       </c>
       <c r="N10">
-        <v>1.026381465467675</v>
+        <v>0.9899106050157459</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.062255395419102</v>
+        <v>0.9290870583088761</v>
       </c>
       <c r="D11">
-        <v>1.071758213710595</v>
+        <v>0.9485888195591967</v>
       </c>
       <c r="E11">
-        <v>1.067536594533941</v>
+        <v>0.952247762875474</v>
       </c>
       <c r="F11">
-        <v>1.077855767441031</v>
+        <v>0.9574990536848842</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029225720996292</v>
+        <v>1.041043223257572</v>
       </c>
       <c r="J11">
-        <v>1.06863374711582</v>
+        <v>0.9617393824859686</v>
       </c>
       <c r="K11">
-        <v>1.075197628053412</v>
+        <v>0.9645500753240087</v>
       </c>
       <c r="L11">
-        <v>1.070990593373066</v>
+        <v>0.9681301289531179</v>
       </c>
       <c r="M11">
-        <v>1.081274338201117</v>
+        <v>0.9732695923050872</v>
       </c>
       <c r="N11">
-        <v>1.025957539483135</v>
+        <v>0.9869556165260448</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.061725216688162</v>
+        <v>0.9253018605785427</v>
       </c>
       <c r="D12">
-        <v>1.071250859555837</v>
+        <v>0.9450848091436328</v>
       </c>
       <c r="E12">
-        <v>1.06706306343411</v>
+        <v>0.9489723552891841</v>
       </c>
       <c r="F12">
-        <v>1.077357793381099</v>
+        <v>0.9540431776433055</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029212124243509</v>
+        <v>1.040743945367438</v>
       </c>
       <c r="J12">
-        <v>1.068189566032029</v>
+        <v>0.9586422861499596</v>
       </c>
       <c r="K12">
-        <v>1.074735305876963</v>
+        <v>0.9613455543164072</v>
       </c>
       <c r="L12">
-        <v>1.070562185674911</v>
+        <v>0.9651471151369461</v>
       </c>
       <c r="M12">
-        <v>1.080821063340893</v>
+        <v>0.9701071781735847</v>
       </c>
       <c r="N12">
-        <v>1.025799598593235</v>
+        <v>0.9858202895310684</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.061838985083004</v>
+        <v>0.9261199302672786</v>
       </c>
       <c r="D13">
-        <v>1.071359729772601</v>
+        <v>0.9458419299027623</v>
       </c>
       <c r="E13">
-        <v>1.067164677201117</v>
+        <v>0.9496800533323652</v>
       </c>
       <c r="F13">
-        <v>1.07746465482975</v>
+        <v>0.954789867411686</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029215063950585</v>
+        <v>1.040808704520115</v>
       </c>
       <c r="J13">
-        <v>1.068284887815334</v>
+        <v>0.9593115859372074</v>
       </c>
       <c r="K13">
-        <v>1.074834519448803</v>
+        <v>0.9620380358058468</v>
       </c>
       <c r="L13">
-        <v>1.07065412344527</v>
+        <v>0.9657917308660693</v>
       </c>
       <c r="M13">
-        <v>1.08091833963573</v>
+        <v>0.970790540161344</v>
       </c>
       <c r="N13">
-        <v>1.02583349913613</v>
+        <v>0.9860656270945252</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.062211590134228</v>
+        <v>0.9287769026488529</v>
       </c>
       <c r="D14">
-        <v>1.071716294111333</v>
+        <v>0.9483016255109831</v>
       </c>
       <c r="E14">
-        <v>1.067497470180555</v>
+        <v>0.9519792932108109</v>
       </c>
       <c r="F14">
-        <v>1.07781462468955</v>
+        <v>0.9572157915341585</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029224607522348</v>
+        <v>1.041018736487753</v>
       </c>
       <c r="J14">
-        <v>1.068597050510011</v>
+        <v>0.9614855853419376</v>
       </c>
       <c r="K14">
-        <v>1.075159432106779</v>
+        <v>0.9642874602388627</v>
       </c>
       <c r="L14">
-        <v>1.070955200345827</v>
+        <v>0.9678856672074503</v>
       </c>
       <c r="M14">
-        <v>1.081236891643716</v>
+        <v>0.9730104191191397</v>
       </c>
       <c r="N14">
-        <v>1.025944493802302</v>
+        <v>0.986862574688063</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.06244103827726</v>
+        <v>0.9303963941536038</v>
       </c>
       <c r="D15">
-        <v>1.071935865523612</v>
+        <v>0.9498013754240942</v>
       </c>
       <c r="E15">
-        <v>1.06770239901513</v>
+        <v>0.9533812865108229</v>
       </c>
       <c r="F15">
-        <v>1.078030123365184</v>
+        <v>0.9586950338798688</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029230419838887</v>
+        <v>1.041146520776838</v>
       </c>
       <c r="J15">
-        <v>1.068789257519346</v>
+        <v>0.9628108431442189</v>
       </c>
       <c r="K15">
-        <v>1.075359493446248</v>
+        <v>0.9656587921082131</v>
       </c>
       <c r="L15">
-        <v>1.071140578674931</v>
+        <v>0.9691622039301053</v>
       </c>
       <c r="M15">
-        <v>1.081433023998254</v>
+        <v>0.974363794394273</v>
       </c>
       <c r="N15">
-        <v>1.026012817937965</v>
+        <v>0.9873484226198646</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.063774623598292</v>
+        <v>0.9395707762441982</v>
       </c>
       <c r="D16">
-        <v>1.073212060973959</v>
+        <v>0.9583044779974278</v>
       </c>
       <c r="E16">
-        <v>1.068893423918094</v>
+        <v>0.9613311925528362</v>
       </c>
       <c r="F16">
-        <v>1.079282465578499</v>
+        <v>0.9670829403861695</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029263215684981</v>
+        <v>1.041866533259324</v>
       </c>
       <c r="J16">
-        <v>1.069906070256474</v>
+        <v>0.9703202738231268</v>
       </c>
       <c r="K16">
-        <v>1.076522001776526</v>
+        <v>0.9734306685787326</v>
       </c>
       <c r="L16">
-        <v>1.072217669740039</v>
+        <v>0.9763967262247613</v>
       </c>
       <c r="M16">
-        <v>1.082572510980263</v>
+        <v>0.982034579494994</v>
       </c>
       <c r="N16">
-        <v>1.026409533811851</v>
+        <v>0.9901017476026307</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.064609496827003</v>
+        <v>0.9451199898344146</v>
       </c>
       <c r="D17">
-        <v>1.074011018309676</v>
+        <v>0.9634533369221198</v>
       </c>
       <c r="E17">
-        <v>1.069639003313248</v>
+        <v>0.9661458793498591</v>
       </c>
       <c r="F17">
-        <v>1.080066329231607</v>
+        <v>0.9721628027396115</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029282877480457</v>
+        <v>1.04229829161176</v>
       </c>
       <c r="J17">
-        <v>1.070604952057324</v>
+        <v>0.9748636906864081</v>
       </c>
       <c r="K17">
-        <v>1.077249530141088</v>
+        <v>0.9781340134484346</v>
       </c>
       <c r="L17">
-        <v>1.072891655534134</v>
+        <v>0.9807747258033248</v>
       </c>
       <c r="M17">
-        <v>1.083285463299968</v>
+        <v>0.9866771822664385</v>
       </c>
       <c r="N17">
-        <v>1.026657545138473</v>
+        <v>0.9917676900481178</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.065095879815892</v>
+        <v>0.9482884303898816</v>
       </c>
       <c r="D18">
-        <v>1.074476481325811</v>
+        <v>0.966395052301985</v>
       </c>
       <c r="E18">
-        <v>1.070073348271415</v>
+        <v>0.9688969182963169</v>
       </c>
       <c r="F18">
-        <v>1.080522940810822</v>
+        <v>0.9750653046196952</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029294018184609</v>
+        <v>1.042543333111966</v>
       </c>
       <c r="J18">
-        <v>1.071012006241829</v>
+        <v>0.9774581711072935</v>
       </c>
       <c r="K18">
-        <v>1.077673287441142</v>
+        <v>0.9808202087952413</v>
       </c>
       <c r="L18">
-        <v>1.07328419525395</v>
+        <v>0.9832750346701421</v>
       </c>
       <c r="M18">
-        <v>1.083700669604488</v>
+        <v>0.989328786771602</v>
       </c>
       <c r="N18">
-        <v>1.026801906896849</v>
+        <v>0.992718985672996</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.065261625655572</v>
+        <v>0.9493576972766549</v>
       </c>
       <c r="D19">
-        <v>1.074635098862301</v>
+        <v>0.9673881066883826</v>
       </c>
       <c r="E19">
-        <v>1.070221358073554</v>
+        <v>0.9698256431313177</v>
       </c>
       <c r="F19">
-        <v>1.080678532145579</v>
+        <v>0.9760451507184775</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029297761325048</v>
+        <v>1.042625765340255</v>
       </c>
       <c r="J19">
-        <v>1.071150701616317</v>
+        <v>0.9783337840416739</v>
       </c>
       <c r="K19">
-        <v>1.077817677158698</v>
+        <v>0.9817268389009454</v>
       </c>
       <c r="L19">
-        <v>1.073417942715268</v>
+        <v>0.9841189111944709</v>
       </c>
       <c r="M19">
-        <v>1.083842135312539</v>
+        <v>0.9902237540618305</v>
       </c>
       <c r="N19">
-        <v>1.026851080079329</v>
+        <v>0.9930400288667848</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.064519983507619</v>
+        <v>0.9445318000471191</v>
       </c>
       <c r="D20">
-        <v>1.073925355390633</v>
+        <v>0.9629073845246489</v>
       </c>
       <c r="E20">
-        <v>1.069559065631972</v>
+        <v>0.9656353337871058</v>
       </c>
       <c r="F20">
-        <v>1.079982290633783</v>
+        <v>0.9716241433572438</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029280801857512</v>
+        <v>1.04225267875945</v>
       </c>
       <c r="J20">
-        <v>1.07053003004994</v>
+        <v>0.9743820741864366</v>
       </c>
       <c r="K20">
-        <v>1.07717153524775</v>
+        <v>0.9776354030312986</v>
       </c>
       <c r="L20">
-        <v>1.072819403904806</v>
+        <v>0.9803106131409569</v>
       </c>
       <c r="M20">
-        <v>1.08320903734457</v>
+        <v>0.9861849995500108</v>
       </c>
       <c r="N20">
-        <v>1.026630966869336</v>
+        <v>0.9915910963344733</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.062101893565689</v>
+        <v>0.9279981894356503</v>
       </c>
       <c r="D21">
-        <v>1.071611319777761</v>
+        <v>0.9475806240135907</v>
       </c>
       <c r="E21">
-        <v>1.067399495136713</v>
+        <v>0.9513053088624708</v>
       </c>
       <c r="F21">
-        <v>1.077711594276636</v>
+        <v>0.9565046713046952</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029221811303093</v>
+        <v>1.040957228121204</v>
       </c>
       <c r="J21">
-        <v>1.0685051528253</v>
+        <v>0.9608483907601981</v>
       </c>
       <c r="K21">
-        <v>1.07506378015666</v>
+        <v>0.9636281386164635</v>
       </c>
       <c r="L21">
-        <v>1.070866566806676</v>
+        <v>0.9672719208761095</v>
       </c>
       <c r="M21">
-        <v>1.081143114823822</v>
+        <v>0.9723597454740938</v>
       </c>
       <c r="N21">
-        <v>1.025911821851954</v>
+        <v>0.9866289836500071</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.060576062870318</v>
+        <v>0.9168512319590388</v>
       </c>
       <c r="D22">
-        <v>1.070151193037953</v>
+        <v>0.9372696250244931</v>
       </c>
       <c r="E22">
-        <v>1.06603664845321</v>
+        <v>0.9416682699397053</v>
       </c>
       <c r="F22">
-        <v>1.076278294156156</v>
+        <v>0.9463367336426615</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029181762418862</v>
+        <v>1.040072806556966</v>
       </c>
       <c r="J22">
-        <v>1.067226520093741</v>
+        <v>0.9517304164634667</v>
       </c>
       <c r="K22">
-        <v>1.073732980718428</v>
+        <v>0.9541953586332315</v>
       </c>
       <c r="L22">
-        <v>1.069633299360345</v>
+        <v>0.9584911674805238</v>
       </c>
       <c r="M22">
-        <v>1.079838180857294</v>
+        <v>0.9630518837351937</v>
       </c>
       <c r="N22">
-        <v>1.025456908709603</v>
+        <v>0.9832872070421403</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.06138546476326</v>
+        <v>0.922839397704183</v>
       </c>
       <c r="D23">
-        <v>1.07092573650968</v>
+        <v>0.9428064052922401</v>
       </c>
       <c r="E23">
-        <v>1.066759605912372</v>
+        <v>0.9468427744896893</v>
       </c>
       <c r="F23">
-        <v>1.077038656090899</v>
+        <v>0.9517962697474274</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029203273936077</v>
+        <v>1.040548772681075</v>
       </c>
       <c r="J23">
-        <v>1.067904878830529</v>
+        <v>0.9566278276107064</v>
       </c>
       <c r="K23">
-        <v>1.074438999745319</v>
+        <v>0.9592614342744582</v>
       </c>
       <c r="L23">
-        <v>1.070287601992226</v>
+        <v>0.9632070530122645</v>
       </c>
       <c r="M23">
-        <v>1.080530529202209</v>
+        <v>0.9680505767125903</v>
       </c>
       <c r="N23">
-        <v>1.025698331342044</v>
+        <v>0.9850819211569167</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.064560432528481</v>
+        <v>0.9447977874521702</v>
       </c>
       <c r="D24">
-        <v>1.073964064491357</v>
+        <v>0.9631542658332253</v>
       </c>
       <c r="E24">
-        <v>1.069595187693613</v>
+        <v>0.9658662032581714</v>
       </c>
       <c r="F24">
-        <v>1.080020265920644</v>
+        <v>0.9718677261145378</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029281740754776</v>
+        <v>1.042273310156991</v>
       </c>
       <c r="J24">
-        <v>1.070563885907755</v>
+        <v>0.9745998667366849</v>
       </c>
       <c r="K24">
-        <v>1.077206779628806</v>
+        <v>0.9778608792184006</v>
       </c>
       <c r="L24">
-        <v>1.072852053112285</v>
+        <v>0.980520489362857</v>
       </c>
       <c r="M24">
-        <v>1.083243572941677</v>
+        <v>0.9864075687724413</v>
       </c>
       <c r="N24">
-        <v>1.026642977368914</v>
+        <v>0.9916709541532019</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.068221986716782</v>
+        <v>0.9676313775727533</v>
       </c>
       <c r="D25">
-        <v>1.077468190650534</v>
+        <v>0.9843820051128738</v>
       </c>
       <c r="E25">
-        <v>1.072864674216216</v>
+        <v>0.9857212753413166</v>
       </c>
       <c r="F25">
-        <v>1.083456705669959</v>
+        <v>0.9928144294254223</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029359945731908</v>
+        <v>1.044010085081745</v>
       </c>
       <c r="J25">
-        <v>1.073626392282351</v>
+        <v>0.993299431323898</v>
       </c>
       <c r="K25">
-        <v>1.080395280022129</v>
+        <v>0.9972277073753112</v>
       </c>
       <c r="L25">
-        <v>1.075805101331091</v>
+        <v>0.9985453695232691</v>
       </c>
       <c r="M25">
-        <v>1.086366628775588</v>
+        <v>1.00552532576816</v>
       </c>
       <c r="N25">
-        <v>1.02772748688846</v>
+        <v>0.9985252767038204</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_22/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9842147921840217</v>
+        <v>1.000695885097578</v>
       </c>
       <c r="D2">
-        <v>0.9998389856611797</v>
+        <v>1.019572643619394</v>
       </c>
       <c r="E2">
-        <v>1.000182452081518</v>
+        <v>1.017287734116418</v>
       </c>
       <c r="F2">
-        <v>1.00806692141163</v>
+        <v>1.029136840180442</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045214825438176</v>
+        <v>1.047285994439122</v>
       </c>
       <c r="J2">
-        <v>1.006878109516343</v>
+        <v>1.022855802264518</v>
       </c>
       <c r="K2">
-        <v>1.011300564124971</v>
+        <v>1.030765871979402</v>
       </c>
       <c r="L2">
-        <v>1.011639245641851</v>
+        <v>1.028511364702435</v>
       </c>
       <c r="M2">
-        <v>1.019415003679291</v>
+        <v>1.040204644851298</v>
       </c>
       <c r="N2">
-        <v>1.00349588214727</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.011151757713208</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.040391670070575</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.032824325498764</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9954939219929712</v>
+        <v>1.004629951311739</v>
       </c>
       <c r="D3">
-        <v>1.010369524031553</v>
+        <v>1.022476243626914</v>
       </c>
       <c r="E3">
-        <v>1.010035455474708</v>
+        <v>1.020359377815376</v>
       </c>
       <c r="F3">
-        <v>1.018456095147152</v>
+        <v>1.032093057641339</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045996815168076</v>
+        <v>1.047475825501643</v>
       </c>
       <c r="J3">
-        <v>1.016108185573796</v>
+        <v>1.024995190044983</v>
       </c>
       <c r="K3">
-        <v>1.020871422109816</v>
+        <v>1.032829392262645</v>
       </c>
       <c r="L3">
-        <v>1.020541521087265</v>
+        <v>1.030738218902279</v>
       </c>
       <c r="M3">
-        <v>1.028858149781666</v>
+        <v>1.042331130905148</v>
       </c>
       <c r="N3">
-        <v>1.006868708150875</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.011914050605441</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.042074639496899</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.034280753247833</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.002486928519545</v>
+        <v>1.007133636004031</v>
       </c>
       <c r="D4">
-        <v>1.016905092770078</v>
+        <v>1.024330641317682</v>
       </c>
       <c r="E4">
-        <v>1.016150612185386</v>
+        <v>1.02231977747488</v>
       </c>
       <c r="F4">
-        <v>1.024902405272366</v>
+        <v>1.033978927515374</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046462996670945</v>
+        <v>1.04757875121095</v>
       </c>
       <c r="J4">
-        <v>1.021827231642279</v>
+        <v>1.026356606329084</v>
       </c>
       <c r="K4">
-        <v>1.026803681390269</v>
+        <v>1.034144024294146</v>
       </c>
       <c r="L4">
-        <v>1.026057944339538</v>
+        <v>1.032156083629359</v>
       </c>
       <c r="M4">
-        <v>1.03470929058264</v>
+        <v>1.043683849205164</v>
       </c>
       <c r="N4">
-        <v>1.008955233911509</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.012398427968177</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.043145222212672</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.035211227178724</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005359684093901</v>
+        <v>1.00818113746857</v>
       </c>
       <c r="D5">
-        <v>1.019591352945804</v>
+        <v>1.025110527165233</v>
       </c>
       <c r="E5">
-        <v>1.018664053401626</v>
+        <v>1.023141940947105</v>
       </c>
       <c r="F5">
-        <v>1.027551536729027</v>
+        <v>1.034769854438626</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046649841829603</v>
+        <v>1.047617733558933</v>
       </c>
       <c r="J5">
-        <v>1.024175648042621</v>
+        <v>1.026928163618917</v>
       </c>
       <c r="K5">
-        <v>1.02924012030806</v>
+        <v>1.034697802797345</v>
       </c>
       <c r="L5">
-        <v>1.028323232762062</v>
+        <v>1.032751055898552</v>
       </c>
       <c r="M5">
-        <v>1.037111874819014</v>
+        <v>1.044251447522061</v>
       </c>
       <c r="N5">
-        <v>1.009811155307739</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.012601957209767</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.043594436444936</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.035610014094348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005838257291937</v>
+        <v>1.008362152105214</v>
       </c>
       <c r="D6">
-        <v>1.02003893658286</v>
+        <v>1.025248424522267</v>
       </c>
       <c r="E6">
-        <v>1.019082839694954</v>
+        <v>1.023284899912194</v>
       </c>
       <c r="F6">
-        <v>1.027992905942319</v>
+        <v>1.034907659898617</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046680688670759</v>
+        <v>1.047624573918136</v>
       </c>
       <c r="J6">
-        <v>1.024566809395555</v>
+        <v>1.027029379837277</v>
       </c>
       <c r="K6">
-        <v>1.02964597007635</v>
+        <v>1.034797706177912</v>
       </c>
       <c r="L6">
-        <v>1.028700551301794</v>
+        <v>1.032855864100737</v>
       </c>
       <c r="M6">
-        <v>1.037512051677701</v>
+        <v>1.044351746637941</v>
       </c>
       <c r="N6">
-        <v>1.009953667597707</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.012638419258526</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.043673816127103</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.035689450845179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002525570749012</v>
+        <v>1.007163081136281</v>
       </c>
       <c r="D7">
-        <v>1.016941220982851</v>
+        <v>1.024360706491406</v>
       </c>
       <c r="E7">
-        <v>1.016184416243366</v>
+        <v>1.022345073546957</v>
       </c>
       <c r="F7">
-        <v>1.024938035977823</v>
+        <v>1.034004038868646</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046465528724092</v>
+        <v>1.047580846927766</v>
       </c>
       <c r="J7">
-        <v>1.021858824943258</v>
+        <v>1.02637928829815</v>
       </c>
       <c r="K7">
-        <v>1.026836457022688</v>
+        <v>1.034170841734247</v>
       </c>
       <c r="L7">
-        <v>1.02608841907099</v>
+        <v>1.032178177126151</v>
       </c>
       <c r="M7">
-        <v>1.034741613015692</v>
+        <v>1.043705811826778</v>
       </c>
       <c r="N7">
-        <v>1.008966752191502</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.01240768293936</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.043162604091439</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.035250424495991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9880937218706191</v>
+        <v>1.002053963887495</v>
       </c>
       <c r="D8">
-        <v>1.003458928672974</v>
+        <v>1.020583813949439</v>
       </c>
       <c r="E8">
-        <v>1.003569442113362</v>
+        <v>1.018349780117611</v>
       </c>
       <c r="F8">
-        <v>1.011638543723877</v>
+        <v>1.030160078330424</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045487601921312</v>
+        <v>1.047356276648029</v>
       </c>
       <c r="J8">
-        <v>1.010053029093877</v>
+        <v>1.023602752329643</v>
       </c>
       <c r="K8">
-        <v>1.01459224954106</v>
+        <v>1.031492000102664</v>
       </c>
       <c r="L8">
-        <v>1.014701279153523</v>
+        <v>1.029286798818012</v>
       </c>
       <c r="M8">
-        <v>1.022663138016794</v>
+        <v>1.040946440485261</v>
       </c>
       <c r="N8">
-        <v>1.004656706825227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.011419611627691</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.040978751428133</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.033360842479238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9600038614217953</v>
+        <v>0.9926898114075966</v>
       </c>
       <c r="D9">
-        <v>0.9772835626988803</v>
+        <v>1.013701633645714</v>
       </c>
       <c r="E9">
-        <v>0.9790810391288568</v>
+        <v>1.011069500846224</v>
       </c>
       <c r="F9">
-        <v>0.9858095958947847</v>
+        <v>1.023148175454865</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043438369268077</v>
+        <v>1.046805069476697</v>
       </c>
       <c r="J9">
-        <v>0.9870525843656183</v>
+        <v>1.018503378735325</v>
       </c>
       <c r="K9">
-        <v>0.9907562739569806</v>
+        <v>1.02657625508416</v>
       </c>
       <c r="L9">
-        <v>0.9925228818370688</v>
+        <v>1.023985500267804</v>
       </c>
       <c r="M9">
-        <v>0.9991371761559095</v>
+        <v>1.03587653072592</v>
       </c>
       <c r="N9">
-        <v>0.9962362399193181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.009597519696206</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.036966249240596</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.029881818671317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9389340164063189</v>
+        <v>0.9862718550100951</v>
       </c>
       <c r="D10">
-        <v>0.9577139279474358</v>
+        <v>1.00904559322625</v>
       </c>
       <c r="E10">
-        <v>0.9607790075479852</v>
+        <v>1.006138041185366</v>
       </c>
       <c r="F10">
-        <v>0.9665003371127936</v>
+        <v>1.018426678822914</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041816795146953</v>
+        <v>1.0463461447435</v>
       </c>
       <c r="J10">
-        <v>0.9697989807078048</v>
+        <v>1.01504093398277</v>
       </c>
       <c r="K10">
-        <v>0.9728910812096734</v>
+        <v>1.023253425023409</v>
       </c>
       <c r="L10">
-        <v>0.9758944549951024</v>
+        <v>1.020397348772357</v>
       </c>
       <c r="M10">
-        <v>0.9815019785934048</v>
+        <v>1.032471017615036</v>
       </c>
       <c r="N10">
-        <v>0.9899106050157459</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.00836290812183</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.034322694600551</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.02754929857778</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9290870583088761</v>
+        <v>0.9840007591954081</v>
       </c>
       <c r="D11">
-        <v>0.9485888195591967</v>
+        <v>1.007575525793055</v>
       </c>
       <c r="E11">
-        <v>0.952247762875474</v>
+        <v>1.004595017396076</v>
       </c>
       <c r="F11">
-        <v>0.9574990536848842</v>
+        <v>1.017200132360539</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041043223257572</v>
+        <v>1.046219636457284</v>
       </c>
       <c r="J11">
-        <v>0.9617393824859686</v>
+        <v>1.014054611994119</v>
       </c>
       <c r="K11">
-        <v>0.9645500753240087</v>
+        <v>1.022355979019101</v>
       </c>
       <c r="L11">
-        <v>0.9681301289531179</v>
+        <v>1.019430795576154</v>
       </c>
       <c r="M11">
-        <v>0.9732695923050872</v>
+        <v>1.031804809033585</v>
       </c>
       <c r="N11">
-        <v>0.9869556165260448</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.008058981866646</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.034233819105452</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.026947950196142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9253018605785427</v>
+        <v>0.9833605378033801</v>
       </c>
       <c r="D12">
-        <v>0.9450848091436328</v>
+        <v>1.007233100720355</v>
       </c>
       <c r="E12">
-        <v>0.9489723552891841</v>
+        <v>1.004250782364464</v>
       </c>
       <c r="F12">
-        <v>0.9540431776433055</v>
+        <v>1.01705513665043</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040743945367438</v>
+        <v>1.04620677020039</v>
       </c>
       <c r="J12">
-        <v>0.9586422861499596</v>
+        <v>1.013886194297252</v>
       </c>
       <c r="K12">
-        <v>0.9613455543164072</v>
+        <v>1.02222302563864</v>
       </c>
       <c r="L12">
-        <v>0.9651471151369461</v>
+        <v>1.019296994714775</v>
       </c>
       <c r="M12">
-        <v>0.9701071781735847</v>
+        <v>1.031862722572075</v>
       </c>
       <c r="N12">
-        <v>0.9858202895310684</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.008038673820109</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.034607435980778</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.026853945928916</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9261199302672786</v>
+        <v>0.9839538822829542</v>
       </c>
       <c r="D13">
-        <v>0.9458419299027623</v>
+        <v>1.007761063220493</v>
       </c>
       <c r="E13">
-        <v>0.9496800533323652</v>
+        <v>1.004825875088396</v>
       </c>
       <c r="F13">
-        <v>0.954789867411686</v>
+        <v>1.017759961703894</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040808704520115</v>
+        <v>1.046289219254892</v>
       </c>
       <c r="J13">
-        <v>0.9593115859372074</v>
+        <v>1.014358048520418</v>
       </c>
       <c r="K13">
-        <v>0.9620380358058468</v>
+        <v>1.022697529121273</v>
       </c>
       <c r="L13">
-        <v>0.9657917308660693</v>
+        <v>1.019817473995071</v>
       </c>
       <c r="M13">
-        <v>0.970790540161344</v>
+        <v>1.032511720120831</v>
       </c>
       <c r="N13">
-        <v>0.9860656270945252</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.008244553234608</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.035398260610183</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.027186922860146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9287769026488529</v>
+        <v>0.9849303701008412</v>
       </c>
       <c r="D14">
-        <v>0.9483016255109831</v>
+        <v>1.008528152257482</v>
       </c>
       <c r="E14">
-        <v>0.9519792932108109</v>
+        <v>1.005646748482492</v>
       </c>
       <c r="F14">
-        <v>0.9572157915341585</v>
+        <v>1.018640407571309</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041018736487753</v>
+        <v>1.046389975099869</v>
       </c>
       <c r="J14">
-        <v>0.9614855853419376</v>
+        <v>1.014980356344631</v>
       </c>
       <c r="K14">
-        <v>0.9642874602388627</v>
+        <v>1.023307772778232</v>
       </c>
       <c r="L14">
-        <v>0.9678856672074503</v>
+        <v>1.020479785524472</v>
       </c>
       <c r="M14">
-        <v>0.9730104191191397</v>
+        <v>1.033235670987188</v>
       </c>
       <c r="N14">
-        <v>0.986862574688063</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.008492013267431</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.036144355787412</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.02761983344906</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9303963941536038</v>
+        <v>0.9854430174967439</v>
       </c>
       <c r="D15">
-        <v>0.9498013754240942</v>
+        <v>1.008914249662039</v>
       </c>
       <c r="E15">
-        <v>0.9533812865108229</v>
+        <v>1.006055399529484</v>
       </c>
       <c r="F15">
-        <v>0.9586950338798688</v>
+        <v>1.019053002574687</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041146520776838</v>
+        <v>1.046435873802502</v>
       </c>
       <c r="J15">
-        <v>0.9628108431442189</v>
+        <v>1.015279339066909</v>
       </c>
       <c r="K15">
-        <v>0.9656587921082131</v>
+        <v>1.023598987121899</v>
       </c>
       <c r="L15">
-        <v>0.9691622039301053</v>
+        <v>1.020792718238335</v>
       </c>
       <c r="M15">
-        <v>0.974363794394273</v>
+        <v>1.033554351685478</v>
       </c>
       <c r="N15">
-        <v>0.9873484226198646</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.008604580883806</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.036433870975838</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.027831666533748</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9395707762441982</v>
+        <v>0.9880457528241581</v>
       </c>
       <c r="D16">
-        <v>0.9583044779974278</v>
+        <v>1.010787507016864</v>
       </c>
       <c r="E16">
-        <v>0.9613311925528362</v>
+        <v>1.008034333425658</v>
       </c>
       <c r="F16">
-        <v>0.9670829403861695</v>
+        <v>1.020938844694385</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041866533259324</v>
+        <v>1.046633938344894</v>
       </c>
       <c r="J16">
-        <v>0.9703202738231268</v>
+        <v>1.016663490389923</v>
       </c>
       <c r="K16">
-        <v>0.9734306685787326</v>
+        <v>1.024928569670082</v>
       </c>
       <c r="L16">
-        <v>0.9763967262247613</v>
+        <v>1.022223768949981</v>
       </c>
       <c r="M16">
-        <v>0.982034579494994</v>
+        <v>1.034904461772764</v>
       </c>
       <c r="N16">
-        <v>0.9901017476026307</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.00909073972643</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.037462182113665</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.028774941327174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9451199898344146</v>
+        <v>0.9895328255216944</v>
       </c>
       <c r="D17">
-        <v>0.9634533369221198</v>
+        <v>1.011824790767018</v>
       </c>
       <c r="E17">
-        <v>0.9661458793498591</v>
+        <v>1.009124079360491</v>
       </c>
       <c r="F17">
-        <v>0.9721628027396115</v>
+        <v>1.021921762615612</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04229829161176</v>
+        <v>1.046728875545848</v>
       </c>
       <c r="J17">
-        <v>0.9748636906864081</v>
+        <v>1.0173992705799</v>
       </c>
       <c r="K17">
-        <v>0.9781340134484346</v>
+        <v>1.02562861722769</v>
       </c>
       <c r="L17">
-        <v>0.9807747258033248</v>
+        <v>1.022973999591726</v>
       </c>
       <c r="M17">
-        <v>0.9866771822664385</v>
+        <v>1.035556039800613</v>
       </c>
       <c r="N17">
-        <v>0.9917676900481178</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.009333888916868</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.037847854883004</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.029272520528883</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9482884303898816</v>
+        <v>0.9901844707828591</v>
       </c>
       <c r="D18">
-        <v>0.966395052301985</v>
+        <v>1.012212553833367</v>
       </c>
       <c r="E18">
-        <v>0.9688969182963169</v>
+        <v>1.009525574525292</v>
       </c>
       <c r="F18">
-        <v>0.9750653046196952</v>
+        <v>1.022180579329985</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042543333111966</v>
+        <v>1.04674594223674</v>
       </c>
       <c r="J18">
-        <v>0.9774581711072935</v>
+        <v>1.01762349526562</v>
       </c>
       <c r="K18">
-        <v>0.9808202087952413</v>
+        <v>1.025823760618857</v>
       </c>
       <c r="L18">
-        <v>0.9832750346701421</v>
+        <v>1.02318188520156</v>
       </c>
       <c r="M18">
-        <v>0.989328786771602</v>
+        <v>1.035627124006259</v>
       </c>
       <c r="N18">
-        <v>0.992718985672996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.009381826559191</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.037665706920503</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.029398749876037</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9493576972766549</v>
+        <v>0.9901117029305299</v>
       </c>
       <c r="D19">
-        <v>0.9673881066883826</v>
+        <v>1.012048135322424</v>
       </c>
       <c r="E19">
-        <v>0.9698256431313177</v>
+        <v>1.009332051543803</v>
       </c>
       <c r="F19">
-        <v>0.9760451507184775</v>
+        <v>1.021811709374113</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042625765340255</v>
+        <v>1.04669945307962</v>
       </c>
       <c r="J19">
-        <v>0.9783337840416739</v>
+        <v>1.017416708492832</v>
       </c>
       <c r="K19">
-        <v>0.9817268389009454</v>
+        <v>1.025598647338813</v>
       </c>
       <c r="L19">
-        <v>0.9841189111944709</v>
+        <v>1.022927932678279</v>
       </c>
       <c r="M19">
-        <v>0.9902237540618305</v>
+        <v>1.035201690311226</v>
       </c>
       <c r="N19">
-        <v>0.9930400288667848</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.009270450555959</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.037002768674805</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.029246040649535</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9445318000471191</v>
+        <v>0.9879783196747718</v>
       </c>
       <c r="D20">
-        <v>0.9629073845246489</v>
+        <v>1.010302694823392</v>
       </c>
       <c r="E20">
-        <v>0.9656353337871058</v>
+        <v>1.007454479003293</v>
       </c>
       <c r="F20">
-        <v>0.9716241433572438</v>
+        <v>1.019690856934434</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04225267875945</v>
+        <v>1.046476074319854</v>
       </c>
       <c r="J20">
-        <v>0.9743820741864366</v>
+        <v>1.015980653865826</v>
       </c>
       <c r="K20">
-        <v>0.9776354030312986</v>
+        <v>1.024166771025575</v>
       </c>
       <c r="L20">
-        <v>0.9803106131409569</v>
+        <v>1.021367504736364</v>
       </c>
       <c r="M20">
-        <v>0.9861849995500108</v>
+        <v>1.03339608301781</v>
       </c>
       <c r="N20">
-        <v>0.9915910963344733</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.008702079405439</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.035044188039769</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.028237595814712</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9279981894356503</v>
+        <v>0.9830547682811556</v>
       </c>
       <c r="D21">
-        <v>0.9475806240135907</v>
+        <v>1.006709307423435</v>
       </c>
       <c r="E21">
-        <v>0.9513053088624708</v>
+        <v>1.00364617989088</v>
       </c>
       <c r="F21">
-        <v>0.9565046713046952</v>
+        <v>1.015994412917077</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040957228121204</v>
+        <v>1.046084158516938</v>
       </c>
       <c r="J21">
-        <v>0.9608483907601981</v>
+        <v>1.013278453551754</v>
       </c>
       <c r="K21">
-        <v>0.9636281386164635</v>
+        <v>1.021564675103116</v>
       </c>
       <c r="L21">
-        <v>0.9672719208761095</v>
+        <v>1.018558801979485</v>
       </c>
       <c r="M21">
-        <v>0.9723597454740938</v>
+        <v>1.030678972488395</v>
       </c>
       <c r="N21">
-        <v>0.9866289836500071</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.007728746384019</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.032852698134093</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.026401052248546</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9168512319590388</v>
+        <v>0.9799157825962442</v>
       </c>
       <c r="D22">
-        <v>0.9372696250244931</v>
+        <v>1.004429023711648</v>
       </c>
       <c r="E22">
-        <v>0.9416682699397053</v>
+        <v>1.001235505546379</v>
       </c>
       <c r="F22">
-        <v>0.9463367336426615</v>
+        <v>1.013669172073782</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040072806556966</v>
+        <v>1.045819929354219</v>
       </c>
       <c r="J22">
-        <v>0.9517304164634667</v>
+        <v>1.011563521975464</v>
       </c>
       <c r="K22">
-        <v>0.9541953586332315</v>
+        <v>1.019913248434692</v>
       </c>
       <c r="L22">
-        <v>0.9584911674805238</v>
+        <v>1.016782526499925</v>
       </c>
       <c r="M22">
-        <v>0.9630518837351937</v>
+        <v>1.028974617974058</v>
       </c>
       <c r="N22">
-        <v>0.9832872070421403</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.007111517253584</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.031503799996553</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.025219739219335</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.922839397704183</v>
+        <v>0.9815696706986099</v>
       </c>
       <c r="D23">
-        <v>0.9428064052922401</v>
+        <v>1.005622048476213</v>
       </c>
       <c r="E23">
-        <v>0.9468427744896893</v>
+        <v>1.00250236992428</v>
       </c>
       <c r="F23">
-        <v>0.9517962697474274</v>
+        <v>1.014890595285597</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040548772681075</v>
+        <v>1.04596041765527</v>
       </c>
       <c r="J23">
-        <v>0.9566278276107064</v>
+        <v>1.012460462422097</v>
       </c>
       <c r="K23">
-        <v>0.9592614342744582</v>
+        <v>1.020772697987121</v>
       </c>
       <c r="L23">
-        <v>0.9632070530122645</v>
+        <v>1.017712750550592</v>
       </c>
       <c r="M23">
-        <v>0.9680505767125903</v>
+        <v>1.029866609944075</v>
       </c>
       <c r="N23">
-        <v>0.9850819211569167</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.007433039329629</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.032209760435031</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.025817670002197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9447977874521702</v>
+        <v>0.9879817918829747</v>
       </c>
       <c r="D24">
-        <v>0.9631542658332253</v>
+        <v>1.010277725219747</v>
       </c>
       <c r="E24">
-        <v>0.9658662032581714</v>
+        <v>1.007434844618204</v>
       </c>
       <c r="F24">
-        <v>0.9718677261145378</v>
+        <v>1.01964618117003</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042273310156991</v>
+        <v>1.046470542512964</v>
       </c>
       <c r="J24">
-        <v>0.9745998667366849</v>
+        <v>1.015950452807604</v>
       </c>
       <c r="K24">
-        <v>0.9778608792184006</v>
+        <v>1.024126724854485</v>
       </c>
       <c r="L24">
-        <v>0.980520489362857</v>
+        <v>1.021332642044968</v>
       </c>
       <c r="M24">
-        <v>0.9864075687724413</v>
+        <v>1.0333368536287</v>
       </c>
       <c r="N24">
-        <v>0.9916709541532019</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.008685150472135</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.034956252334793</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.028181592010839</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9676313775727533</v>
+        <v>0.9951785724850399</v>
       </c>
       <c r="D25">
-        <v>0.9843820051128738</v>
+        <v>1.015537145346099</v>
       </c>
       <c r="E25">
-        <v>0.9857212753413166</v>
+        <v>1.013002565879681</v>
       </c>
       <c r="F25">
-        <v>0.9928144294254223</v>
+        <v>1.025011735942172</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044010085081745</v>
+        <v>1.046968418638768</v>
       </c>
       <c r="J25">
-        <v>0.993299431323898</v>
+        <v>1.019869293536345</v>
       </c>
       <c r="K25">
-        <v>0.9972277073753112</v>
+        <v>1.027898961715316</v>
       </c>
       <c r="L25">
-        <v>0.9985453695232691</v>
+        <v>1.025402332127423</v>
       </c>
       <c r="M25">
-        <v>1.00552532576816</v>
+        <v>1.037233799362703</v>
       </c>
       <c r="N25">
-        <v>0.9985252767038204</v>
+        <v>1.010088292591135</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.038040440854995</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.030845913394808</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_22/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.000695885097578</v>
+        <v>1.001107488376045</v>
       </c>
       <c r="D2">
-        <v>1.019572643619394</v>
+        <v>1.019648791564653</v>
       </c>
       <c r="E2">
-        <v>1.017287734116418</v>
+        <v>1.01763173020355</v>
       </c>
       <c r="F2">
-        <v>1.029136840180442</v>
+        <v>1.029364683057298</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.047285994439122</v>
+        <v>1.047325148796323</v>
       </c>
       <c r="J2">
-        <v>1.022855802264518</v>
+        <v>1.023255125039662</v>
       </c>
       <c r="K2">
-        <v>1.030765871979402</v>
+        <v>1.030841009670332</v>
       </c>
       <c r="L2">
-        <v>1.028511364702435</v>
+        <v>1.028850772733908</v>
       </c>
       <c r="M2">
-        <v>1.040204644851298</v>
+        <v>1.040429535400441</v>
       </c>
       <c r="N2">
-        <v>1.011151757713208</v>
+        <v>1.013112796092517</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.040391670070575</v>
+        <v>1.040569655866527</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.032824325498764</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.032886295509964</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020068533224539</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.004629951311739</v>
+        <v>1.00481489445209</v>
       </c>
       <c r="D3">
-        <v>1.022476243626914</v>
+        <v>1.022266891696427</v>
       </c>
       <c r="E3">
-        <v>1.020359377815376</v>
+        <v>1.020501073353835</v>
       </c>
       <c r="F3">
-        <v>1.032093057641339</v>
+        <v>1.032117392915513</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.047475825501643</v>
+        <v>1.04749727148676</v>
       </c>
       <c r="J3">
-        <v>1.024995190044983</v>
+        <v>1.025175155681701</v>
       </c>
       <c r="K3">
-        <v>1.032829392262645</v>
+        <v>1.032622575352811</v>
       </c>
       <c r="L3">
-        <v>1.030738218902279</v>
+        <v>1.030878190542574</v>
       </c>
       <c r="M3">
-        <v>1.042331130905148</v>
+        <v>1.042355178351718</v>
       </c>
       <c r="N3">
-        <v>1.011914050605441</v>
+        <v>1.01365470310181</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.042074639496899</v>
+        <v>1.042093671396816</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.034280753247833</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.034143072310296</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020469914620984</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.007133636004031</v>
+        <v>1.007176302299458</v>
       </c>
       <c r="D4">
-        <v>1.024330641317682</v>
+        <v>1.023940734423375</v>
       </c>
       <c r="E4">
-        <v>1.02231977747488</v>
+        <v>1.022334288119494</v>
       </c>
       <c r="F4">
-        <v>1.033978927515374</v>
+        <v>1.033875152871823</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.04757875121095</v>
+        <v>1.047589097860648</v>
       </c>
       <c r="J4">
-        <v>1.026356606329084</v>
+        <v>1.026398202037096</v>
       </c>
       <c r="K4">
-        <v>1.034144024294146</v>
+        <v>1.033758553530156</v>
       </c>
       <c r="L4">
-        <v>1.032156083629359</v>
+        <v>1.032170428458909</v>
       </c>
       <c r="M4">
-        <v>1.043683849205164</v>
+        <v>1.043581227896011</v>
       </c>
       <c r="N4">
-        <v>1.012398427968177</v>
+        <v>1.013999487638882</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.043145222212672</v>
+        <v>1.04306400461913</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.035211227178724</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.034947299600319</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020723364192652</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00818113746857</v>
+        <v>1.00816460835163</v>
       </c>
       <c r="D5">
-        <v>1.025110527165233</v>
+        <v>1.024645276413892</v>
       </c>
       <c r="E5">
-        <v>1.023141940947105</v>
+        <v>1.023103494787809</v>
       </c>
       <c r="F5">
-        <v>1.034769854438626</v>
+        <v>1.03461272402404</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.047617733558933</v>
+        <v>1.047623463813731</v>
       </c>
       <c r="J5">
-        <v>1.026928163618917</v>
+        <v>1.02691203685404</v>
       </c>
       <c r="K5">
-        <v>1.034697802797345</v>
+        <v>1.034237704184438</v>
       </c>
       <c r="L5">
-        <v>1.032751055898552</v>
+        <v>1.032713037286733</v>
       </c>
       <c r="M5">
-        <v>1.044251447522061</v>
+        <v>1.044096016902755</v>
       </c>
       <c r="N5">
-        <v>1.012601957209767</v>
+        <v>1.014144510640183</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.043594436444936</v>
+        <v>1.043471424045832</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.035610014094348</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.035294026830619</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020830268478176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008362152105214</v>
+        <v>1.008335269245681</v>
       </c>
       <c r="D6">
-        <v>1.025248424522267</v>
+        <v>1.024770087036384</v>
       </c>
       <c r="E6">
-        <v>1.023284899912194</v>
+        <v>1.023237189767796</v>
       </c>
       <c r="F6">
-        <v>1.034907659898617</v>
+        <v>1.034741224413655</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.047624573918136</v>
+        <v>1.047629492953357</v>
       </c>
       <c r="J6">
-        <v>1.027029379837277</v>
+        <v>1.027003147990423</v>
       </c>
       <c r="K6">
-        <v>1.034797706177912</v>
+        <v>1.034324641401377</v>
       </c>
       <c r="L6">
-        <v>1.032855864100737</v>
+        <v>1.032808682076364</v>
       </c>
       <c r="M6">
-        <v>1.044351746637941</v>
+        <v>1.044187103350708</v>
       </c>
       <c r="N6">
-        <v>1.012638419258526</v>
+        <v>1.014170549580328</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.043673816127103</v>
+        <v>1.043543512563075</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.035689450845179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.035365163362714</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020850362694397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.007163081136281</v>
+        <v>1.007211752289018</v>
       </c>
       <c r="D7">
-        <v>1.024360706491406</v>
+        <v>1.023974857738038</v>
       </c>
       <c r="E7">
-        <v>1.022345073546957</v>
+        <v>1.022364708656502</v>
       </c>
       <c r="F7">
-        <v>1.034004038868646</v>
+        <v>1.033904435019192</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.047580846927766</v>
+        <v>1.047591665351201</v>
       </c>
       <c r="J7">
-        <v>1.02637928829815</v>
+        <v>1.026426738741302</v>
       </c>
       <c r="K7">
-        <v>1.034170841734247</v>
+        <v>1.033789381134809</v>
       </c>
       <c r="L7">
-        <v>1.032178177126151</v>
+        <v>1.032197587952739</v>
       </c>
       <c r="M7">
-        <v>1.043705811826778</v>
+        <v>1.043607314517878</v>
       </c>
       <c r="N7">
-        <v>1.01240768293936</v>
+        <v>1.014034472839469</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.043162604091439</v>
+        <v>1.04308465035789</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.035250424495991</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.034991329532907</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020732947290408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.002053963887495</v>
+        <v>1.002411296010059</v>
       </c>
       <c r="D8">
-        <v>1.020583813949439</v>
+        <v>1.020580677378264</v>
       </c>
       <c r="E8">
-        <v>1.018349780117611</v>
+        <v>1.018644757249827</v>
       </c>
       <c r="F8">
-        <v>1.030160078330424</v>
+        <v>1.030335532287742</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.047356276648029</v>
+        <v>1.047391266804246</v>
       </c>
       <c r="J8">
-        <v>1.023602752329643</v>
+        <v>1.023949782174426</v>
       </c>
       <c r="K8">
-        <v>1.031492000102664</v>
+        <v>1.031488903901562</v>
       </c>
       <c r="L8">
-        <v>1.029286798818012</v>
+        <v>1.029577959893701</v>
       </c>
       <c r="M8">
-        <v>1.040946440485261</v>
+        <v>1.041119688764149</v>
       </c>
       <c r="N8">
-        <v>1.011419611627691</v>
+        <v>1.013389350046861</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.040978751428133</v>
+        <v>1.041115865720905</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.033360842479238</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.033369753961124</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020219801547077</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9926898114075966</v>
+        <v>0.9936032428854514</v>
       </c>
       <c r="D9">
-        <v>1.013701633645714</v>
+        <v>1.014388540991193</v>
       </c>
       <c r="E9">
-        <v>1.011069500846224</v>
+        <v>1.011859385324065</v>
       </c>
       <c r="F9">
-        <v>1.023148175454865</v>
+        <v>1.02382001683979</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.046805069476697</v>
+        <v>1.046883675355078</v>
       </c>
       <c r="J9">
-        <v>1.018503378735325</v>
+        <v>1.019383927065693</v>
       </c>
       <c r="K9">
-        <v>1.02657625508416</v>
+        <v>1.027252409206821</v>
       </c>
       <c r="L9">
-        <v>1.023985500267804</v>
+        <v>1.024762938572998</v>
       </c>
       <c r="M9">
-        <v>1.03587653072592</v>
+        <v>1.036538100732598</v>
       </c>
       <c r="N9">
-        <v>1.009597519696206</v>
+        <v>1.012107298619632</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.036966249240596</v>
+        <v>1.037489839934928</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.029881818671317</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.030370753660574</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019249755808935</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9862718550100951</v>
+        <v>0.9876102631893346</v>
       </c>
       <c r="D10">
-        <v>1.00904559322625</v>
+        <v>1.010236568459428</v>
       </c>
       <c r="E10">
-        <v>1.006138041185366</v>
+        <v>1.00730351477825</v>
       </c>
       <c r="F10">
-        <v>1.018426678822914</v>
+        <v>1.019470421622516</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.0463461447435</v>
+        <v>1.046458075436255</v>
       </c>
       <c r="J10">
-        <v>1.01504093398277</v>
+        <v>1.016324222458339</v>
       </c>
       <c r="K10">
-        <v>1.023253425023409</v>
+        <v>1.024423425906263</v>
       </c>
       <c r="L10">
-        <v>1.020397348772357</v>
+        <v>1.021542142332284</v>
       </c>
       <c r="M10">
-        <v>1.032471017615036</v>
+        <v>1.033496810571953</v>
       </c>
       <c r="N10">
-        <v>1.00836290812183</v>
+        <v>1.011362444859706</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.034322694600551</v>
+        <v>1.035134496443598</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.02754929857778</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.02838910675181</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018599741215399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9840007591954081</v>
+        <v>0.9855055898516401</v>
       </c>
       <c r="D11">
-        <v>1.007575525793055</v>
+        <v>1.008948682221515</v>
       </c>
       <c r="E11">
-        <v>1.004595017396076</v>
+        <v>1.005903497170204</v>
       </c>
       <c r="F11">
-        <v>1.017200132360539</v>
+        <v>1.018382837982169</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.046219636457284</v>
+        <v>1.046342106512211</v>
       </c>
       <c r="J11">
-        <v>1.014054611994119</v>
+        <v>1.015494036956929</v>
       </c>
       <c r="K11">
-        <v>1.022355979019101</v>
+        <v>1.023703789890327</v>
       </c>
       <c r="L11">
-        <v>1.019430795576154</v>
+        <v>1.0207149343594</v>
       </c>
       <c r="M11">
-        <v>1.031804809033585</v>
+        <v>1.03296621248379</v>
       </c>
       <c r="N11">
-        <v>1.008058981866646</v>
+        <v>1.011393048699722</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.034233819105452</v>
+        <v>1.035152475563411</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.026947950196142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.027916679656564</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018491118232847</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9833605378033801</v>
+        <v>0.9848994149386258</v>
       </c>
       <c r="D12">
-        <v>1.007233100720355</v>
+        <v>1.008643347322963</v>
       </c>
       <c r="E12">
-        <v>1.004250782364464</v>
+        <v>1.005586162605437</v>
       </c>
       <c r="F12">
-        <v>1.01705513665043</v>
+        <v>1.018264751955289</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.04620677020039</v>
+        <v>1.046329435995616</v>
       </c>
       <c r="J12">
-        <v>1.013886194297252</v>
+        <v>1.015356899085463</v>
       </c>
       <c r="K12">
-        <v>1.02222302563864</v>
+        <v>1.02360680697694</v>
       </c>
       <c r="L12">
-        <v>1.019296994714775</v>
+        <v>1.020607117426816</v>
       </c>
       <c r="M12">
-        <v>1.031862722572075</v>
+        <v>1.033050198956203</v>
       </c>
       <c r="N12">
-        <v>1.008038673820109</v>
+        <v>1.011484865896175</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.034607435980778</v>
+        <v>1.035546395384989</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.026853945928916</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.027848109829698</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018511262272278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9839538822829542</v>
+        <v>0.9854131638942961</v>
       </c>
       <c r="D13">
-        <v>1.007761063220493</v>
+        <v>1.009087307197324</v>
       </c>
       <c r="E13">
-        <v>1.004825875088396</v>
+        <v>1.006088324498623</v>
       </c>
       <c r="F13">
-        <v>1.017759961703894</v>
+        <v>1.01890094712709</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.046289219254892</v>
+        <v>1.046403046793147</v>
       </c>
       <c r="J13">
-        <v>1.014358048520418</v>
+        <v>1.015753024904753</v>
       </c>
       <c r="K13">
-        <v>1.022697529121273</v>
+        <v>1.023998998916324</v>
       </c>
       <c r="L13">
-        <v>1.019817473995071</v>
+        <v>1.021056158737454</v>
       </c>
       <c r="M13">
-        <v>1.032511720120831</v>
+        <v>1.033631928197837</v>
       </c>
       <c r="N13">
-        <v>1.008244553234608</v>
+        <v>1.011599341146569</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.035398260610183</v>
+        <v>1.036283805697071</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.027186922860146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.028122641138965</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018637859971394</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9849303701008412</v>
+        <v>0.9862831980976424</v>
       </c>
       <c r="D14">
-        <v>1.008528152257482</v>
+        <v>1.009741330159059</v>
       </c>
       <c r="E14">
-        <v>1.005646748482492</v>
+        <v>1.006813697104256</v>
       </c>
       <c r="F14">
-        <v>1.018640407571309</v>
+        <v>1.019690765396584</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.046389975099869</v>
+        <v>1.046493735842357</v>
       </c>
       <c r="J14">
-        <v>1.014980356344631</v>
+        <v>1.016274446456576</v>
       </c>
       <c r="K14">
-        <v>1.023307772778232</v>
+        <v>1.024498579174256</v>
       </c>
       <c r="L14">
-        <v>1.020479785524472</v>
+        <v>1.02162505278248</v>
       </c>
       <c r="M14">
-        <v>1.033235670987188</v>
+        <v>1.034267152020349</v>
       </c>
       <c r="N14">
-        <v>1.008492013267431</v>
+        <v>1.011691749743777</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.036144355787412</v>
+        <v>1.036959649978154</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.02761983344906</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.028477436923494</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018775910149243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9854430174967439</v>
+        <v>0.9867456122175964</v>
       </c>
       <c r="D15">
-        <v>1.008914249662039</v>
+        <v>1.010073576745441</v>
       </c>
       <c r="E15">
-        <v>1.006055399529484</v>
+        <v>1.007177787977985</v>
       </c>
       <c r="F15">
-        <v>1.019053002574687</v>
+        <v>1.020060820334494</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.046435873802502</v>
+        <v>1.046535334451833</v>
       </c>
       <c r="J15">
-        <v>1.015279339066909</v>
+        <v>1.016525880371829</v>
       </c>
       <c r="K15">
-        <v>1.023598987121899</v>
+        <v>1.024737101770675</v>
       </c>
       <c r="L15">
-        <v>1.020792718238335</v>
+        <v>1.021894416843417</v>
       </c>
       <c r="M15">
-        <v>1.033554351685478</v>
+        <v>1.034544198740543</v>
       </c>
       <c r="N15">
-        <v>1.008604580883806</v>
+        <v>1.011724518069475</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.036433870975838</v>
+        <v>1.037216236573412</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.027831666533748</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.028652578433249</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018835998106979</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9880457528241581</v>
+        <v>0.9891283717239242</v>
       </c>
       <c r="D16">
-        <v>1.010787507016864</v>
+        <v>1.01170517709909</v>
       </c>
       <c r="E16">
-        <v>1.008034333425658</v>
+        <v>1.008963943330509</v>
       </c>
       <c r="F16">
-        <v>1.020938844694385</v>
+        <v>1.021760614359641</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.046633938344894</v>
+        <v>1.046716755959399</v>
       </c>
       <c r="J16">
-        <v>1.016663490389923</v>
+        <v>1.017701876922081</v>
       </c>
       <c r="K16">
-        <v>1.024928569670082</v>
+        <v>1.025830192186448</v>
       </c>
       <c r="L16">
-        <v>1.022223768949981</v>
+        <v>1.023137007476885</v>
       </c>
       <c r="M16">
-        <v>1.034904461772764</v>
+        <v>1.035712225761661</v>
       </c>
       <c r="N16">
-        <v>1.00909073972643</v>
+        <v>1.011842061333807</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.037462182113665</v>
+        <v>1.0381006494003</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.028774941327174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.02942893313131</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019078702589352</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9895328255216944</v>
+        <v>0.9905118617736123</v>
       </c>
       <c r="D17">
-        <v>1.011824790767018</v>
+        <v>1.012623764550105</v>
       </c>
       <c r="E17">
-        <v>1.009124079360491</v>
+        <v>1.009963883558061</v>
       </c>
       <c r="F17">
-        <v>1.021921762615612</v>
+        <v>1.022655370518224</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.046728875545848</v>
+        <v>1.046804836747283</v>
       </c>
       <c r="J17">
-        <v>1.0173992705799</v>
+        <v>1.018339602154514</v>
       </c>
       <c r="K17">
-        <v>1.02562861722769</v>
+        <v>1.026414015546853</v>
       </c>
       <c r="L17">
-        <v>1.022973999591726</v>
+        <v>1.023799436506005</v>
       </c>
       <c r="M17">
-        <v>1.035556039800613</v>
+        <v>1.036277496820914</v>
       </c>
       <c r="N17">
-        <v>1.009333888916868</v>
+        <v>1.011913556490254</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.037847854883004</v>
+        <v>1.038418161092822</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.029272520528883</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.02984457940489</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.01919425087056</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9901844707828591</v>
+        <v>0.9911398020907369</v>
       </c>
       <c r="D18">
-        <v>1.012212553833367</v>
+        <v>1.012980054108802</v>
       </c>
       <c r="E18">
-        <v>1.009525574525292</v>
+        <v>1.010346584014851</v>
       </c>
       <c r="F18">
-        <v>1.022180579329985</v>
+        <v>1.022894031171844</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.04674594223674</v>
+        <v>1.046821903148113</v>
       </c>
       <c r="J18">
-        <v>1.01762349526562</v>
+        <v>1.01854176707801</v>
       </c>
       <c r="K18">
-        <v>1.025823760618857</v>
+        <v>1.026578434169808</v>
       </c>
       <c r="L18">
-        <v>1.02318188520156</v>
+        <v>1.023989080328101</v>
       </c>
       <c r="M18">
-        <v>1.035627124006259</v>
+        <v>1.036328948433671</v>
       </c>
       <c r="N18">
-        <v>1.009381826559191</v>
+        <v>1.011906895138106</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.037665706920503</v>
+        <v>1.038220609963577</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.029398749876037</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.02994795415336</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019199928681768</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9901117029305299</v>
+        <v>0.9911041720165996</v>
       </c>
       <c r="D19">
-        <v>1.012048135322424</v>
+        <v>1.012853432851777</v>
       </c>
       <c r="E19">
-        <v>1.009332051543803</v>
+        <v>1.010188371818959</v>
       </c>
       <c r="F19">
-        <v>1.021811709374113</v>
+        <v>1.022557536356765</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.04669945307962</v>
+        <v>1.04678053438021</v>
       </c>
       <c r="J19">
-        <v>1.017416708492832</v>
+        <v>1.018370897257077</v>
       </c>
       <c r="K19">
-        <v>1.025598647338813</v>
+        <v>1.026390553503155</v>
       </c>
       <c r="L19">
-        <v>1.022927932678279</v>
+        <v>1.023769915152455</v>
       </c>
       <c r="M19">
-        <v>1.035201690311226</v>
+        <v>1.035935416368986</v>
       </c>
       <c r="N19">
-        <v>1.009270450555959</v>
+        <v>1.011820788178384</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.037002768674805</v>
+        <v>1.037583085734239</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.029246040649535</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.029822193423682</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.01911778908672</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9879783196747718</v>
+        <v>0.9891781948881294</v>
       </c>
       <c r="D20">
-        <v>1.010302694823392</v>
+        <v>1.011339490947873</v>
       </c>
       <c r="E20">
-        <v>1.007454479003293</v>
+        <v>1.00849775665276</v>
       </c>
       <c r="F20">
-        <v>1.019690856934434</v>
+        <v>1.020616347341434</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.046476074319854</v>
+        <v>1.046576866814903</v>
       </c>
       <c r="J20">
-        <v>1.015980653865826</v>
+        <v>1.017132748451164</v>
       </c>
       <c r="K20">
-        <v>1.024166771025575</v>
+        <v>1.025185837160127</v>
       </c>
       <c r="L20">
-        <v>1.021367504736364</v>
+        <v>1.022392811094032</v>
       </c>
       <c r="M20">
-        <v>1.03339608301781</v>
+        <v>1.034306117761715</v>
       </c>
       <c r="N20">
-        <v>1.008702079405439</v>
+        <v>1.011494087155655</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.035044188039769</v>
+        <v>1.035764388670473</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.028237595814712</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.028974757379589</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.018779281698318</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9830547682811556</v>
+        <v>0.9847055786812197</v>
       </c>
       <c r="D21">
-        <v>1.006709307423435</v>
+        <v>1.008233938599353</v>
       </c>
       <c r="E21">
-        <v>1.00364617989088</v>
+        <v>1.005087718171255</v>
       </c>
       <c r="F21">
-        <v>1.015994412917077</v>
+        <v>1.017301765226684</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.046084158516938</v>
+        <v>1.046222247501994</v>
       </c>
       <c r="J21">
-        <v>1.013278453551754</v>
+        <v>1.014856969390247</v>
       </c>
       <c r="K21">
-        <v>1.021564675103116</v>
+        <v>1.023060977753771</v>
       </c>
       <c r="L21">
-        <v>1.018558801979485</v>
+        <v>1.019973339022878</v>
       </c>
       <c r="M21">
-        <v>1.030678972488395</v>
+        <v>1.031962600523605</v>
       </c>
       <c r="N21">
-        <v>1.007728746384019</v>
+        <v>1.011268188114728</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.032852698134093</v>
+        <v>1.033868613854219</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.026401052248546</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.027475982850538</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018287909755581</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9799157825962442</v>
+        <v>0.9818545826503371</v>
       </c>
       <c r="D22">
-        <v>1.004429023711648</v>
+        <v>1.006264403659935</v>
       </c>
       <c r="E22">
-        <v>1.001235505546379</v>
+        <v>1.00293165974713</v>
       </c>
       <c r="F22">
-        <v>1.013669172073782</v>
+        <v>1.015221306007034</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.045819929354219</v>
+        <v>1.045982249944311</v>
       </c>
       <c r="J22">
-        <v>1.011563521975464</v>
+        <v>1.013412385212546</v>
       </c>
       <c r="K22">
-        <v>1.019913248434692</v>
+        <v>1.021712774648959</v>
       </c>
       <c r="L22">
-        <v>1.016782526499925</v>
+        <v>1.018445262744041</v>
       </c>
       <c r="M22">
-        <v>1.028974617974058</v>
+        <v>1.030497138702295</v>
       </c>
       <c r="N22">
-        <v>1.007111517253584</v>
+        <v>1.011118883352448</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.031503799996553</v>
+        <v>1.032708787320865</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.025219739219335</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.026507784521525</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.017975314714235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9815696706986099</v>
+        <v>0.9833432807129454</v>
       </c>
       <c r="D23">
-        <v>1.005622048476213</v>
+        <v>1.007282739029057</v>
       </c>
       <c r="E23">
-        <v>1.00250236992428</v>
+        <v>1.004052382266318</v>
       </c>
       <c r="F23">
-        <v>1.014890595285597</v>
+        <v>1.016303121608438</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.04596041765527</v>
+        <v>1.04610865554167</v>
       </c>
       <c r="J23">
-        <v>1.012460462422097</v>
+        <v>1.01415424990458</v>
       </c>
       <c r="K23">
-        <v>1.020772697987121</v>
+        <v>1.022401789338414</v>
       </c>
       <c r="L23">
-        <v>1.017712750550592</v>
+        <v>1.01923302476229</v>
       </c>
       <c r="M23">
-        <v>1.029866609944075</v>
+        <v>1.031252886681514</v>
       </c>
       <c r="N23">
-        <v>1.007433039329629</v>
+        <v>1.011150038489301</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.032209760435031</v>
+        <v>1.033306917478021</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.025817670002197</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.026984267977102</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018131766826414</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9879817918829747</v>
+        <v>0.9891855561764115</v>
       </c>
       <c r="D24">
-        <v>1.010277725219747</v>
+        <v>1.011318325610999</v>
       </c>
       <c r="E24">
-        <v>1.007434844618204</v>
+        <v>1.008481886104943</v>
       </c>
       <c r="F24">
-        <v>1.01964618117003</v>
+        <v>1.0205750556659</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.046470542512964</v>
+        <v>1.04657191813038</v>
       </c>
       <c r="J24">
-        <v>1.015950452807604</v>
+        <v>1.017106349889443</v>
       </c>
       <c r="K24">
-        <v>1.024126724854485</v>
+        <v>1.025149552025004</v>
       </c>
       <c r="L24">
-        <v>1.021332642044968</v>
+        <v>1.022361669786611</v>
       </c>
       <c r="M24">
-        <v>1.0333368536287</v>
+        <v>1.034250234149655</v>
       </c>
       <c r="N24">
-        <v>1.008685150472135</v>
+        <v>1.011478198013318</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.034956252334793</v>
+        <v>1.035679137023598</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.028181592010839</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.028918755084894</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.01876312537559</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9951785724850399</v>
+        <v>0.9959312390762118</v>
       </c>
       <c r="D25">
-        <v>1.015537145346099</v>
+        <v>1.016030903744052</v>
       </c>
       <c r="E25">
-        <v>1.013002565879681</v>
+        <v>1.013649816301135</v>
       </c>
       <c r="F25">
-        <v>1.025011735942172</v>
+        <v>1.02554205602486</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046968418638768</v>
+        <v>1.047034322738746</v>
       </c>
       <c r="J25">
-        <v>1.019869293536345</v>
+        <v>1.020596313427732</v>
       </c>
       <c r="K25">
-        <v>1.027898961715316</v>
+        <v>1.028385355167153</v>
       </c>
       <c r="L25">
-        <v>1.025402332127423</v>
+        <v>1.026039868401696</v>
       </c>
       <c r="M25">
-        <v>1.037233799362703</v>
+        <v>1.037756393867854</v>
       </c>
       <c r="N25">
-        <v>1.010088292591135</v>
+        <v>1.012418988510162</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.038040440854995</v>
+        <v>1.038454040664864</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.030845913394808</v>
+        <v>1.031203460921074</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019513750923875</v>
       </c>
     </row>
   </sheetData>
